--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.1.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="573" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BF764E0-FE03-4D54-971E-2C007909368C}"/>
+  <xr:revisionPtr revIDLastSave="578" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42AAC4DB-8778-4926-BAE3-3A62F462617B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -981,9 +981,6 @@
     <t>MGN 12h - Y Axis</t>
   </si>
   <si>
-    <t>MGN 9h - X Axis</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -1193,9 +1190,6 @@
     <t>2xGL: 400 - C: MGN12 H</t>
   </si>
   <si>
-    <t>1xGL: 400 - C: MGN9 H</t>
-  </si>
-  <si>
     <t>Zhongfa</t>
   </si>
   <si>
@@ -1521,6 +1515,12 @@
   </si>
   <si>
     <t>H2 V2S LITE w/nema14</t>
+  </si>
+  <si>
+    <t>MGN 9h - X Axis Medium Preload</t>
+  </si>
+  <si>
+    <t>1xGL: 400 + 1xMGN9 H</t>
   </si>
 </sst>
 </file>
@@ -1923,7 +1923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2148,6 +2148,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -2922,6 +2925,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:L59" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <tableColumns count="12">
@@ -3209,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" hidden="1" thickBot="1">
       <c r="A1" s="116" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -3228,7 +3235,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>5</v>
@@ -3316,7 +3323,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>24</v>
@@ -3516,14 +3523,14 @@
         <v>20</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="70"/>
       <c r="M9" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N9" s="87"/>
     </row>
@@ -3538,7 +3545,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F10" s="9">
         <v>4</v>
@@ -3554,14 +3561,14 @@
         <v>40</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="72"/>
       <c r="M10" s="88" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N10" s="87"/>
     </row>
@@ -3595,14 +3602,14 @@
         <v>46.8</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>66</v>
       </c>
       <c r="L11" s="73"/>
       <c r="M11" s="88" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N11" s="87"/>
     </row>
@@ -3636,14 +3643,14 @@
         <v>35</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K12" s="27" t="s">
         <v>66</v>
       </c>
       <c r="L12" s="73"/>
       <c r="M12" s="88" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N12" s="87"/>
     </row>
@@ -3658,7 +3665,7 @@
         <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>328</v>
       </c>
       <c r="E13">
         <v>400</v>
@@ -3676,8 +3683,8 @@
         <f>H13*G13</f>
         <v>16</v>
       </c>
-      <c r="J13" s="29" t="s">
-        <v>220</v>
+      <c r="J13" s="119" t="s">
+        <v>329</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>66</v>
@@ -3697,7 +3704,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
@@ -3723,7 +3730,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="108" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E15" s="108"/>
       <c r="F15" s="109"/>
@@ -3732,11 +3739,11 @@
       <c r="I15" s="111"/>
       <c r="J15" s="112"/>
       <c r="K15" s="113" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L15" s="74"/>
       <c r="M15" s="117" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N15" s="118"/>
     </row>
@@ -3751,7 +3758,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="93">
@@ -3766,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="70" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K16" s="103" t="s">
         <v>43</v>
@@ -3786,7 +3793,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="93">
@@ -3801,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="70" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K17" s="103" t="s">
         <v>43</v>
@@ -3821,7 +3828,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E18" s="96"/>
       <c r="F18" s="97">
@@ -3836,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="69" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K18" s="106" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L18" s="70"/>
       <c r="M18" s="117"/>
@@ -3856,7 +3863,7 @@
         <v>152</v>
       </c>
       <c r="D19" s="100" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E19" s="100"/>
       <c r="F19" s="101">
@@ -3871,10 +3878,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="114" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K19" s="104" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L19" s="70"/>
       <c r="M19" s="117"/>
@@ -3891,7 +3898,7 @@
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E20">
         <v>410</v>
@@ -3910,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>38</v>
@@ -3930,7 +3937,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E21">
         <v>230</v>
@@ -3949,7 +3956,7 @@
         <v>35</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K21" s="42" t="s">
         <v>38</v>
@@ -3994,7 +4001,7 @@
       </c>
       <c r="L22" s="75"/>
       <c r="M22" s="117" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N22" s="118"/>
     </row>
@@ -4009,7 +4016,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E23">
         <v>330</v>
@@ -4028,13 +4035,13 @@
         <v>46</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="L23" s="73" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M23" s="117"/>
       <c r="N23" s="118"/>
@@ -4109,7 +4116,7 @@
       </c>
       <c r="L25" s="75"/>
       <c r="M25" s="117" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N25" s="118"/>
     </row>
@@ -4124,7 +4131,7 @@
         <v>112</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F26" s="9">
         <v>1</v>
@@ -4140,13 +4147,13 @@
         <v>145</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>113</v>
       </c>
       <c r="L26" s="73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M26" s="117"/>
       <c r="N26" s="118"/>
@@ -4234,7 +4241,7 @@
         <v>122</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E29">
         <v>300</v>
@@ -4253,13 +4260,13 @@
         <v>78.39</v>
       </c>
       <c r="J29" s="49" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L29" s="73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M29" s="90"/>
       <c r="N29" s="87"/>
@@ -4291,7 +4298,7 @@
         <v>52</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>138</v>
@@ -4313,7 +4320,7 @@
         <v>126</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
@@ -4329,7 +4336,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>127</v>
@@ -4346,10 +4353,10 @@
         <v>111</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" t="s">
         <v>194</v>
-      </c>
-      <c r="D32" t="s">
-        <v>195</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
@@ -4365,13 +4372,13 @@
         <v>2</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K32" s="42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L32" s="73" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M32" s="90"/>
       <c r="N32" s="87"/>
@@ -4387,7 +4394,7 @@
         <v>129</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
@@ -4403,7 +4410,7 @@
         <v>40</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K33" s="42" t="s">
         <v>138</v>
@@ -4420,10 +4427,10 @@
         <v>128</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -4439,7 +4446,7 @@
         <v>13.5</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K34" s="42" t="s">
         <v>121</v>
@@ -4459,7 +4466,7 @@
         <v>128</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
@@ -4475,7 +4482,7 @@
         <v>60</v>
       </c>
       <c r="J35" s="48" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>130</v>
@@ -4495,7 +4502,7 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -4511,7 +4518,7 @@
         <v>3.75</v>
       </c>
       <c r="J36" s="48" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>138</v>
@@ -4531,7 +4538,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F37" s="9">
         <v>2</v>
@@ -4547,7 +4554,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="48" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>138</v>
@@ -4849,16 +4856,16 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" t="s">
         <v>158</v>
       </c>
-      <c r="B46" t="s">
-        <v>159</v>
-      </c>
       <c r="C46" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F46" s="9">
         <v>5</v>
@@ -4874,10 +4881,10 @@
         <v>60</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K46" s="83" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L46" s="77"/>
       <c r="M46" s="90"/>
@@ -4885,16 +4892,16 @@
     </row>
     <row r="47" spans="1:14" ht="14.45" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="D47" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F47" s="9">
         <v>5</v>
@@ -4910,10 +4917,10 @@
         <v>125</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K47" s="83" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L47" s="77"/>
       <c r="M47" s="90"/>
@@ -4921,16 +4928,16 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>215</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>216</v>
       </c>
       <c r="E48">
         <v>300</v>
@@ -4949,10 +4956,10 @@
         <v>50</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L48" s="76"/>
       <c r="M48" s="90"/>
@@ -4960,16 +4967,16 @@
     </row>
     <row r="49" spans="1:14" ht="14.45" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B49" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F49" s="9">
         <v>5</v>
@@ -4985,10 +4992,10 @@
         <v>16.149999999999999</v>
       </c>
       <c r="J49" s="48" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L49" s="76"/>
       <c r="M49" s="90"/>
@@ -4996,16 +5003,16 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" t="s">
         <v>171</v>
-      </c>
-      <c r="D50" t="s">
-        <v>172</v>
       </c>
       <c r="F50" s="9">
         <v>1</v>
@@ -5021,10 +5028,10 @@
         <v>3</v>
       </c>
       <c r="J50" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="K50" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>174</v>
       </c>
       <c r="L50" s="76"/>
       <c r="M50" s="90"/>
@@ -5032,16 +5039,16 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
         <v>111</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F51" s="9">
         <v>2</v>
@@ -5057,10 +5064,10 @@
         <v>24</v>
       </c>
       <c r="J51" s="115" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L51" s="76"/>
       <c r="M51" s="90"/>
@@ -5068,7 +5075,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
         <v>111</v>
@@ -5077,7 +5084,7 @@
         <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F52" s="9">
         <v>1</v>
@@ -5093,10 +5100,10 @@
         <v>12</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L52" s="76"/>
       <c r="M52" s="90"/>
@@ -5104,7 +5111,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
         <v>111</v>
@@ -5113,7 +5120,7 @@
         <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F53" s="9">
         <v>1</v>
@@ -5130,10 +5137,10 @@
         <v>3.96</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L53" s="76"/>
       <c r="M53" s="90"/>
@@ -5141,16 +5148,16 @@
     </row>
     <row r="54" spans="1:14" ht="14.45" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D54" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F54" s="9">
         <v>1</v>
@@ -5166,10 +5173,10 @@
         <v>3.72</v>
       </c>
       <c r="J54" s="48" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K54" s="82" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L54" s="76"/>
       <c r="M54" s="90"/>
@@ -5177,16 +5184,16 @@
     </row>
     <row r="55" spans="1:14" ht="14.45" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F55" s="9">
         <v>1</v>
@@ -5202,10 +5209,10 @@
         <v>4</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L55" s="76"/>
       <c r="M55" s="90"/>
@@ -5213,16 +5220,16 @@
     </row>
     <row r="56" spans="1:14" ht="14.45" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F56" s="9">
         <v>1</v>
@@ -5238,10 +5245,10 @@
         <v>3</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L56" s="76"/>
       <c r="M56" s="90"/>
@@ -5249,16 +5256,16 @@
     </row>
     <row r="57" spans="1:14" ht="14.45" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B57" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F57" s="9">
         <v>1</v>
@@ -5274,10 +5281,10 @@
         <v>3</v>
       </c>
       <c r="J57" s="48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L57" s="76"/>
       <c r="M57" s="90"/>
@@ -5285,16 +5292,16 @@
     </row>
     <row r="58" spans="1:14" ht="14.45" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="D58" t="s">
         <v>200</v>
-      </c>
-      <c r="D58" t="s">
-        <v>201</v>
       </c>
       <c r="F58" s="9">
         <v>1</v>
@@ -5310,10 +5317,10 @@
         <v>21.5</v>
       </c>
       <c r="J58" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L58" s="78"/>
       <c r="M58" s="90"/>
@@ -5325,10 +5332,10 @@
         <v>67</v>
       </c>
       <c r="C59" s="62" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E59" s="63"/>
       <c r="F59" s="64"/>
@@ -5352,7 +5359,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D60" s="44" t="s">
         <v>5</v>
@@ -5432,7 +5439,7 @@
     <hyperlink ref="J9" r:id="rId50" display="Color: 10pcs 2028" xr:uid="{C4B95C3B-16B9-4394-9F39-5B9FF78AC176}"/>
     <hyperlink ref="J11" r:id="rId51" display="3x GL: 350 - Color: MGN12 H" xr:uid="{9DCC9853-4D9E-4093-9D52-2A218587FDA4}"/>
     <hyperlink ref="J12" r:id="rId52" display="2x GL: 400 - Color: MGN12 H" xr:uid="{A43DD5EF-D822-48AA-A6D3-DB6211D18B07}"/>
-    <hyperlink ref="J13" r:id="rId53" display="1x GL: 400 - Color: MGN9 H" xr:uid="{792C8BB0-E4E5-4DDC-8020-C3F9BE9E4B2E}"/>
+    <hyperlink ref="J13" r:id="rId53" xr:uid="{792C8BB0-E4E5-4DDC-8020-C3F9BE9E4B2E}"/>
     <hyperlink ref="J10" r:id="rId54" xr:uid="{3FB75D13-E1B1-4B85-B99D-0379606A4DAC}"/>
     <hyperlink ref="M10" r:id="rId55" xr:uid="{03D23144-4452-41B9-B4B9-F51023FDC698}"/>
     <hyperlink ref="M11" r:id="rId56" xr:uid="{410E10AD-6201-406C-BD2E-0E2A08BBF18C}"/>
@@ -5483,7 +5490,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickBot="1">
       <c r="A1" s="116" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -5569,10 +5576,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
         <v>175</v>
-      </c>
-      <c r="B4" t="s">
-        <v>176</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -5589,10 +5596,10 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="53"/>
@@ -5659,7 +5666,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>50</v>
@@ -5676,7 +5683,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -5693,7 +5700,7 @@
         <v>0.49</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>50</v>
@@ -5712,7 +5719,7 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="9">
         <v>31</v>
@@ -5728,23 +5735,23 @@
         <v>0.74</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J8" s="52"/>
       <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
@@ -5759,7 +5766,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>50</v>
@@ -5769,7 +5776,7 @@
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L9" s="87"/>
     </row>
@@ -5804,7 +5811,7 @@
         <v>7380</v>
       </c>
       <c r="K10" s="88" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L10" s="87"/>
     </row>
@@ -5813,7 +5820,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -5828,7 +5835,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H11" s="42" t="s">
         <v>50</v>
@@ -5840,7 +5847,7 @@
         <v>10642</v>
       </c>
       <c r="K11" s="88" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L11" s="87"/>
     </row>
@@ -5875,7 +5882,7 @@
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="88" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L12" s="87"/>
     </row>
@@ -5917,7 +5924,7 @@
         <v>72</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C14">
         <v>29</v>
@@ -5932,7 +5939,7 @@
         <v>1.07</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H14" s="42" t="s">
         <v>50</v>
@@ -5977,7 +5984,7 @@
         <v>7380</v>
       </c>
       <c r="K15" s="117" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L15" s="118"/>
     </row>
@@ -5986,7 +5993,7 @@
         <v>72</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -6002,7 +6009,7 @@
         <v>1.5</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>50</v>
@@ -6016,10 +6023,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" t="s">
         <v>180</v>
-      </c>
-      <c r="B17" t="s">
-        <v>181</v>
       </c>
       <c r="C17" s="9">
         <v>4</v>
@@ -6036,7 +6043,7 @@
         <v>3.27</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>50</v>
@@ -6048,10 +6055,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="9">
         <v>4</v>
@@ -6068,7 +6075,7 @@
         <v>2.57</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>50</v>
@@ -6076,7 +6083,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="52"/>
       <c r="K18" s="117" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L18" s="118"/>
     </row>
@@ -6101,7 +6108,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>81</v>
@@ -6116,7 +6123,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6132,7 +6139,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>81</v>
@@ -6175,7 +6182,7 @@
         <v>4032</v>
       </c>
       <c r="K21" s="117" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L21" s="118"/>
     </row>
@@ -6184,7 +6191,7 @@
         <v>68</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -6324,7 +6331,7 @@
         <v>72</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -6340,7 +6347,7 @@
         <v>3.28</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>50</v>
@@ -6458,7 +6465,7 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C30">
         <v>72</v>
@@ -6486,10 +6493,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -6506,10 +6513,10 @@
         <v>3.62</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="52"/>
@@ -6622,7 +6629,7 @@
         <v>72</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -6637,7 +6644,7 @@
         <v>1.64</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>81</v>
@@ -6687,7 +6694,7 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -6703,7 +6710,7 @@
         <v>6.08</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>50</v>
@@ -6736,10 +6743,10 @@
         <v>16</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="52"/>
@@ -6751,7 +6758,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -6766,10 +6773,10 @@
         <v>9.5</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H39" s="42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="52"/>
@@ -6812,7 +6819,7 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -6828,7 +6835,7 @@
         <v>4.5</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>62</v>
@@ -6843,7 +6850,7 @@
         <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C42" s="9">
         <v>6</v>
@@ -6852,16 +6859,16 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F42" s="40">
         <v>9.1999999999999993</v>
       </c>
       <c r="G42" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>265</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="52"/>
@@ -6904,7 +6911,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -6920,10 +6927,10 @@
         <v>24</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="53"/>
@@ -6935,7 +6942,7 @@
         <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -6952,10 +6959,10 @@
         <v>5.01</v>
       </c>
       <c r="G45" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="53"/>
@@ -6964,10 +6971,10 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" t="s">
         <v>178</v>
-      </c>
-      <c r="B46" t="s">
-        <v>179</v>
       </c>
       <c r="C46" s="9">
         <v>1</v>
@@ -6984,10 +6991,10 @@
         <v>1.72</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="52"/>
@@ -7120,7 +7127,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27">
       <c r="A1" s="116" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -7141,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7153,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -7164,7 +7171,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -7174,7 +7181,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -7184,7 +7191,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>5</v>
@@ -7268,7 +7275,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>24</v>
@@ -7451,7 +7458,7 @@
         <v>25</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>24</v>
@@ -7469,7 +7476,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F14" s="9">
         <v>4</v>
@@ -7485,7 +7492,7 @@
         <v>40</v>
       </c>
       <c r="J14" s="56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>24</v>
@@ -7522,7 +7529,7 @@
         <v>46.8</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K15" s="27" t="s">
         <v>66</v>
@@ -7559,14 +7566,14 @@
         <v>35</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K16" s="27" t="s">
         <v>66</v>
       </c>
       <c r="L16" s="73"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:14">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
@@ -7577,7 +7584,7 @@
         <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>328</v>
       </c>
       <c r="E17">
         <v>400</v>
@@ -7595,15 +7602,17 @@
         <f>H17*G17</f>
         <v>16</v>
       </c>
-      <c r="J17" s="29" t="s">
-        <v>220</v>
+      <c r="J17" s="119" t="s">
+        <v>329</v>
       </c>
       <c r="K17" s="27" t="s">
         <v>66</v>
       </c>
       <c r="L17" s="73"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+      <c r="M17" s="2"/>
+      <c r="N17" s="120"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
@@ -7614,7 +7623,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
@@ -7627,7 +7636,7 @@
       <c r="K18" s="27"/>
       <c r="L18" s="73"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:14" ht="15.75" thickBot="1">
       <c r="A19" s="107" t="s">
         <v>20</v>
       </c>
@@ -7638,7 +7647,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="108" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E19" s="108"/>
       <c r="F19" s="109"/>
@@ -7647,11 +7656,11 @@
       <c r="I19" s="111"/>
       <c r="J19" s="112"/>
       <c r="K19" s="113" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L19" s="74"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:14">
       <c r="A20" s="92" t="s">
         <v>20</v>
       </c>
@@ -7662,7 +7671,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="93">
@@ -7677,14 +7686,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="70" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K20" s="103" t="s">
         <v>43</v>
       </c>
       <c r="L20" s="70"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1">
       <c r="A21" s="92" t="s">
         <v>20</v>
       </c>
@@ -7695,7 +7704,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="93">
@@ -7710,14 +7719,14 @@
         <v>0</v>
       </c>
       <c r="J21" s="70" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K21" s="103" t="s">
         <v>43</v>
       </c>
       <c r="L21" s="70"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:14">
       <c r="A22" s="95" t="s">
         <v>20</v>
       </c>
@@ -7728,7 +7737,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="96" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E22" s="96"/>
       <c r="F22" s="97">
@@ -7743,14 +7752,14 @@
         <v>0</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K22" s="106" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L22" s="70"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1">
       <c r="A23" s="99" t="s">
         <v>46</v>
       </c>
@@ -7761,7 +7770,7 @@
         <v>152</v>
       </c>
       <c r="D23" s="100" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E23" s="100"/>
       <c r="F23" s="101">
@@ -7776,14 +7785,14 @@
         <v>0</v>
       </c>
       <c r="J23" s="114" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K23" s="104" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L23" s="70"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
@@ -7813,14 +7822,14 @@
         <v>20</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>38</v>
       </c>
       <c r="L24" s="75"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
         <v>39</v>
       </c>
@@ -7856,7 +7865,7 @@
       </c>
       <c r="L25" s="75"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
         <v>39</v>
       </c>
@@ -7867,7 +7876,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E26">
         <v>330</v>
@@ -7886,16 +7895,16 @@
         <v>46</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="73" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
         <v>39</v>
       </c>
@@ -7929,7 +7938,7 @@
       </c>
       <c r="L27" s="75"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
@@ -7963,7 +7972,7 @@
       </c>
       <c r="L28" s="75"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:14">
       <c r="A29" s="7" t="s">
         <v>110</v>
       </c>
@@ -7974,7 +7983,7 @@
         <v>112</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
@@ -7990,16 +7999,16 @@
         <v>145</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>113</v>
       </c>
       <c r="L29" s="73" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
         <v>110</v>
       </c>
@@ -8033,7 +8042,7 @@
       </c>
       <c r="L30" s="75"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:14">
       <c r="A31" s="7" t="s">
         <v>110</v>
       </c>
@@ -8067,7 +8076,7 @@
       </c>
       <c r="L31" s="75"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
         <v>110</v>
       </c>
@@ -8078,7 +8087,7 @@
         <v>122</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E32">
         <v>300</v>
@@ -8097,16 +8106,16 @@
         <v>78.39</v>
       </c>
       <c r="J32" s="49" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L32" s="73" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="7" t="s">
         <v>110</v>
       </c>
@@ -8133,7 +8142,7 @@
         <v>26</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>138</v>
@@ -8142,7 +8151,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:13">
       <c r="A34" s="7" t="s">
         <v>110</v>
       </c>
@@ -8153,7 +8162,7 @@
         <v>126</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -8169,14 +8178,14 @@
         <v>3</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>127</v>
       </c>
       <c r="L34" s="75"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
         <v>125</v>
       </c>
@@ -8184,10 +8193,10 @@
         <v>111</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" t="s">
         <v>194</v>
-      </c>
-      <c r="D35" t="s">
-        <v>195</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
@@ -8203,16 +8212,16 @@
         <v>2</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K35" s="42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L35" s="73" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="7" t="s">
         <v>125</v>
       </c>
@@ -8223,7 +8232,7 @@
         <v>129</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -8239,14 +8248,14 @@
         <v>40</v>
       </c>
       <c r="J36" s="50" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K36" s="42" t="s">
         <v>138</v>
       </c>
       <c r="L36" s="75"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:13">
       <c r="A37" s="7" t="s">
         <v>125</v>
       </c>
@@ -8254,10 +8263,10 @@
         <v>128</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D37" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
@@ -8273,14 +8282,14 @@
         <v>13.5</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K37" s="42" t="s">
         <v>121</v>
       </c>
       <c r="L37" s="75"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:13">
       <c r="A38" s="7" t="s">
         <v>125</v>
       </c>
@@ -8291,7 +8300,7 @@
         <v>128</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F38" s="9">
         <v>1</v>
@@ -8307,16 +8316,15 @@
         <v>60</v>
       </c>
       <c r="J38" s="48" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>130</v>
       </c>
       <c r="L38" s="75"/>
       <c r="M38" s="90"/>
-      <c r="N38" s="119"/>
-    </row>
-    <row r="39" spans="1:14" ht="14.45" customHeight="1">
+    </row>
+    <row r="39" spans="1:13" ht="14.45" customHeight="1">
       <c r="A39" s="7" t="s">
         <v>125</v>
       </c>
@@ -8327,7 +8335,7 @@
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
@@ -8343,14 +8351,14 @@
         <v>3.75</v>
       </c>
       <c r="J39" s="48" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>138</v>
       </c>
       <c r="L39" s="76"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:13">
       <c r="A40" s="7" t="s">
         <v>46</v>
       </c>
@@ -8384,7 +8392,7 @@
       </c>
       <c r="L40" s="75"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:13">
       <c r="A41" s="7" t="s">
         <v>46</v>
       </c>
@@ -8418,7 +8426,7 @@
       </c>
       <c r="L41" s="75"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:13">
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
@@ -8452,7 +8460,7 @@
       </c>
       <c r="L42" s="75"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:13">
       <c r="A43" s="7" t="s">
         <v>46</v>
       </c>
@@ -8486,7 +8494,7 @@
       </c>
       <c r="L43" s="75"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:13">
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
@@ -8520,7 +8528,7 @@
       </c>
       <c r="L44" s="75"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:13">
       <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
@@ -8554,7 +8562,7 @@
       </c>
       <c r="L45" s="75"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:13">
       <c r="A46" s="7" t="s">
         <v>46</v>
       </c>
@@ -8591,7 +8599,7 @@
       </c>
       <c r="L46" s="75"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:13">
       <c r="A47" s="7" t="s">
         <v>46</v>
       </c>
@@ -8625,16 +8633,16 @@
       </c>
       <c r="L47" s="76"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" thickBot="1">
+    <row r="48" spans="1:13" ht="15.75" thickBot="1">
       <c r="A48" s="80"/>
       <c r="B48" s="61" t="s">
         <v>67</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E48" s="63"/>
       <c r="F48" s="64"/>
@@ -8656,7 +8664,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D49" s="44" t="s">
         <v>5</v>
@@ -8717,13 +8725,13 @@
     <hyperlink ref="J13" r:id="rId37" display="Color: 10pcs 2028" xr:uid="{BED46395-E185-4988-9D32-2CBED9A54CB5}"/>
     <hyperlink ref="J15" r:id="rId38" display="3x GL: 350 - Color: MGN12 H" xr:uid="{C356FB3E-7AA9-44A7-AD42-F901E08A1E8E}"/>
     <hyperlink ref="J16" r:id="rId39" display="2x GL: 400 - Color: MGN12 H" xr:uid="{B96D0DAE-EBA7-4655-9D2F-33B86426C95B}"/>
-    <hyperlink ref="J17" r:id="rId40" display="1x GL: 400 - Color: MGN9 H" xr:uid="{6D2004C4-00CA-42CD-AE17-9686593D737A}"/>
-    <hyperlink ref="J14" r:id="rId41" xr:uid="{8B46BDD2-E98B-4C9A-A160-CDE182501C27}"/>
-    <hyperlink ref="J20" r:id="rId42" display="Makersupplies Complete Kit" xr:uid="{99CD1EB2-A71D-4BEA-A810-8742818402F2}"/>
-    <hyperlink ref="J21" r:id="rId43" xr:uid="{3B3B38BE-12A4-4908-A7D0-77B2122C84CB}"/>
-    <hyperlink ref="J23" r:id="rId44" xr:uid="{71BEE32E-F3AD-4223-B448-5A57A36C1B0A}"/>
-    <hyperlink ref="J22" r:id="rId45" xr:uid="{450A89A3-621C-40C6-9BB5-9E2B5DED92E2}"/>
-    <hyperlink ref="J38" r:id="rId46" xr:uid="{D50E2F4E-5674-4F27-AE38-26EAD033D64F}"/>
+    <hyperlink ref="J14" r:id="rId40" xr:uid="{8B46BDD2-E98B-4C9A-A160-CDE182501C27}"/>
+    <hyperlink ref="J20" r:id="rId41" display="Makersupplies Complete Kit" xr:uid="{99CD1EB2-A71D-4BEA-A810-8742818402F2}"/>
+    <hyperlink ref="J21" r:id="rId42" xr:uid="{3B3B38BE-12A4-4908-A7D0-77B2122C84CB}"/>
+    <hyperlink ref="J23" r:id="rId43" xr:uid="{71BEE32E-F3AD-4223-B448-5A57A36C1B0A}"/>
+    <hyperlink ref="J22" r:id="rId44" xr:uid="{450A89A3-621C-40C6-9BB5-9E2B5DED92E2}"/>
+    <hyperlink ref="J38" r:id="rId45" xr:uid="{D50E2F4E-5674-4F27-AE38-26EAD033D64F}"/>
+    <hyperlink ref="J17" r:id="rId46" xr:uid="{301731E6-2D64-47F2-A2EA-4A89B59A1F83}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId47"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.1.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="578" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42AAC4DB-8778-4926-BAE3-3A62F462617B}"/>
+  <xr:revisionPtr revIDLastSave="579" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A30507E-9F27-4101-B6E6-A33F010DC243}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Valkyrie Stage-0" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hardware List'!$A$3:$J$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hardware List'!$A$3:$J$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Valkyrie Stage-0'!$A$7:$K$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$3:$K$60</definedName>
   </definedNames>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="328">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -694,12 +694,6 @@
   </si>
   <si>
     <t>Magnet</t>
-  </si>
-  <si>
-    <t>Neodium Magnet</t>
-  </si>
-  <si>
-    <t>2x 30x10x5mm-2pcs</t>
   </si>
   <si>
     <t>HongKai</t>
@@ -1923,7 +1917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2140,6 +2134,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2149,10 +2146,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2950,9 +2943,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A3:J46" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J47">
-    <sortCondition ref="B4:B47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A3:J45" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J46">
+    <sortCondition ref="B4:B46"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Part Type" dataDxfId="25"/>
@@ -3215,27 +3208,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" hidden="1" thickBot="1">
-      <c r="A1" s="116" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="43" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>5</v>
@@ -3247,7 +3240,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="46">
         <f>I60</f>
-        <v>1867.6400000000003</v>
+        <v>1862.6400000000003</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="51"/>
@@ -3323,7 +3316,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>24</v>
@@ -3523,14 +3516,14 @@
         <v>20</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="70"/>
       <c r="M9" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N9" s="87"/>
     </row>
@@ -3545,7 +3538,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F10" s="9">
         <v>4</v>
@@ -3561,14 +3554,14 @@
         <v>40</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="72"/>
       <c r="M10" s="88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N10" s="87"/>
     </row>
@@ -3577,13 +3570,13 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11">
         <v>350</v>
@@ -3602,14 +3595,14 @@
         <v>46.8</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L11" s="73"/>
       <c r="M11" s="88" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N11" s="87"/>
     </row>
@@ -3618,13 +3611,13 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" t="s">
         <v>152</v>
-      </c>
-      <c r="D12" t="s">
-        <v>154</v>
       </c>
       <c r="E12">
         <v>400</v>
@@ -3643,14 +3636,14 @@
         <v>35</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L12" s="73"/>
       <c r="M12" s="88" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N12" s="87"/>
     </row>
@@ -3659,13 +3652,13 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E13">
         <v>400</v>
@@ -3683,11 +3676,11 @@
         <f>H13*G13</f>
         <v>16</v>
       </c>
-      <c r="J13" s="119" t="s">
-        <v>329</v>
+      <c r="J13" s="116" t="s">
+        <v>327</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L13" s="73"/>
       <c r="M13" s="2"/>
@@ -3704,7 +3697,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
@@ -3730,7 +3723,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="108" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E15" s="108"/>
       <c r="F15" s="109"/>
@@ -3739,13 +3732,13 @@
       <c r="I15" s="111"/>
       <c r="J15" s="112"/>
       <c r="K15" s="113" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L15" s="74"/>
-      <c r="M15" s="117" t="s">
-        <v>303</v>
-      </c>
-      <c r="N15" s="118"/>
+      <c r="M15" s="118" t="s">
+        <v>301</v>
+      </c>
+      <c r="N15" s="119"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="92" t="s">
@@ -3758,7 +3751,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="93">
@@ -3773,14 +3766,14 @@
         <v>0</v>
       </c>
       <c r="J16" s="70" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K16" s="103" t="s">
         <v>43</v>
       </c>
       <c r="L16" s="70"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="119"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="92" t="s">
@@ -3793,7 +3786,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="93">
@@ -3808,14 +3801,14 @@
         <v>0</v>
       </c>
       <c r="J17" s="70" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K17" s="103" t="s">
         <v>43</v>
       </c>
       <c r="L17" s="70"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="119"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="95" t="s">
@@ -3828,7 +3821,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E18" s="96"/>
       <c r="F18" s="97">
@@ -3843,27 +3836,27 @@
         <v>0</v>
       </c>
       <c r="J18" s="69" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K18" s="106" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L18" s="70"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="119"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="99" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D19" s="100" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E19" s="100"/>
       <c r="F19" s="101">
@@ -3878,14 +3871,14 @@
         <v>0</v>
       </c>
       <c r="J19" s="114" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K19" s="104" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L19" s="70"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="119"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
@@ -3898,7 +3891,7 @@
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E20">
         <v>410</v>
@@ -3917,14 +3910,14 @@
         <v>20</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>38</v>
       </c>
       <c r="L20" s="75"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="119"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="17" t="s">
@@ -3937,7 +3930,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E21">
         <v>230</v>
@@ -3956,7 +3949,7 @@
         <v>35</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K21" s="42" t="s">
         <v>38</v>
@@ -4000,10 +3993,10 @@
         <v>43</v>
       </c>
       <c r="L22" s="75"/>
-      <c r="M22" s="117" t="s">
-        <v>304</v>
-      </c>
-      <c r="N22" s="118"/>
+      <c r="M22" s="118" t="s">
+        <v>302</v>
+      </c>
+      <c r="N22" s="119"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="7" t="s">
@@ -4016,7 +4009,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E23">
         <v>330</v>
@@ -4035,16 +4028,16 @@
         <v>46</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="L23" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="M23" s="117"/>
-      <c r="N23" s="118"/>
+        <v>225</v>
+      </c>
+      <c r="M23" s="118"/>
+      <c r="N23" s="119"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
@@ -4115,23 +4108,23 @@
         <v>58</v>
       </c>
       <c r="L25" s="75"/>
-      <c r="M25" s="117" t="s">
-        <v>305</v>
-      </c>
-      <c r="N25" s="118"/>
+      <c r="M25" s="118" t="s">
+        <v>303</v>
+      </c>
+      <c r="N25" s="119"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="D26" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F26" s="9">
         <v>1</v>
@@ -4147,29 +4140,29 @@
         <v>145</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L26" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="M26" s="117"/>
-      <c r="N26" s="118"/>
+        <v>211</v>
+      </c>
+      <c r="M26" s="118"/>
+      <c r="N26" s="119"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F27" s="9">
         <v>1</v>
@@ -4185,10 +4178,10 @@
         <v>23</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L27" s="75"/>
       <c r="M27" s="90"/>
@@ -4196,16 +4189,16 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F28" s="9">
         <v>1</v>
@@ -4221,10 +4214,10 @@
         <v>7.5</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L28" s="75"/>
       <c r="M28" s="90"/>
@@ -4232,16 +4225,16 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E29">
         <v>300</v>
@@ -4260,29 +4253,29 @@
         <v>78.39</v>
       </c>
       <c r="J29" s="49" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L29" s="73" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M29" s="90"/>
       <c r="N29" s="87"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F30" s="9">
         <v>2</v>
@@ -4298,29 +4291,29 @@
         <v>52</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L30" s="73" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M30" s="90"/>
       <c r="N30" s="87"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
@@ -4336,10 +4329,10 @@
         <v>3</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L31" s="75"/>
       <c r="M31" s="90"/>
@@ -4347,16 +4340,16 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
@@ -4372,29 +4365,29 @@
         <v>2</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K32" s="42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L32" s="73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M32" s="90"/>
       <c r="N32" s="87"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
@@ -4410,10 +4403,10 @@
         <v>40</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K33" s="42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L33" s="75"/>
       <c r="M33" s="90"/>
@@ -4421,16 +4414,16 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D34" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -4446,10 +4439,10 @@
         <v>13.5</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K34" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L34" s="75"/>
       <c r="M34" s="90"/>
@@ -4457,16 +4450,16 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
@@ -4482,10 +4475,10 @@
         <v>60</v>
       </c>
       <c r="J35" s="48" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L35" s="75"/>
       <c r="M35" s="90"/>
@@ -4493,16 +4486,16 @@
     </row>
     <row r="36" spans="1:14" ht="14.45" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -4518,10 +4511,10 @@
         <v>3.75</v>
       </c>
       <c r="J36" s="48" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L36" s="76"/>
       <c r="M36" s="90"/>
@@ -4529,16 +4522,16 @@
     </row>
     <row r="37" spans="1:14" ht="14.45" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F37" s="9">
         <v>2</v>
@@ -4554,10 +4547,10 @@
         <v>10</v>
       </c>
       <c r="J37" s="48" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L37" s="76"/>
       <c r="M37" s="90"/>
@@ -4640,13 +4633,13 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s">
         <v>131</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" t="s">
-        <v>133</v>
       </c>
       <c r="F40" s="9">
         <v>8</v>
@@ -4662,10 +4655,10 @@
         <v>59</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L40" s="75"/>
       <c r="M40" s="90"/>
@@ -4676,13 +4669,13 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F41" s="9">
         <v>10</v>
@@ -4698,10 +4691,10 @@
         <v>41</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L41" s="75"/>
       <c r="M41" s="90"/>
@@ -4712,13 +4705,13 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F42" s="9">
         <v>5</v>
@@ -4734,10 +4727,10 @@
         <v>30</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L42" s="75"/>
       <c r="M42" s="90"/>
@@ -4748,13 +4741,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F43" s="9">
         <v>5</v>
@@ -4770,10 +4763,10 @@
         <v>20</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L43" s="75"/>
       <c r="M43" s="90"/>
@@ -4784,13 +4777,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E44">
         <v>200</v>
@@ -4809,10 +4802,10 @@
         <v>48</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L44" s="75"/>
       <c r="M44" s="90"/>
@@ -4823,13 +4816,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F45" s="9">
         <v>5</v>
@@ -4845,10 +4838,10 @@
         <v>72.5</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L45" s="76"/>
       <c r="M45" s="90"/>
@@ -4856,16 +4849,16 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F46" s="9">
         <v>5</v>
@@ -4881,10 +4874,10 @@
         <v>60</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K46" s="83" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L46" s="77"/>
       <c r="M46" s="90"/>
@@ -4892,16 +4885,16 @@
     </row>
     <row r="47" spans="1:14" ht="14.45" customHeight="1">
       <c r="A47" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" t="s">
         <v>157</v>
       </c>
-      <c r="B47" t="s">
-        <v>159</v>
-      </c>
       <c r="C47" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F47" s="9">
         <v>5</v>
@@ -4917,10 +4910,10 @@
         <v>125</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K47" s="83" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L47" s="77"/>
       <c r="M47" s="90"/>
@@ -4928,16 +4921,16 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" t="s">
         <v>157</v>
       </c>
-      <c r="B48" t="s">
-        <v>159</v>
-      </c>
       <c r="C48" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E48">
         <v>300</v>
@@ -4956,10 +4949,10 @@
         <v>50</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L48" s="76"/>
       <c r="M48" s="90"/>
@@ -4967,16 +4960,16 @@
     </row>
     <row r="49" spans="1:14" ht="14.45" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F49" s="9">
         <v>5</v>
@@ -4992,10 +4985,10 @@
         <v>16.149999999999999</v>
       </c>
       <c r="J49" s="48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L49" s="76"/>
       <c r="M49" s="90"/>
@@ -5003,16 +4996,16 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F50" s="9">
         <v>1</v>
@@ -5028,10 +5021,10 @@
         <v>3</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L50" s="76"/>
       <c r="M50" s="90"/>
@@ -5039,16 +5032,16 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F51" s="9">
         <v>2</v>
@@ -5064,10 +5057,10 @@
         <v>24</v>
       </c>
       <c r="J51" s="115" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L51" s="76"/>
       <c r="M51" s="90"/>
@@ -5075,16 +5068,16 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F52" s="9">
         <v>1</v>
@@ -5100,10 +5093,10 @@
         <v>12</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L52" s="76"/>
       <c r="M52" s="90"/>
@@ -5111,16 +5104,16 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F53" s="9">
         <v>1</v>
@@ -5137,10 +5130,10 @@
         <v>3.96</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L53" s="76"/>
       <c r="M53" s="90"/>
@@ -5148,16 +5141,16 @@
     </row>
     <row r="54" spans="1:14" ht="14.45" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D54" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F54" s="9">
         <v>1</v>
@@ -5173,10 +5166,10 @@
         <v>3.72</v>
       </c>
       <c r="J54" s="48" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K54" s="82" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L54" s="76"/>
       <c r="M54" s="90"/>
@@ -5184,16 +5177,16 @@
     </row>
     <row r="55" spans="1:14" ht="14.45" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F55" s="9">
         <v>1</v>
@@ -5209,10 +5202,10 @@
         <v>4</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L55" s="76"/>
       <c r="M55" s="90"/>
@@ -5220,16 +5213,16 @@
     </row>
     <row r="56" spans="1:14" ht="14.45" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F56" s="9">
         <v>1</v>
@@ -5245,10 +5238,10 @@
         <v>3</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L56" s="76"/>
       <c r="M56" s="90"/>
@@ -5256,16 +5249,16 @@
     </row>
     <row r="57" spans="1:14" ht="14.45" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F57" s="9">
         <v>1</v>
@@ -5281,10 +5274,10 @@
         <v>3</v>
       </c>
       <c r="J57" s="48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L57" s="76"/>
       <c r="M57" s="90"/>
@@ -5292,16 +5285,16 @@
     </row>
     <row r="58" spans="1:14" ht="14.45" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" t="s">
         <v>198</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D58" t="s">
-        <v>200</v>
       </c>
       <c r="F58" s="9">
         <v>1</v>
@@ -5317,10 +5310,10 @@
         <v>21.5</v>
       </c>
       <c r="J58" s="48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L58" s="78"/>
       <c r="M58" s="90"/>
@@ -5329,13 +5322,13 @@
     <row r="59" spans="1:14" ht="15.75" thickBot="1">
       <c r="A59" s="80"/>
       <c r="B59" s="61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="62" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D59" s="61" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E59" s="63"/>
       <c r="F59" s="64"/>
@@ -5344,8 +5337,8 @@
         <v>1</v>
       </c>
       <c r="I59" s="66">
-        <f>'Hardware List'!F47</f>
-        <v>231.46999999999997</v>
+        <f>'Hardware List'!F46</f>
+        <v>226.46999999999997</v>
       </c>
       <c r="J59" s="67"/>
       <c r="K59" s="68"/>
@@ -5359,7 +5352,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D60" s="44" t="s">
         <v>5</v>
@@ -5370,7 +5363,7 @@
       <c r="H60" s="45"/>
       <c r="I60" s="46">
         <f>SUM(I20:I59)+I14</f>
-        <v>1867.6400000000003</v>
+        <v>1862.6400000000003</v>
       </c>
       <c r="J60" s="44"/>
       <c r="K60" s="51"/>
@@ -5465,11 +5458,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -5489,19 +5482,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickBot="1">
-      <c r="A1" s="116" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="43" t="s">
@@ -5514,8 +5507,8 @@
       <c r="D2" s="44"/>
       <c r="E2" s="45"/>
       <c r="F2" s="46">
-        <f>F47</f>
-        <v>231.46999999999997</v>
+        <f>F46</f>
+        <v>226.46999999999997</v>
       </c>
       <c r="G2" s="44"/>
       <c r="H2" s="47"/>
@@ -5576,10 +5569,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -5596,10 +5589,10 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="53"/>
@@ -5610,10 +5603,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>44</v>
@@ -5629,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>50</v>
@@ -5647,10 +5640,10 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>68</v>
@@ -5666,7 +5659,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>50</v>
@@ -5680,10 +5673,10 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -5700,7 +5693,7 @@
         <v>0.49</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>50</v>
@@ -5716,10 +5709,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C8" s="9">
         <v>31</v>
@@ -5735,23 +5728,23 @@
         <v>0.74</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J8" s="52"/>
       <c r="L8" s="87"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
@@ -5766,7 +5759,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>50</v>
@@ -5776,16 +5769,16 @@
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L9" s="87"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <v>36</v>
@@ -5801,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>50</v>
@@ -5811,16 +5804,16 @@
         <v>7380</v>
       </c>
       <c r="K10" s="88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L10" s="87"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -5835,7 +5828,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H11" s="42" t="s">
         <v>50</v>
@@ -5847,16 +5840,16 @@
         <v>10642</v>
       </c>
       <c r="K11" s="88" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L11" s="87"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>38</v>
@@ -5872,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>50</v>
@@ -5882,16 +5875,16 @@
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="88" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L12" s="87"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13">
         <v>31</v>
@@ -5907,7 +5900,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>50</v>
@@ -5921,10 +5914,10 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C14">
         <v>29</v>
@@ -5939,7 +5932,7 @@
         <v>1.07</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H14" s="42" t="s">
         <v>50</v>
@@ -5955,10 +5948,10 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -5974,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>50</v>
@@ -5983,17 +5976,17 @@
       <c r="J15" s="53">
         <v>7380</v>
       </c>
-      <c r="K15" s="117" t="s">
-        <v>303</v>
-      </c>
-      <c r="L15" s="118"/>
+      <c r="K15" s="118" t="s">
+        <v>301</v>
+      </c>
+      <c r="L15" s="119"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -6009,7 +6002,7 @@
         <v>1.5</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>50</v>
@@ -6018,15 +6011,15 @@
         <v>912</v>
       </c>
       <c r="J16" s="53"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C17" s="9">
         <v>4</v>
@@ -6043,7 +6036,7 @@
         <v>3.27</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>50</v>
@@ -6055,10 +6048,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C18" s="9">
         <v>4</v>
@@ -6075,24 +6068,24 @@
         <v>2.57</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="52"/>
-      <c r="K18" s="117" t="s">
-        <v>306</v>
-      </c>
-      <c r="L18" s="118"/>
+      <c r="K18" s="118" t="s">
+        <v>304</v>
+      </c>
+      <c r="L18" s="119"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -6108,22 +6101,22 @@
         <v>12</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="52"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6139,10 +6132,10 @@
         <v>4</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="52"/>
@@ -6151,10 +6144,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -6170,7 +6163,7 @@
         <v>1.5</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>50</v>
@@ -6181,17 +6174,17 @@
       <c r="J21" s="53">
         <v>4032</v>
       </c>
-      <c r="K21" s="117" t="s">
-        <v>305</v>
-      </c>
-      <c r="L21" s="118"/>
+      <c r="K21" s="118" t="s">
+        <v>303</v>
+      </c>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -6207,7 +6200,7 @@
         <v>1.5</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>50</v>
@@ -6218,15 +6211,15 @@
       <c r="J22" s="52">
         <v>10511</v>
       </c>
-      <c r="K22" s="117"/>
-      <c r="L22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -6242,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>50</v>
@@ -6258,10 +6251,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -6277,7 +6270,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>50</v>
@@ -6293,10 +6286,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -6312,7 +6305,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>50</v>
@@ -6328,10 +6321,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -6347,7 +6340,7 @@
         <v>3.28</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>50</v>
@@ -6361,10 +6354,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27">
         <v>22</v>
@@ -6380,7 +6373,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>50</v>
@@ -6396,10 +6389,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28">
         <v>64</v>
@@ -6415,7 +6408,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>50</v>
@@ -6427,10 +6420,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29">
         <v>15</v>
@@ -6446,7 +6439,7 @@
         <v>2.81</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>50</v>
@@ -6462,10 +6455,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C30">
         <v>72</v>
@@ -6481,7 +6474,7 @@
         <v>13.5</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>50</v>
@@ -6493,10 +6486,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B31" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -6513,10 +6506,10 @@
         <v>3.62</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="52"/>
@@ -6525,10 +6518,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32">
         <v>141</v>
@@ -6544,7 +6537,7 @@
         <v>2.56</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>50</v>
@@ -6560,10 +6553,10 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33">
         <v>141</v>
@@ -6579,7 +6572,7 @@
         <v>40.35</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>50</v>
@@ -6593,10 +6586,10 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C34">
         <v>9</v>
@@ -6612,7 +6605,7 @@
         <v>8</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>50</v>
@@ -6626,10 +6619,10 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -6644,10 +6637,10 @@
         <v>1.64</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="52">
@@ -6658,10 +6651,10 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -6677,7 +6670,7 @@
         <v>2.57</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>50</v>
@@ -6691,10 +6684,10 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -6710,7 +6703,7 @@
         <v>6.08</v>
       </c>
       <c r="G37" s="48" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>50</v>
@@ -6724,10 +6717,10 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C38" s="9">
         <v>33</v>
@@ -6743,10 +6736,10 @@
         <v>16</v>
       </c>
       <c r="G38" s="48" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="52"/>
@@ -6758,7 +6751,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -6773,10 +6766,10 @@
         <v>9.5</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H39" s="42" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="52"/>
@@ -6784,30 +6777,30 @@
       <c r="L39" s="87"/>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40" s="10">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="E40" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="40">
-        <f t="shared" ref="F40:F41" si="2">E40*D40</f>
-        <v>5</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>61</v>
+        <f t="shared" ref="F40" si="2">E40*D40</f>
+        <v>4.5</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>190</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="53"/>
@@ -6819,56 +6812,56 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>293</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
+        <v>289</v>
+      </c>
+      <c r="C41" s="9">
+        <v>6</v>
       </c>
       <c r="D41" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="E41" s="16">
-        <v>1</v>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>260</v>
       </c>
       <c r="F41" s="40">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="53"/>
+        <v>261</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="52"/>
       <c r="K41" s="90"/>
       <c r="L41" s="87"/>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" t="s">
-        <v>291</v>
+        <v>61</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="C42" s="9">
         <v>6</v>
       </c>
       <c r="D42" s="10">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>262</v>
+        <v>7.5</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1</v>
       </c>
       <c r="F42" s="40">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G42" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>263</v>
+        <f t="shared" ref="F42" si="3">E42*D42</f>
+        <v>7.5</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="52"/>
@@ -6876,61 +6869,62 @@
       <c r="L42" s="87"/>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="9">
-        <v>6</v>
+      <c r="A43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
       </c>
       <c r="D43" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="E43" s="9">
+        <v>24</v>
+      </c>
+      <c r="E43" s="16">
         <v>1</v>
       </c>
       <c r="F43" s="40">
-        <f t="shared" ref="F43" si="3">E43*D43</f>
-        <v>7.5</v>
-      </c>
-      <c r="G43" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="52"/>
+        <f t="shared" ref="F43" si="4">E43*D43</f>
+        <v>24</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="53"/>
       <c r="K43" s="90"/>
       <c r="L43" s="87"/>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="7" t="s">
-        <v>63</v>
+      <c r="A44" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" s="10">
-        <v>24</v>
+        <f>5.01</f>
+        <v>5.01</v>
       </c>
       <c r="E44" s="16">
         <v>1</v>
       </c>
       <c r="F44" s="40">
-        <f t="shared" ref="F44" si="4">E44*D44</f>
-        <v>24</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>206</v>
+        <f>E44*D44</f>
+        <v>5.01</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="53"/>
@@ -6938,97 +6932,65 @@
       <c r="L44" s="87"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="17" t="s">
-        <v>63</v>
+      <c r="A45" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
+        <v>176</v>
+      </c>
+      <c r="C45" s="9">
+        <v>1</v>
       </c>
       <c r="D45" s="10">
-        <f>5.01</f>
-        <v>5.01</v>
-      </c>
-      <c r="E45" s="16">
+        <f>1.72</f>
+        <v>1.72</v>
+      </c>
+      <c r="E45" s="9">
         <v>1</v>
       </c>
       <c r="F45" s="40">
         <f>E45*D45</f>
-        <v>5.01</v>
-      </c>
-      <c r="G45" s="48" t="s">
-        <v>166</v>
+        <v>1.72</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="53"/>
+        <v>217</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="52"/>
       <c r="K45" s="90"/>
       <c r="L45" s="87"/>
     </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C46" s="9">
-        <v>1</v>
-      </c>
-      <c r="D46" s="10">
-        <f>1.72</f>
-        <v>1.72</v>
-      </c>
-      <c r="E46" s="9">
-        <v>1</v>
-      </c>
-      <c r="F46" s="40">
-        <f>E46*D46</f>
-        <v>1.72</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="87"/>
-    </row>
-    <row r="47" spans="1:20" s="6" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A47" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="32" t="s">
+    <row r="46" spans="1:20" s="6" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A46" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="36">
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="36">
         <f>SUBTOTAL(109,Table13[Line Price $])</f>
-        <v>231.46999999999997</v>
-      </c>
-      <c r="G47" s="32"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
+        <v>226.46999999999997</v>
+      </c>
+      <c r="G46" s="32"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7061,38 +7023,37 @@
     <hyperlink ref="G7" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
     <hyperlink ref="G31" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
     <hyperlink ref="G4" r:id="rId23" display="1x Bushings 5x8x2.5" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="G46" r:id="rId24" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="G45" r:id="rId24" display="1x Length 15mm - Wire 0.7 - OD 7" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
     <hyperlink ref="G17" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
     <hyperlink ref="G18" r:id="rId26" display="1x Size: M3 - 30mm" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
     <hyperlink ref="G38" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
     <hyperlink ref="G8" r:id="rId28" display="M3 ss washer" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="G40" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="G41" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="G9" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="G11" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="G14" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="G16" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="G35" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="G37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="G39" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="G42" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="H42" r:id="rId39" display="https://www.aliexpress.com/store/912301249" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="G26" r:id="rId40" display="1x(D5) M4 x 50mm (2pcs)" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="G43" r:id="rId41" xr:uid="{2D20C191-2C76-4E00-9BC9-A6157242D739}"/>
-    <hyperlink ref="G44" r:id="rId42" display="Color: Buffer 14inch 35cm" xr:uid="{F2847965-49D7-4D00-AD1F-BEC4457D3EC4}"/>
-    <hyperlink ref="G45" r:id="rId43" xr:uid="{D3CD710D-DAE0-4D54-96D8-FDD895E4D65D}"/>
-    <hyperlink ref="K10" r:id="rId44" xr:uid="{8FDAE175-15BF-4A40-9A56-A8BA3F0B1726}"/>
-    <hyperlink ref="K11" r:id="rId45" xr:uid="{28344F8D-D570-49B2-BBE9-72B7480294DA}"/>
-    <hyperlink ref="K12" r:id="rId46" xr:uid="{250F0C70-6CC6-4928-A342-928C374FF4D7}"/>
-    <hyperlink ref="G20" r:id="rId47" display="3x Size: M4-D5mm" xr:uid="{1C8E1B71-D7D2-47AE-83D0-9B50904057BB}"/>
+    <hyperlink ref="G40" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="G9" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="G11" r:id="rId31" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="G14" r:id="rId32" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="G16" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="G35" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="G37" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="G39" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="G41" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="H41" r:id="rId38" display="https://www.aliexpress.com/store/912301249" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="G26" r:id="rId39" display="1x(D5) M4 x 50mm (2pcs)" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="G42" r:id="rId40" xr:uid="{2D20C191-2C76-4E00-9BC9-A6157242D739}"/>
+    <hyperlink ref="G43" r:id="rId41" display="Color: Buffer 14inch 35cm" xr:uid="{F2847965-49D7-4D00-AD1F-BEC4457D3EC4}"/>
+    <hyperlink ref="G44" r:id="rId42" xr:uid="{D3CD710D-DAE0-4D54-96D8-FDD895E4D65D}"/>
+    <hyperlink ref="K10" r:id="rId43" xr:uid="{8FDAE175-15BF-4A40-9A56-A8BA3F0B1726}"/>
+    <hyperlink ref="K11" r:id="rId44" xr:uid="{28344F8D-D570-49B2-BBE9-72B7480294DA}"/>
+    <hyperlink ref="K12" r:id="rId45" xr:uid="{250F0C70-6CC6-4928-A342-928C374FF4D7}"/>
+    <hyperlink ref="G20" r:id="rId46" display="3x Size: M4-D5mm" xr:uid="{1C8E1B71-D7D2-47AE-83D0-9B50904057BB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId48"/>
-  <drawing r:id="rId49"/>
-  <legacyDrawing r:id="rId50"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId47"/>
+  <drawing r:id="rId48"/>
+  <legacyDrawing r:id="rId49"/>
   <tableParts count="1">
-    <tablePart r:id="rId51"/>
+    <tablePart r:id="rId50"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7102,7 +7063,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -7126,20 +7087,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="116" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>299</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -7148,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7160,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -7171,7 +7132,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="60" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -7181,7 +7142,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -7191,7 +7152,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D6" s="44" t="s">
         <v>5</v>
@@ -7202,7 +7163,7 @@
       <c r="H6" s="45"/>
       <c r="I6" s="46">
         <f>I49</f>
-        <v>1467.31</v>
+        <v>1462.31</v>
       </c>
       <c r="J6" s="44"/>
       <c r="K6" s="51"/>
@@ -7275,7 +7236,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="58" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>24</v>
@@ -7458,7 +7419,7 @@
         <v>25</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>24</v>
@@ -7476,7 +7437,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F14" s="9">
         <v>4</v>
@@ -7492,7 +7453,7 @@
         <v>40</v>
       </c>
       <c r="J14" s="56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>24</v>
@@ -7504,13 +7465,13 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E15">
         <v>350</v>
@@ -7529,10 +7490,10 @@
         <v>46.8</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L15" s="73"/>
     </row>
@@ -7541,13 +7502,13 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" t="s">
         <v>152</v>
-      </c>
-      <c r="D16" t="s">
-        <v>154</v>
       </c>
       <c r="E16">
         <v>400</v>
@@ -7566,25 +7527,25 @@
         <v>35</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L16" s="73"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E17">
         <v>400</v>
@@ -7602,17 +7563,16 @@
         <f>H17*G17</f>
         <v>16</v>
       </c>
-      <c r="J17" s="119" t="s">
-        <v>329</v>
+      <c r="J17" s="116" t="s">
+        <v>327</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L17" s="73"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="120"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" thickBot="1">
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
@@ -7623,7 +7583,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
@@ -7636,7 +7596,7 @@
       <c r="K18" s="27"/>
       <c r="L18" s="73"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1">
       <c r="A19" s="107" t="s">
         <v>20</v>
       </c>
@@ -7647,7 +7607,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="108" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E19" s="108"/>
       <c r="F19" s="109"/>
@@ -7656,11 +7616,11 @@
       <c r="I19" s="111"/>
       <c r="J19" s="112"/>
       <c r="K19" s="113" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L19" s="74"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:13">
       <c r="A20" s="92" t="s">
         <v>20</v>
       </c>
@@ -7671,7 +7631,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="93">
@@ -7686,14 +7646,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="70" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K20" s="103" t="s">
         <v>43</v>
       </c>
       <c r="L20" s="70"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1">
       <c r="A21" s="92" t="s">
         <v>20</v>
       </c>
@@ -7704,7 +7664,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="93">
@@ -7719,14 +7679,14 @@
         <v>0</v>
       </c>
       <c r="J21" s="70" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K21" s="103" t="s">
         <v>43</v>
       </c>
       <c r="L21" s="70"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:13">
       <c r="A22" s="95" t="s">
         <v>20</v>
       </c>
@@ -7737,7 +7697,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="96" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E22" s="96"/>
       <c r="F22" s="97">
@@ -7752,25 +7712,25 @@
         <v>0</v>
       </c>
       <c r="J22" s="69" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K22" s="106" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L22" s="70"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="A23" s="99" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="100" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D23" s="100" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E23" s="100"/>
       <c r="F23" s="101">
@@ -7785,14 +7745,14 @@
         <v>0</v>
       </c>
       <c r="J23" s="114" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K23" s="104" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L23" s="70"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
@@ -7822,14 +7782,14 @@
         <v>20</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>38</v>
       </c>
       <c r="L24" s="75"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:13">
       <c r="A25" s="7" t="s">
         <v>39</v>
       </c>
@@ -7865,7 +7825,7 @@
       </c>
       <c r="L25" s="75"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:13">
       <c r="A26" s="7" t="s">
         <v>39</v>
       </c>
@@ -7876,7 +7836,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E26">
         <v>330</v>
@@ -7895,16 +7855,16 @@
         <v>46</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="73" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="7" t="s">
         <v>39</v>
       </c>
@@ -7938,7 +7898,7 @@
       </c>
       <c r="L27" s="75"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:13">
       <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
@@ -7972,18 +7932,18 @@
       </c>
       <c r="L28" s="75"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="D29" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
@@ -7999,27 +7959,27 @@
         <v>145</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K29" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
         <v>113</v>
-      </c>
-      <c r="L29" s="73" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" t="s">
-        <v>115</v>
       </c>
       <c r="F30" s="9">
         <v>1</v>
@@ -8035,25 +7995,25 @@
         <v>23</v>
       </c>
       <c r="J30" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" s="75"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="D31" t="s">
         <v>117</v>
-      </c>
-      <c r="L30" s="75"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" t="s">
-        <v>119</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
@@ -8069,25 +8029,25 @@
         <v>7.5</v>
       </c>
       <c r="J31" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L31" s="75"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K31" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L31" s="75"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="D32" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E32">
         <v>300</v>
@@ -8106,27 +8066,27 @@
         <v>78.39</v>
       </c>
       <c r="J32" s="49" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L32" s="73" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
@@ -8142,27 +8102,27 @@
         <v>26</v>
       </c>
       <c r="J33" s="50" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L33" s="73" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -8178,25 +8138,25 @@
         <v>3</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L34" s="75"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
@@ -8212,27 +8172,27 @@
         <v>2</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K35" s="42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L35" s="73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -8248,25 +8208,25 @@
         <v>40</v>
       </c>
       <c r="J36" s="50" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K36" s="42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L36" s="75"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
@@ -8282,25 +8242,25 @@
         <v>13.5</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K37" s="42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L37" s="75"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F38" s="9">
         <v>1</v>
@@ -8316,26 +8276,26 @@
         <v>60</v>
       </c>
       <c r="J38" s="48" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L38" s="75"/>
       <c r="M38" s="90"/>
     </row>
     <row r="39" spans="1:13" ht="14.45" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
@@ -8351,10 +8311,10 @@
         <v>3.75</v>
       </c>
       <c r="J39" s="48" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L39" s="76"/>
     </row>
@@ -8431,13 +8391,13 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" t="s">
         <v>131</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" t="s">
-        <v>133</v>
       </c>
       <c r="F42" s="9">
         <v>8</v>
@@ -8453,10 +8413,10 @@
         <v>59</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L42" s="75"/>
     </row>
@@ -8465,13 +8425,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F43" s="9">
         <v>10</v>
@@ -8487,10 +8447,10 @@
         <v>41</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L43" s="75"/>
     </row>
@@ -8499,13 +8459,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F44" s="9">
         <v>5</v>
@@ -8521,10 +8481,10 @@
         <v>30</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L44" s="75"/>
     </row>
@@ -8533,13 +8493,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F45" s="9">
         <v>5</v>
@@ -8555,10 +8515,10 @@
         <v>20</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L45" s="75"/>
     </row>
@@ -8567,13 +8527,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E46">
         <v>200</v>
@@ -8592,10 +8552,10 @@
         <v>48</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L46" s="75"/>
     </row>
@@ -8604,13 +8564,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F47" s="9">
         <v>5</v>
@@ -8626,23 +8586,23 @@
         <v>72.5</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L47" s="76"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1">
       <c r="A48" s="80"/>
       <c r="B48" s="61" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D48" s="61" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E48" s="63"/>
       <c r="F48" s="64"/>
@@ -8651,8 +8611,8 @@
         <v>1</v>
       </c>
       <c r="I48" s="66">
-        <f>'Hardware List'!F47</f>
-        <v>231.46999999999997</v>
+        <f>'Hardware List'!F46</f>
+        <v>226.46999999999997</v>
       </c>
       <c r="J48" s="67"/>
       <c r="K48" s="68"/>
@@ -8664,7 +8624,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D49" s="44" t="s">
         <v>5</v>
@@ -8675,7 +8635,7 @@
       <c r="H49" s="45"/>
       <c r="I49" s="46">
         <f>SUM(I24:I48)+I18</f>
-        <v>1467.31</v>
+        <v>1462.31</v>
       </c>
       <c r="J49" s="44"/>
       <c r="K49" s="51"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.1.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="579" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A30507E-9F27-4101-B6E6-A33F010DC243}"/>
+  <xr:revisionPtr revIDLastSave="604" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BF153A3-80A5-4976-B88D-EB2BD62778F6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="329">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -967,12 +967,6 @@
   </si>
   <si>
     <t>Linear Rails</t>
-  </si>
-  <si>
-    <t>MGN 12h - Z Axis</t>
-  </si>
-  <si>
-    <t>MGN 12h - Y Axis</t>
   </si>
   <si>
     <t>TBD</t>
@@ -1178,12 +1172,6 @@
     <t>Specification: 350x350x3mm</t>
   </si>
   <si>
-    <t>3xGL: 350 - C: MGN12 H</t>
-  </si>
-  <si>
-    <t>2xGL: 400 - C: MGN12 H</t>
-  </si>
-  <si>
     <t>Zhongfa</t>
   </si>
   <si>
@@ -1511,10 +1499,25 @@
     <t>H2 V2S LITE w/nema14</t>
   </si>
   <si>
-    <t>MGN 9h - X Axis Medium Preload</t>
-  </si>
-  <si>
-    <t>1xGL: 400 + 1xMGN9 H</t>
+    <t>CNA MS</t>
+  </si>
+  <si>
+    <t>3xMGN 12H/350mm Medium PL</t>
+  </si>
+  <si>
+    <t>1xMGN9H/400mm Medium PL</t>
+  </si>
+  <si>
+    <t>2xMGN12H/400mm Medium PL</t>
+  </si>
+  <si>
+    <t>MGN 12h - Z Axis Medium PL</t>
+  </si>
+  <si>
+    <t>MGN 12h - Y Axis Medium PL</t>
+  </si>
+  <si>
+    <t>MGN 9h - X Axis Medium PL</t>
   </si>
 </sst>
 </file>
@@ -1917,7 +1920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1972,9 +1975,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2132,9 +2132,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2918,10 +2915,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:L59" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <tableColumns count="12">
@@ -3186,9 +3179,9 @@
   </sheetPr>
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3208,84 +3201,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" hidden="1" thickBot="1">
-      <c r="A1" s="117" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
+      <c r="A1" s="115" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45">
         <f>I60</f>
         <v>1862.6400000000003</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-    </row>
-    <row r="3" spans="1:14" s="55" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A3" s="34" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
+    </row>
+    <row r="3" spans="1:14" s="54" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="86"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="7" t="s">
@@ -3294,7 +3287,7 @@
       <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="20" t="s">
@@ -3312,20 +3305,20 @@
       <c r="H4" s="22">
         <v>1</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="38">
         <v>8</v>
       </c>
-      <c r="J4" s="58" t="s">
-        <v>287</v>
+      <c r="J4" s="57" t="s">
+        <v>283</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="68"/>
       <c r="M4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="87"/>
+      <c r="N4" s="86"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
@@ -3353,7 +3346,7 @@
       <c r="H5" s="9">
         <v>1</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="39">
         <f t="shared" ref="I5:I25" si="0">H5*G5</f>
         <v>9.5</v>
       </c>
@@ -3363,11 +3356,11 @@
       <c r="K5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="70"/>
+      <c r="L5" s="69"/>
       <c r="M5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="87"/>
+      <c r="N5" s="86"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="7" t="s">
@@ -3394,7 +3387,7 @@
       <c r="H6" s="9">
         <v>4</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="39">
         <f t="shared" si="0"/>
         <v>42.16</v>
       </c>
@@ -3404,11 +3397,11 @@
       <c r="K6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="71"/>
+      <c r="L6" s="70"/>
       <c r="M6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
@@ -3435,7 +3428,7 @@
       <c r="H7" s="9">
         <v>4</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="39">
         <f t="shared" si="0"/>
         <v>44.484000000000002</v>
       </c>
@@ -3445,11 +3438,11 @@
       <c r="K7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="70"/>
+      <c r="L7" s="69"/>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
@@ -3476,7 +3469,7 @@
       <c r="H8" s="9">
         <v>4</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="39">
         <f t="shared" si="0"/>
         <v>58.8</v>
       </c>
@@ -3486,8 +3479,8 @@
       <c r="K8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="71"/>
-      <c r="N8" s="87"/>
+      <c r="L8" s="70"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="7" t="s">
@@ -3511,21 +3504,21 @@
       <c r="H9" s="9">
         <v>4</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="70"/>
+      <c r="L9" s="69"/>
       <c r="M9" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="N9" s="87"/>
+        <v>289</v>
+      </c>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
@@ -3538,7 +3531,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F10" s="9">
         <v>4</v>
@@ -3549,21 +3542,21 @@
       <c r="H10" s="9">
         <v>4</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="39">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J10" s="56" t="s">
-        <v>249</v>
+      <c r="J10" s="25" t="s">
+        <v>245</v>
       </c>
       <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="72"/>
-      <c r="M10" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="N10" s="87"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
@@ -3576,7 +3569,7 @@
         <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>326</v>
       </c>
       <c r="E11">
         <v>350</v>
@@ -3585,26 +3578,26 @@
         <v>3</v>
       </c>
       <c r="G11" s="10">
-        <v>15.6</v>
+        <v>18.5</v>
       </c>
       <c r="H11" s="9">
         <v>3</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="39">
         <f>H11*G11</f>
-        <v>46.8</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>215</v>
+        <v>55.5</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>323</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="73"/>
-      <c r="M11" s="88" t="s">
-        <v>295</v>
-      </c>
-      <c r="N11" s="87"/>
+        <v>322</v>
+      </c>
+      <c r="L11" s="72"/>
+      <c r="M11" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
@@ -3617,7 +3610,7 @@
         <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="E12">
         <v>400</v>
@@ -3626,26 +3619,26 @@
         <v>2</v>
       </c>
       <c r="G12" s="10">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="H12" s="9">
         <v>2</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="39">
         <f>H12*G12</f>
-        <v>35</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>216</v>
+        <v>39</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>325</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="73"/>
-      <c r="M12" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="N12" s="87"/>
+        <v>322</v>
+      </c>
+      <c r="L12" s="72"/>
+      <c r="M12" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
@@ -3658,7 +3651,7 @@
         <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E13">
         <v>400</v>
@@ -3667,24 +3660,24 @@
         <v>1</v>
       </c>
       <c r="G13" s="10">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="39">
         <f>H13*G13</f>
-        <v>16</v>
-      </c>
-      <c r="J13" s="116" t="s">
-        <v>327</v>
+        <v>17.5</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>324</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="73"/>
+        <v>322</v>
+      </c>
+      <c r="L13" s="72"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="7" t="s">
@@ -3697,51 +3690,51 @@
         <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="81">
+      <c r="I14" s="80">
         <f>G18+G19</f>
         <v>374</v>
       </c>
-      <c r="J14" s="56"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="27"/>
-      <c r="L14" s="73"/>
+      <c r="L14" s="72"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="108" t="s">
-        <v>316</v>
-      </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="113" t="s">
-        <v>317</v>
-      </c>
-      <c r="L15" s="74"/>
-      <c r="M15" s="118" t="s">
-        <v>301</v>
-      </c>
-      <c r="N15" s="119"/>
+      <c r="D15" s="107" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="112" t="s">
+        <v>313</v>
+      </c>
+      <c r="L15" s="73"/>
+      <c r="M15" s="116" t="s">
+        <v>297</v>
+      </c>
+      <c r="N15" s="117"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="91" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3751,32 +3744,32 @@
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="93">
-        <v>1</v>
-      </c>
-      <c r="G16" s="94">
+      <c r="F16" s="92">
+        <v>1</v>
+      </c>
+      <c r="G16" s="93">
         <v>720</v>
       </c>
-      <c r="H16" s="93"/>
-      <c r="I16" s="40">
+      <c r="H16" s="92"/>
+      <c r="I16" s="39">
         <f>H16*G16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="70" t="s">
-        <v>312</v>
-      </c>
-      <c r="K16" s="103" t="s">
+      <c r="J16" s="69" t="s">
+        <v>308</v>
+      </c>
+      <c r="K16" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="70"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="119"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="117"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="91" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3786,99 +3779,99 @@
         <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="93">
-        <v>1</v>
-      </c>
-      <c r="G17" s="94">
+      <c r="F17" s="92">
+        <v>1</v>
+      </c>
+      <c r="G17" s="93">
         <v>577</v>
       </c>
-      <c r="H17" s="93"/>
-      <c r="I17" s="40">
+      <c r="H17" s="92"/>
+      <c r="I17" s="39">
         <f t="shared" ref="I17:I19" si="1">H17*G17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="70" t="s">
-        <v>313</v>
-      </c>
-      <c r="K17" s="103" t="s">
+      <c r="J17" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="K17" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="70"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="119"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="117"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="96" t="s">
-        <v>311</v>
-      </c>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97">
-        <v>1</v>
-      </c>
-      <c r="G18" s="98">
+      <c r="D18" s="95" t="s">
+        <v>307</v>
+      </c>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96">
+        <v>1</v>
+      </c>
+      <c r="G18" s="97">
         <v>175</v>
       </c>
-      <c r="H18" s="97"/>
-      <c r="I18" s="39">
+      <c r="H18" s="96"/>
+      <c r="I18" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="69" t="s">
-        <v>314</v>
-      </c>
-      <c r="K18" s="106" t="s">
-        <v>309</v>
-      </c>
-      <c r="L18" s="70"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="119"/>
+      <c r="J18" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="K18" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="L18" s="69"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="117"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="100" t="s">
-        <v>310</v>
-      </c>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101">
-        <v>1</v>
-      </c>
-      <c r="G19" s="102">
+      <c r="D19" s="99" t="s">
+        <v>306</v>
+      </c>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100">
+        <v>1</v>
+      </c>
+      <c r="G19" s="101">
         <v>199</v>
       </c>
-      <c r="H19" s="101"/>
-      <c r="I19" s="105">
+      <c r="H19" s="100"/>
+      <c r="I19" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J19" s="114" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="104" t="s">
-        <v>309</v>
-      </c>
-      <c r="L19" s="70"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="119"/>
+      <c r="J19" s="113" t="s">
+        <v>311</v>
+      </c>
+      <c r="K19" s="103" t="s">
+        <v>305</v>
+      </c>
+      <c r="L19" s="69"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="117"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
@@ -3891,7 +3884,7 @@
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E20">
         <v>410</v>
@@ -3905,19 +3898,19 @@
       <c r="H20" s="9">
         <v>1</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="39">
         <f>H20*G20</f>
         <v>20</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="75"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="119"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="117"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="17" t="s">
@@ -3930,7 +3923,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E21">
         <v>230</v>
@@ -3944,19 +3937,19 @@
       <c r="H21" s="9">
         <v>2</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="39">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="J21" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="K21" s="42" t="s">
+      <c r="J21" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="K21" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="L21" s="75"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="87"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="7" t="s">
@@ -3983,7 +3976,7 @@
       <c r="H22" s="9">
         <v>1225</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="39">
         <v>104</v>
       </c>
       <c r="J22" s="14" t="s">
@@ -3992,11 +3985,11 @@
       <c r="K22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="75"/>
-      <c r="M22" s="118" t="s">
-        <v>302</v>
-      </c>
-      <c r="N22" s="119"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="116" t="s">
+        <v>298</v>
+      </c>
+      <c r="N22" s="117"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="7" t="s">
@@ -4009,7 +4002,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E23">
         <v>330</v>
@@ -4023,21 +4016,21 @@
       <c r="H23" s="9">
         <v>1</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="39">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="M23" s="118"/>
-      <c r="N23" s="119"/>
+      <c r="L23" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" s="116"/>
+      <c r="N23" s="117"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
@@ -4061,7 +4054,7 @@
       <c r="H24" s="9">
         <v>2</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4071,9 +4064,9 @@
       <c r="K24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L24" s="75"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="87"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="7" t="s">
@@ -4097,7 +4090,7 @@
       <c r="H25" s="9">
         <v>1</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4107,11 +4100,11 @@
       <c r="K25" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="75"/>
-      <c r="M25" s="118" t="s">
-        <v>303</v>
-      </c>
-      <c r="N25" s="119"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="116" t="s">
+        <v>299</v>
+      </c>
+      <c r="N25" s="117"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
@@ -4124,7 +4117,7 @@
         <v>110</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F26" s="9">
         <v>1</v>
@@ -4135,21 +4128,21 @@
       <c r="H26" s="9">
         <v>1</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="39">
         <f t="shared" ref="I26:I52" si="2">H26*G26</f>
         <v>145</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="L26" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="M26" s="118"/>
-      <c r="N26" s="119"/>
+      <c r="L26" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" s="116"/>
+      <c r="N26" s="117"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
@@ -4173,7 +4166,7 @@
       <c r="H27" s="9">
         <v>1</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="39">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -4183,9 +4176,9 @@
       <c r="K27" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="L27" s="75"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="87"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
@@ -4209,7 +4202,7 @@
       <c r="H28" s="9">
         <v>1</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="39">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
@@ -4219,9 +4212,9 @@
       <c r="K28" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L28" s="75"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="87"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="7" t="s">
@@ -4234,7 +4227,7 @@
         <v>120</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E29">
         <v>300</v>
@@ -4248,21 +4241,21 @@
       <c r="H29" s="9">
         <v>1</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="39">
         <f t="shared" si="2"/>
         <v>78.39</v>
       </c>
-      <c r="J29" s="49" t="s">
-        <v>236</v>
+      <c r="J29" s="48" t="s">
+        <v>232</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="L29" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="M29" s="90"/>
-      <c r="N29" s="87"/>
+        <v>206</v>
+      </c>
+      <c r="L29" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="M29" s="89"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
@@ -4286,21 +4279,21 @@
       <c r="H30" s="9">
         <v>2</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="39">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="J30" s="50" t="s">
-        <v>237</v>
+      <c r="J30" s="49" t="s">
+        <v>233</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L30" s="73" t="s">
+      <c r="L30" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="M30" s="90"/>
-      <c r="N30" s="87"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="7" t="s">
@@ -4313,7 +4306,7 @@
         <v>124</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
@@ -4324,19 +4317,19 @@
       <c r="H31" s="9">
         <v>1</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="39">
         <f>H31*G31</f>
         <v>3</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="L31" s="75"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="87"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
@@ -4346,10 +4339,10 @@
         <v>109</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
@@ -4360,21 +4353,21 @@
       <c r="H32" s="9">
         <v>1</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="39">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="K32" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="L32" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="M32" s="90"/>
-      <c r="N32" s="87"/>
+        <v>191</v>
+      </c>
+      <c r="K32" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="L32" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" s="89"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="7" t="s">
@@ -4387,7 +4380,7 @@
         <v>127</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
@@ -4398,19 +4391,19 @@
       <c r="H33" s="9">
         <v>1</v>
       </c>
-      <c r="I33" s="40">
+      <c r="I33" s="39">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J33" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="K33" s="42" t="s">
+      <c r="J33" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="L33" s="75"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="87"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="7" t="s">
@@ -4420,10 +4413,10 @@
         <v>126</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D34" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -4434,19 +4427,19 @@
       <c r="H34" s="9">
         <v>1</v>
       </c>
-      <c r="I34" s="40">
+      <c r="I34" s="39">
         <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="K34" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="L34" s="75"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="87"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="7" t="s">
@@ -4459,7 +4452,7 @@
         <v>126</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
@@ -4470,19 +4463,19 @@
       <c r="H35" s="9">
         <v>1</v>
       </c>
-      <c r="I35" s="40">
+      <c r="I35" s="39">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="J35" s="48" t="s">
-        <v>325</v>
+      <c r="J35" s="47" t="s">
+        <v>321</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L35" s="75"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="87"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="14.45" customHeight="1">
       <c r="A36" s="7" t="s">
@@ -4495,7 +4488,7 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -4506,19 +4499,19 @@
       <c r="H36" s="9">
         <v>1</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="39">
         <f>H36*G36</f>
         <v>3.75</v>
       </c>
-      <c r="J36" s="48" t="s">
-        <v>285</v>
+      <c r="J36" s="47" t="s">
+        <v>281</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L36" s="76"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="87"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="14.45" customHeight="1">
       <c r="A37" s="7" t="s">
@@ -4531,7 +4524,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F37" s="9">
         <v>2</v>
@@ -4542,19 +4535,19 @@
       <c r="H37" s="9">
         <v>1</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="39">
         <f>H37*G37</f>
         <v>10</v>
       </c>
-      <c r="J37" s="48" t="s">
-        <v>286</v>
+      <c r="J37" s="47" t="s">
+        <v>282</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L37" s="76"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="87"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="7" t="s">
@@ -4578,7 +4571,7 @@
       <c r="H38" s="9">
         <v>1</v>
       </c>
-      <c r="I38" s="40">
+      <c r="I38" s="39">
         <f>H38*G38</f>
         <v>1.2</v>
       </c>
@@ -4588,9 +4581,9 @@
       <c r="K38" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L38" s="75"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="87"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="7" t="s">
@@ -4614,7 +4607,7 @@
       <c r="H39" s="9">
         <v>3</v>
       </c>
-      <c r="I39" s="40">
+      <c r="I39" s="39">
         <f>H39*G39</f>
         <v>9</v>
       </c>
@@ -4624,9 +4617,9 @@
       <c r="K39" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L39" s="75"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="87"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="7" t="s">
@@ -4650,7 +4643,7 @@
       <c r="H40" s="9">
         <v>1</v>
       </c>
-      <c r="I40" s="40">
+      <c r="I40" s="39">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
@@ -4660,9 +4653,9 @@
       <c r="K40" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L40" s="75"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="87"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="7" t="s">
@@ -4686,7 +4679,7 @@
       <c r="H41" s="9">
         <v>10</v>
       </c>
-      <c r="I41" s="40">
+      <c r="I41" s="39">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
@@ -4696,9 +4689,9 @@
       <c r="K41" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L41" s="75"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="87"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="7" t="s">
@@ -4722,7 +4715,7 @@
       <c r="H42" s="9">
         <v>5</v>
       </c>
-      <c r="I42" s="40">
+      <c r="I42" s="39">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -4732,9 +4725,9 @@
       <c r="K42" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L42" s="75"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="87"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="7" t="s">
@@ -4758,7 +4751,7 @@
       <c r="H43" s="9">
         <v>5</v>
       </c>
-      <c r="I43" s="40">
+      <c r="I43" s="39">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -4768,9 +4761,9 @@
       <c r="K43" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L43" s="75"/>
-      <c r="M43" s="90"/>
-      <c r="N43" s="87"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="7" t="s">
@@ -4797,7 +4790,7 @@
       <c r="H44" s="9">
         <v>3</v>
       </c>
-      <c r="I44" s="40">
+      <c r="I44" s="39">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -4807,9 +4800,9 @@
       <c r="K44" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="L44" s="75"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="87"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="7" t="s">
@@ -4833,7 +4826,7 @@
       <c r="H45" s="9">
         <v>5</v>
       </c>
-      <c r="I45" s="40">
+      <c r="I45" s="39">
         <f t="shared" si="2"/>
         <v>72.5</v>
       </c>
@@ -4843,22 +4836,22 @@
       <c r="K45" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="L45" s="76"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="87"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F46" s="9">
         <v>5</v>
@@ -4869,32 +4862,32 @@
       <c r="H46" s="9">
         <v>5</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I46" s="39">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="K46" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="L46" s="77"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="87"/>
+        <v>151</v>
+      </c>
+      <c r="K46" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="L46" s="76"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="14.45" customHeight="1">
       <c r="A47" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" t="s">
         <v>155</v>
       </c>
-      <c r="B47" t="s">
-        <v>157</v>
-      </c>
       <c r="C47" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F47" s="9">
         <v>5</v>
@@ -4905,32 +4898,32 @@
       <c r="H47" s="9">
         <v>5</v>
       </c>
-      <c r="I47" s="40">
+      <c r="I47" s="39">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="K47" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="L47" s="77"/>
-      <c r="M47" s="90"/>
-      <c r="N47" s="87"/>
+        <v>151</v>
+      </c>
+      <c r="K47" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="L47" s="76"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
         <v>155</v>
       </c>
-      <c r="B48" t="s">
-        <v>157</v>
-      </c>
       <c r="C48" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E48">
         <v>300</v>
@@ -4944,32 +4937,32 @@
       <c r="H48" s="9">
         <v>2</v>
       </c>
-      <c r="I48" s="40">
+      <c r="I48" s="39">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="L48" s="76"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="87"/>
+        <v>276</v>
+      </c>
+      <c r="L48" s="75"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="14.45" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B49" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D49" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F49" s="9">
         <v>5</v>
@@ -4980,32 +4973,32 @@
       <c r="H49" s="9">
         <v>5</v>
       </c>
-      <c r="I49" s="40">
+      <c r="I49" s="39">
         <f>H49*G49</f>
         <v>16.149999999999999</v>
       </c>
-      <c r="J49" s="48" t="s">
-        <v>283</v>
+      <c r="J49" s="47" t="s">
+        <v>279</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="L49" s="76"/>
-      <c r="M49" s="90"/>
-      <c r="N49" s="87"/>
+        <v>284</v>
+      </c>
+      <c r="L49" s="75"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B50" t="s">
         <v>109</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F50" s="9">
         <v>1</v>
@@ -5016,32 +5009,32 @@
       <c r="H50" s="9">
         <v>1</v>
       </c>
-      <c r="I50" s="40">
+      <c r="I50" s="39">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="L50" s="76"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="87"/>
+        <v>169</v>
+      </c>
+      <c r="L50" s="75"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B51" t="s">
         <v>109</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F51" s="9">
         <v>2</v>
@@ -5052,23 +5045,23 @@
       <c r="H51" s="9">
         <v>2</v>
       </c>
-      <c r="I51" s="40">
+      <c r="I51" s="39">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="J51" s="115" t="s">
-        <v>323</v>
+      <c r="J51" s="114" t="s">
+        <v>319</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="L51" s="76"/>
-      <c r="M51" s="90"/>
-      <c r="N51" s="87"/>
+        <v>179</v>
+      </c>
+      <c r="L51" s="75"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
         <v>109</v>
@@ -5077,7 +5070,7 @@
         <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F52" s="9">
         <v>1</v>
@@ -5088,23 +5081,23 @@
       <c r="H52" s="9">
         <v>1</v>
       </c>
-      <c r="I52" s="40">
+      <c r="I52" s="39">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="L52" s="76"/>
-      <c r="M52" s="90"/>
-      <c r="N52" s="87"/>
+        <v>216</v>
+      </c>
+      <c r="L52" s="75"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="86"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
         <v>109</v>
@@ -5113,7 +5106,7 @@
         <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F53" s="9">
         <v>1</v>
@@ -5125,32 +5118,32 @@
       <c r="H53" s="9">
         <v>1</v>
       </c>
-      <c r="I53" s="40">
+      <c r="I53" s="39">
         <f t="shared" ref="I53" si="3">H53*G53</f>
         <v>3.96</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="L53" s="76"/>
-      <c r="M53" s="90"/>
-      <c r="N53" s="87"/>
+        <v>215</v>
+      </c>
+      <c r="L53" s="75"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="86"/>
     </row>
     <row r="54" spans="1:14" ht="14.45" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D54" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F54" s="9">
         <v>1</v>
@@ -5161,32 +5154,32 @@
       <c r="H54" s="9">
         <v>1</v>
       </c>
-      <c r="I54" s="40">
+      <c r="I54" s="39">
         <f t="shared" ref="I54:I57" si="4">H54*G54</f>
         <v>3.72</v>
       </c>
-      <c r="J54" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="K54" s="82" t="s">
-        <v>300</v>
-      </c>
-      <c r="L54" s="76"/>
-      <c r="M54" s="90"/>
-      <c r="N54" s="87"/>
+      <c r="J54" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="K54" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="L54" s="75"/>
+      <c r="M54" s="89"/>
+      <c r="N54" s="86"/>
     </row>
     <row r="55" spans="1:14" ht="14.45" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F55" s="9">
         <v>1</v>
@@ -5197,32 +5190,32 @@
       <c r="H55" s="9">
         <v>1</v>
       </c>
-      <c r="I55" s="40">
+      <c r="I55" s="39">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="L55" s="76"/>
-      <c r="M55" s="90"/>
-      <c r="N55" s="87"/>
+        <v>296</v>
+      </c>
+      <c r="L55" s="75"/>
+      <c r="M55" s="89"/>
+      <c r="N55" s="86"/>
     </row>
     <row r="56" spans="1:14" ht="14.45" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D56" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F56" s="9">
         <v>1</v>
@@ -5233,32 +5226,32 @@
       <c r="H56" s="9">
         <v>1</v>
       </c>
-      <c r="I56" s="40">
+      <c r="I56" s="39">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="L56" s="76"/>
-      <c r="M56" s="90"/>
-      <c r="N56" s="87"/>
+        <v>296</v>
+      </c>
+      <c r="L56" s="75"/>
+      <c r="M56" s="89"/>
+      <c r="N56" s="86"/>
     </row>
     <row r="57" spans="1:14" ht="14.45" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F57" s="9">
         <v>1</v>
@@ -5269,32 +5262,32 @@
       <c r="H57" s="9">
         <v>1</v>
       </c>
-      <c r="I57" s="40">
+      <c r="I57" s="39">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J57" s="48" t="s">
-        <v>274</v>
+      <c r="J57" s="47" t="s">
+        <v>270</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="L57" s="76"/>
-      <c r="M57" s="90"/>
-      <c r="N57" s="87"/>
+        <v>296</v>
+      </c>
+      <c r="L57" s="75"/>
+      <c r="M57" s="89"/>
+      <c r="N57" s="86"/>
     </row>
     <row r="58" spans="1:14" ht="14.45" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B58" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" t="s">
         <v>196</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D58" t="s">
-        <v>198</v>
       </c>
       <c r="F58" s="9">
         <v>1</v>
@@ -5305,71 +5298,71 @@
       <c r="H58" s="9">
         <v>1</v>
       </c>
-      <c r="I58" s="40">
+      <c r="I58" s="39">
         <f>G58*H58</f>
         <v>21.5</v>
       </c>
-      <c r="J58" s="48" t="s">
-        <v>199</v>
+      <c r="J58" s="47" t="s">
+        <v>197</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="L58" s="78"/>
-      <c r="M58" s="90"/>
-      <c r="N58" s="87"/>
+        <v>217</v>
+      </c>
+      <c r="L58" s="77"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="86"/>
     </row>
     <row r="59" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A59" s="80"/>
-      <c r="B59" s="61" t="s">
+      <c r="A59" s="79"/>
+      <c r="B59" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="D59" s="61" t="s">
-        <v>265</v>
-      </c>
-      <c r="E59" s="63"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="64">
-        <v>1</v>
-      </c>
-      <c r="I59" s="66">
+      <c r="C59" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="D59" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="E59" s="62"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="63">
+        <v>1</v>
+      </c>
+      <c r="I59" s="65">
         <f>'Hardware List'!F46</f>
         <v>226.46999999999997</v>
       </c>
-      <c r="J59" s="67"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="90"/>
-      <c r="N59" s="87"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="78"/>
+      <c r="M59" s="89"/>
+      <c r="N59" s="86"/>
     </row>
     <row r="60" spans="1:14" s="6" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A60" s="43"/>
-      <c r="B60" s="44" t="s">
+      <c r="A60" s="42"/>
+      <c r="B60" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="D60" s="44" t="s">
+      <c r="C60" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="D60" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="46">
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="45">
         <f>SUM(I20:I59)+I14</f>
         <v>1862.6400000000003</v>
       </c>
-      <c r="J60" s="44"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="91"/>
-      <c r="N60" s="89"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="90"/>
+      <c r="N60" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5430,21 +5423,21 @@
     <hyperlink ref="J7" r:id="rId48" xr:uid="{47004657-0518-4245-B471-B34B5125E399}"/>
     <hyperlink ref="J8" r:id="rId49" xr:uid="{6BAD6695-28C3-4B6D-8A72-B08E82F940DF}"/>
     <hyperlink ref="J9" r:id="rId50" display="Color: 10pcs 2028" xr:uid="{C4B95C3B-16B9-4394-9F39-5B9FF78AC176}"/>
-    <hyperlink ref="J11" r:id="rId51" display="3x GL: 350 - Color: MGN12 H" xr:uid="{9DCC9853-4D9E-4093-9D52-2A218587FDA4}"/>
-    <hyperlink ref="J12" r:id="rId52" display="2x GL: 400 - Color: MGN12 H" xr:uid="{A43DD5EF-D822-48AA-A6D3-DB6211D18B07}"/>
-    <hyperlink ref="J13" r:id="rId53" xr:uid="{792C8BB0-E4E5-4DDC-8020-C3F9BE9E4B2E}"/>
-    <hyperlink ref="J10" r:id="rId54" xr:uid="{3FB75D13-E1B1-4B85-B99D-0379606A4DAC}"/>
-    <hyperlink ref="M10" r:id="rId55" xr:uid="{03D23144-4452-41B9-B4B9-F51023FDC698}"/>
-    <hyperlink ref="M11" r:id="rId56" xr:uid="{410E10AD-6201-406C-BD2E-0E2A08BBF18C}"/>
-    <hyperlink ref="M12" r:id="rId57" xr:uid="{D0E8BE37-F76A-4921-AA1C-3F7A7D64A7BC}"/>
-    <hyperlink ref="J16" r:id="rId58" display="Makersupplies Complete Kit" xr:uid="{036B3E6D-568B-4079-9529-92EC099AA1B7}"/>
-    <hyperlink ref="J17" r:id="rId59" xr:uid="{3707A5E6-020E-4B23-B131-7499054C07E0}"/>
-    <hyperlink ref="J19" r:id="rId60" xr:uid="{A9A16167-FCF8-4CCB-AF52-C298BD6D8154}"/>
-    <hyperlink ref="J18" r:id="rId61" xr:uid="{2EF5411B-8136-4A92-8C0B-6EDC3731093C}"/>
+    <hyperlink ref="J11" r:id="rId51" display="3xGL: 350 - C: MGN12 H" xr:uid="{9DCC9853-4D9E-4093-9D52-2A218587FDA4}"/>
+    <hyperlink ref="J10" r:id="rId52" xr:uid="{3FB75D13-E1B1-4B85-B99D-0379606A4DAC}"/>
+    <hyperlink ref="M10" r:id="rId53" xr:uid="{03D23144-4452-41B9-B4B9-F51023FDC698}"/>
+    <hyperlink ref="M11" r:id="rId54" xr:uid="{410E10AD-6201-406C-BD2E-0E2A08BBF18C}"/>
+    <hyperlink ref="M12" r:id="rId55" xr:uid="{D0E8BE37-F76A-4921-AA1C-3F7A7D64A7BC}"/>
+    <hyperlink ref="J16" r:id="rId56" display="Makersupplies Complete Kit" xr:uid="{036B3E6D-568B-4079-9529-92EC099AA1B7}"/>
+    <hyperlink ref="J17" r:id="rId57" xr:uid="{3707A5E6-020E-4B23-B131-7499054C07E0}"/>
+    <hyperlink ref="J19" r:id="rId58" xr:uid="{A9A16167-FCF8-4CCB-AF52-C298BD6D8154}"/>
+    <hyperlink ref="J18" r:id="rId59" xr:uid="{2EF5411B-8136-4A92-8C0B-6EDC3731093C}"/>
+    <hyperlink ref="J12" r:id="rId60" display="3xGL: 350 - C: MGN12 H" xr:uid="{9D6B9AF6-62B4-480D-97FD-B7DE0674CAF2}"/>
+    <hyperlink ref="J13" r:id="rId61" display="3xGL: 350 - C: MGN12 H" xr:uid="{C50F9241-9201-4BCF-B05D-EA96CC2121C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="68" fitToWidth="0" orientation="landscape" r:id="rId62"/>
+  <pageSetup paperSize="9" scale="64" fitToWidth="0" orientation="landscape" r:id="rId62"/>
   <drawing r:id="rId63"/>
   <legacyDrawing r:id="rId64"/>
   <tableParts count="1">
@@ -5482,40 +5475,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickBot="1">
-      <c r="A1" s="117" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
+      <c r="A1" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45">
         <f>F46</f>
         <v>226.46999999999997</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -5526,38 +5519,38 @@
       <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="86"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="85"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -5569,10 +5562,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -5584,22 +5577,22 @@
       <c r="E4" s="9">
         <v>1</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="39">
         <f>E4*D4</f>
         <v>4.3099999999999996</v>
       </c>
-      <c r="G4" s="49" t="s">
-        <v>242</v>
+      <c r="G4" s="48" t="s">
+        <v>238</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I4" s="13"/>
-      <c r="J4" s="53"/>
+      <c r="J4" s="52"/>
       <c r="K4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="87"/>
+      <c r="L4" s="86"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="7" t="s">
@@ -5617,7 +5610,7 @@
       <c r="E5" s="9">
         <v>1</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <f>E5*D5</f>
         <v>1</v>
       </c>
@@ -5630,13 +5623,13 @@
       <c r="I5" s="15">
         <v>934</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="51">
         <v>4032</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="87"/>
+      <c r="L5" s="86"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="7" t="s">
@@ -5654,29 +5647,29 @@
       <c r="E6" s="9">
         <v>2</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="39">
         <f>E6*D6</f>
         <v>6</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I6" s="13"/>
-      <c r="J6" s="53"/>
+      <c r="J6" s="52"/>
       <c r="K6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="87"/>
+      <c r="L6" s="86"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -5688,31 +5681,31 @@
       <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="39">
         <f>E7*D7</f>
         <v>0.49</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I7" s="15"/>
-      <c r="J7" s="52">
+      <c r="J7" s="51">
         <v>10511</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="87"/>
+      <c r="L7" s="86"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C8" s="9">
         <v>31</v>
@@ -5723,28 +5716,28 @@
       <c r="E8" s="9">
         <v>1</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="39">
         <f>E8*D8</f>
         <v>0.74</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="J8" s="52"/>
-      <c r="L8" s="87"/>
+      <c r="I8" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="J8" s="51"/>
+      <c r="L8" s="86"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
@@ -5755,23 +5748,23 @@
       <c r="E9" s="9">
         <v>1</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="39">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G9" s="48" t="s">
-        <v>251</v>
+      <c r="G9" s="47" t="s">
+        <v>247</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="53">
         <v>916</v>
       </c>
-      <c r="J9" s="52"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="L9" s="87"/>
+        <v>289</v>
+      </c>
+      <c r="L9" s="86"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="7" t="s">
@@ -5789,7 +5782,7 @@
       <c r="E10" s="9">
         <v>1</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="39">
         <f>E10*D10</f>
         <v>1</v>
       </c>
@@ -5800,20 +5793,20 @@
         <v>50</v>
       </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="52">
+      <c r="J10" s="51">
         <v>7380</v>
       </c>
-      <c r="K10" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="L10" s="87"/>
+      <c r="K10" s="87" t="s">
+        <v>290</v>
+      </c>
+      <c r="L10" s="86"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -5824,25 +5817,25 @@
       <c r="E11" s="9">
         <v>1</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="39">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G11" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="H11" s="42" t="s">
+      <c r="G11" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="41" t="s">
         <v>50</v>
       </c>
       <c r="I11" s="15">
         <v>7991</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="51">
         <v>10642</v>
       </c>
-      <c r="K11" s="88" t="s">
-        <v>295</v>
-      </c>
-      <c r="L11" s="87"/>
+      <c r="K11" s="87" t="s">
+        <v>291</v>
+      </c>
+      <c r="L11" s="86"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="7" t="s">
@@ -5860,7 +5853,7 @@
       <c r="E12" s="9">
         <v>1</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="39">
         <f>E12*D12</f>
         <v>1</v>
       </c>
@@ -5873,11 +5866,11 @@
       <c r="I12" s="13">
         <v>912</v>
       </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="L12" s="87"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="L12" s="86"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="7" t="s">
@@ -5895,7 +5888,7 @@
       <c r="E13" s="9">
         <v>1</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="39">
         <f>E13*D13</f>
         <v>1</v>
       </c>
@@ -5906,18 +5899,18 @@
         <v>50</v>
       </c>
       <c r="I13" s="15"/>
-      <c r="J13" s="52">
+      <c r="J13" s="51">
         <v>7380</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="87"/>
+      <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C14">
         <v>29</v>
@@ -5928,23 +5921,23 @@
       <c r="E14" s="9">
         <v>1</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="39">
         <v>1.07</v>
       </c>
-      <c r="G14" s="48" t="s">
-        <v>253</v>
-      </c>
-      <c r="H14" s="42" t="s">
+      <c r="G14" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="H14" s="41" t="s">
         <v>50</v>
       </c>
       <c r="I14" s="15">
         <v>912</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="51">
         <v>4762</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="L14" s="87"/>
+      <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="7" t="s">
@@ -5962,7 +5955,7 @@
       <c r="E15" s="9">
         <v>1</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="39">
         <f>E15*D15</f>
         <v>2</v>
       </c>
@@ -5973,20 +5966,20 @@
         <v>50</v>
       </c>
       <c r="I15" s="13"/>
-      <c r="J15" s="53">
+      <c r="J15" s="52">
         <v>7380</v>
       </c>
-      <c r="K15" s="118" t="s">
-        <v>301</v>
-      </c>
-      <c r="L15" s="119"/>
+      <c r="K15" s="116" t="s">
+        <v>297</v>
+      </c>
+      <c r="L15" s="117"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -5997,12 +5990,12 @@
       <c r="E16" s="9">
         <v>1</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="39">
         <f>E16*D16</f>
         <v>1.5</v>
       </c>
-      <c r="G16" s="48" t="s">
-        <v>254</v>
+      <c r="G16" s="47" t="s">
+        <v>250</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>50</v>
@@ -6010,16 +6003,16 @@
       <c r="I16" s="13">
         <v>912</v>
       </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="119"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="117"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C17" s="9">
         <v>4</v>
@@ -6031,27 +6024,27 @@
       <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="39">
         <f t="shared" ref="F17:F34" si="0">E17*D17</f>
         <v>3.27</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I17" s="13"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="87"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C18" s="9">
         <v>4</v>
@@ -6063,22 +6056,22 @@
       <c r="E18" s="9">
         <v>1</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="39">
         <f t="shared" si="0"/>
         <v>2.57</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I18" s="15"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="118" t="s">
-        <v>304</v>
-      </c>
-      <c r="L18" s="119"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="116" t="s">
+        <v>300</v>
+      </c>
+      <c r="L18" s="117"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
@@ -6096,27 +6089,27 @@
       <c r="E19" s="9">
         <v>3</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="39">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>79</v>
       </c>
       <c r="I19" s="15"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="119"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="117"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6127,20 +6120,20 @@
       <c r="E20" s="9">
         <v>1</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>79</v>
       </c>
       <c r="I20" s="15"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="87"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="86"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="7" t="s">
@@ -6158,7 +6151,7 @@
       <c r="E21" s="9">
         <v>1</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="39">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -6171,20 +6164,20 @@
       <c r="I21" s="13">
         <v>934</v>
       </c>
-      <c r="J21" s="53">
+      <c r="J21" s="52">
         <v>4032</v>
       </c>
-      <c r="K21" s="118" t="s">
-        <v>303</v>
-      </c>
-      <c r="L21" s="119"/>
+      <c r="K21" s="116" t="s">
+        <v>299</v>
+      </c>
+      <c r="L21" s="117"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -6195,7 +6188,7 @@
       <c r="E22" s="9">
         <v>1</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="39">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -6208,11 +6201,11 @@
       <c r="I22" s="15">
         <v>985</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="51">
         <v>10511</v>
       </c>
-      <c r="K22" s="118"/>
-      <c r="L22" s="119"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="117"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="7" t="s">
@@ -6230,7 +6223,7 @@
       <c r="E23" s="9">
         <v>1</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -6243,11 +6236,11 @@
       <c r="I23" s="13">
         <v>125</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="52">
         <v>7089</v>
       </c>
-      <c r="K23" s="90"/>
-      <c r="L23" s="87"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="86"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="7" t="s">
@@ -6265,7 +6258,7 @@
       <c r="E24" s="9">
         <v>1</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -6278,11 +6271,11 @@
       <c r="I24" s="15">
         <v>7991</v>
       </c>
-      <c r="J24" s="52">
+      <c r="J24" s="51">
         <v>10642</v>
       </c>
-      <c r="K24" s="90"/>
-      <c r="L24" s="87"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="86"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="7" t="s">
@@ -6300,7 +6293,7 @@
       <c r="E25" s="9">
         <v>1</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -6313,18 +6306,18 @@
       <c r="I25" s="13">
         <v>7991</v>
       </c>
-      <c r="J25" s="53">
+      <c r="J25" s="52">
         <v>10642</v>
       </c>
-      <c r="K25" s="90"/>
-      <c r="L25" s="87"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="86"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="59" t="s">
-        <v>267</v>
+      <c r="B26" s="58" t="s">
+        <v>263</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -6335,12 +6328,12 @@
       <c r="E26" s="9">
         <v>1</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="39">
         <f t="shared" si="0"/>
         <v>3.28</v>
       </c>
-      <c r="G26" s="48" t="s">
-        <v>321</v>
+      <c r="G26" s="47" t="s">
+        <v>317</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>50</v>
@@ -6348,9 +6341,9 @@
       <c r="I26" s="13">
         <v>7991</v>
       </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="87"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="86"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="7" t="s">
@@ -6368,7 +6361,7 @@
       <c r="E27" s="9">
         <v>1</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -6381,11 +6374,11 @@
       <c r="I27" s="15">
         <v>934</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="51">
         <v>4032</v>
       </c>
-      <c r="K27" s="90"/>
-      <c r="L27" s="87"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="86"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="7" t="s">
@@ -6403,7 +6396,7 @@
       <c r="E28" s="9">
         <v>1</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="39">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -6414,9 +6407,9 @@
         <v>50</v>
       </c>
       <c r="I28" s="13"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="87"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="86"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="7" t="s">
@@ -6434,7 +6427,7 @@
       <c r="E29" s="9">
         <v>1</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="39">
         <f t="shared" si="0"/>
         <v>2.81</v>
       </c>
@@ -6447,18 +6440,18 @@
       <c r="I29" s="15">
         <v>985</v>
       </c>
-      <c r="J29" s="52">
+      <c r="J29" s="51">
         <v>10511</v>
       </c>
-      <c r="K29" s="90"/>
-      <c r="L29" s="87"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="86"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C30">
         <v>72</v>
@@ -6469,7 +6462,7 @@
       <c r="E30" s="9">
         <v>1</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="39">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
@@ -6480,16 +6473,16 @@
         <v>50</v>
       </c>
       <c r="I30" s="13"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="87"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="86"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -6501,20 +6494,20 @@
       <c r="E31" s="9">
         <v>1</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="39">
         <f t="shared" si="0"/>
         <v>3.62</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I31" s="15"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="87"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="86"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="7" t="s">
@@ -6532,7 +6525,7 @@
       <c r="E32" s="9">
         <v>2</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="39">
         <f t="shared" si="0"/>
         <v>2.56</v>
       </c>
@@ -6545,11 +6538,11 @@
       <c r="I32" s="15">
         <v>125</v>
       </c>
-      <c r="J32" s="52">
+      <c r="J32" s="51">
         <v>7089</v>
       </c>
-      <c r="K32" s="90"/>
-      <c r="L32" s="87"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="86"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="7" t="s">
@@ -6567,7 +6560,7 @@
       <c r="E33" s="9">
         <v>15</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="39">
         <f t="shared" si="0"/>
         <v>40.35</v>
       </c>
@@ -6578,11 +6571,11 @@
         <v>50</v>
       </c>
       <c r="I33" s="13"/>
-      <c r="J33" s="53">
+      <c r="J33" s="52">
         <v>7380</v>
       </c>
-      <c r="K33" s="90"/>
-      <c r="L33" s="87"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="86"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="7" t="s">
@@ -6600,7 +6593,7 @@
       <c r="E34" s="16">
         <v>1</v>
       </c>
-      <c r="F34" s="40">
+      <c r="F34" s="39">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -6611,18 +6604,18 @@
         <v>50</v>
       </c>
       <c r="I34" s="15"/>
-      <c r="J34" s="52">
+      <c r="J34" s="51">
         <v>7380</v>
       </c>
-      <c r="K34" s="90"/>
-      <c r="L34" s="87"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="86"/>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="57" t="s">
-        <v>247</v>
+      <c r="B35" s="56" t="s">
+        <v>243</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -6633,21 +6626,21 @@
       <c r="E35" s="16">
         <v>1</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="39">
         <v>1.64</v>
       </c>
-      <c r="G35" s="48" t="s">
-        <v>255</v>
+      <c r="G35" s="47" t="s">
+        <v>251</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>79</v>
       </c>
       <c r="I35" s="15"/>
-      <c r="J35" s="52">
+      <c r="J35" s="51">
         <v>7380</v>
       </c>
-      <c r="K35" s="90"/>
-      <c r="L35" s="87"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="86"/>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="7" t="s">
@@ -6665,7 +6658,7 @@
       <c r="E36" s="16">
         <v>1</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F36" s="39">
         <f>E36*D36</f>
         <v>2.57</v>
       </c>
@@ -6678,16 +6671,16 @@
       <c r="I36" s="13">
         <v>933</v>
       </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="87"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="86"/>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="17" t="s">
         <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -6698,12 +6691,12 @@
       <c r="E37" s="16">
         <v>2</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="39">
         <f t="shared" ref="F37" si="1">E37*D37</f>
         <v>6.08</v>
       </c>
-      <c r="G37" s="48" t="s">
-        <v>256</v>
+      <c r="G37" s="47" t="s">
+        <v>252</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>50</v>
@@ -6711,9 +6704,9 @@
       <c r="I37" s="13">
         <v>933</v>
       </c>
-      <c r="J37" s="53"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="87"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="86"/>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="17" t="s">
@@ -6731,27 +6724,27 @@
       <c r="E38" s="9">
         <v>1</v>
       </c>
-      <c r="F38" s="40">
+      <c r="F38" s="39">
         <f>E38*D38</f>
         <v>16</v>
       </c>
-      <c r="G38" s="48" t="s">
-        <v>186</v>
+      <c r="G38" s="47" t="s">
+        <v>184</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I38" s="15"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="87"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="86"/>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -6762,26 +6755,26 @@
       <c r="E39" s="9">
         <v>1</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="39">
         <v>9.5</v>
       </c>
-      <c r="G39" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>258</v>
+      <c r="G39" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>254</v>
       </c>
       <c r="I39" s="15"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="87"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="86"/>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -6792,27 +6785,27 @@
       <c r="E40" s="16">
         <v>1</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="39">
         <f t="shared" ref="F40" si="2">E40*D40</f>
         <v>4.5</v>
       </c>
-      <c r="G40" s="48" t="s">
-        <v>190</v>
+      <c r="G40" s="47" t="s">
+        <v>188</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>60</v>
       </c>
       <c r="I40" s="13"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="87"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="86"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C41" s="9">
         <v>6</v>
@@ -6821,21 +6814,21 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="F41" s="40">
+        <v>256</v>
+      </c>
+      <c r="F41" s="39">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G41" s="48" t="s">
-        <v>259</v>
+      <c r="G41" s="47" t="s">
+        <v>255</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I41" s="15"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="87"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="86"/>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="17" t="s">
@@ -6853,27 +6846,27 @@
       <c r="E42" s="9">
         <v>1</v>
       </c>
-      <c r="F42" s="40">
+      <c r="F42" s="39">
         <f t="shared" ref="F42" si="3">E42*D42</f>
         <v>7.5</v>
       </c>
-      <c r="G42" s="50" t="s">
+      <c r="G42" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="H42" s="42" t="s">
+      <c r="H42" s="41" t="s">
         <v>64</v>
       </c>
       <c r="I42" s="15"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="87"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="86"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -6884,27 +6877,27 @@
       <c r="E43" s="16">
         <v>1</v>
       </c>
-      <c r="F43" s="40">
+      <c r="F43" s="39">
         <f t="shared" ref="F43" si="4">E43*D43</f>
         <v>24</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I43" s="13"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="87"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="86"/>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -6916,27 +6909,27 @@
       <c r="E44" s="16">
         <v>1</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="39">
         <f>E44*D44</f>
         <v>5.01</v>
       </c>
-      <c r="G44" s="48" t="s">
-        <v>164</v>
+      <c r="G44" s="47" t="s">
+        <v>162</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I44" s="13"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="87"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="86"/>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C45" s="9">
         <v>1</v>
@@ -6948,41 +6941,41 @@
       <c r="E45" s="9">
         <v>1</v>
       </c>
-      <c r="F45" s="40">
+      <c r="F45" s="39">
         <f>E45*D45</f>
         <v>1.72</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I45" s="15"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="87"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="86"/>
     </row>
     <row r="46" spans="1:20" s="6" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="36">
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="35">
         <f>SUBTOTAL(109,Table13[Line Price $])</f>
         <v>226.46999999999997</v>
       </c>
-      <c r="G46" s="32"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="89"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="88"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
@@ -7065,7 +7058,7 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -7087,20 +7080,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="117" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
+      <c r="A1" s="115" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -7109,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7120,8 +7113,8 @@
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="60" t="s">
-        <v>294</v>
+      <c r="E3" s="59" t="s">
+        <v>290</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -7131,8 +7124,8 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="60" t="s">
-        <v>295</v>
+      <c r="E4" s="59" t="s">
+        <v>291</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -7141,69 +7134,69 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="60" t="s">
-        <v>296</v>
+      <c r="E5" s="59" t="s">
+        <v>292</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="D6" s="44" t="s">
+      <c r="C6" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46">
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="45">
         <f>I49</f>
         <v>1462.31</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-    </row>
-    <row r="7" spans="1:12" s="55" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A7" s="34" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+    </row>
+    <row r="7" spans="1:12" s="54" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="L7" s="36" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7214,7 +7207,7 @@
       <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -7232,16 +7225,16 @@
       <c r="H8" s="22">
         <v>1</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="38">
         <v>8</v>
       </c>
-      <c r="J8" s="58" t="s">
-        <v>287</v>
+      <c r="J8" s="57" t="s">
+        <v>283</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="69"/>
+      <c r="L8" s="68"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
@@ -7269,7 +7262,7 @@
       <c r="H9" s="9">
         <v>1</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="39">
         <f t="shared" ref="I9:I47" si="0">H9*G9</f>
         <v>9.5</v>
       </c>
@@ -7279,7 +7272,7 @@
       <c r="K9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="70"/>
+      <c r="L9" s="69"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
@@ -7306,7 +7299,7 @@
       <c r="H10" s="9">
         <v>4</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="39">
         <f t="shared" si="0"/>
         <v>42.16</v>
       </c>
@@ -7316,7 +7309,7 @@
       <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="71"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
@@ -7343,7 +7336,7 @@
       <c r="H11" s="9">
         <v>4</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="39">
         <f t="shared" si="0"/>
         <v>44.484000000000002</v>
       </c>
@@ -7353,7 +7346,7 @@
       <c r="K11" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="70"/>
+      <c r="L11" s="69"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
@@ -7380,7 +7373,7 @@
       <c r="H12" s="9">
         <v>4</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="39">
         <f t="shared" si="0"/>
         <v>58.8</v>
       </c>
@@ -7390,7 +7383,7 @@
       <c r="K12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="71"/>
+      <c r="L12" s="70"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
@@ -7414,17 +7407,17 @@
       <c r="H13" s="9">
         <v>5</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="39">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="70"/>
+      <c r="L13" s="69"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="7" t="s">
@@ -7437,7 +7430,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F14" s="9">
         <v>4</v>
@@ -7448,17 +7441,17 @@
       <c r="H14" s="9">
         <v>4</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="39">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J14" s="56" t="s">
-        <v>249</v>
+      <c r="J14" s="55" t="s">
+        <v>245</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="72"/>
+      <c r="L14" s="71"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
@@ -7471,7 +7464,7 @@
         <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>326</v>
       </c>
       <c r="E15">
         <v>350</v>
@@ -7480,22 +7473,22 @@
         <v>3</v>
       </c>
       <c r="G15" s="10">
-        <v>15.6</v>
+        <v>18.5</v>
       </c>
       <c r="H15" s="9">
         <v>3</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="39">
         <f>H15*G15</f>
-        <v>46.8</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>215</v>
+        <v>55.5</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>323</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="L15" s="73"/>
+        <v>322</v>
+      </c>
+      <c r="L15" s="72"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
@@ -7508,7 +7501,7 @@
         <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="E16">
         <v>400</v>
@@ -7517,22 +7510,22 @@
         <v>2</v>
       </c>
       <c r="G16" s="10">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="H16" s="9">
         <v>2</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="39">
         <f>H16*G16</f>
-        <v>35</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>216</v>
+        <v>39</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>325</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="73"/>
+        <v>322</v>
+      </c>
+      <c r="L16" s="72"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
@@ -7545,7 +7538,7 @@
         <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E17">
         <v>400</v>
@@ -7554,22 +7547,22 @@
         <v>1</v>
       </c>
       <c r="G17" s="10">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="H17" s="9">
         <v>1</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="39">
         <f>H17*G17</f>
-        <v>16</v>
-      </c>
-      <c r="J17" s="116" t="s">
-        <v>327</v>
+        <v>17.5</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>324</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="73"/>
+        <v>322</v>
+      </c>
+      <c r="L17" s="72"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1">
@@ -7583,45 +7576,45 @@
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="81">
+      <c r="I18" s="80">
         <f>G22+G23</f>
         <v>374</v>
       </c>
-      <c r="J18" s="56"/>
+      <c r="J18" s="55"/>
       <c r="K18" s="27"/>
-      <c r="L18" s="73"/>
+      <c r="L18" s="72"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="108" t="s">
-        <v>316</v>
-      </c>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="113" t="s">
-        <v>317</v>
-      </c>
-      <c r="L19" s="74"/>
+      <c r="D19" s="107" t="s">
+        <v>312</v>
+      </c>
+      <c r="E19" s="107"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112" t="s">
+        <v>313</v>
+      </c>
+      <c r="L19" s="73"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="91" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -7631,30 +7624,30 @@
         <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="93">
-        <v>1</v>
-      </c>
-      <c r="G20" s="94">
+      <c r="F20" s="92">
+        <v>1</v>
+      </c>
+      <c r="G20" s="93">
         <v>720</v>
       </c>
-      <c r="H20" s="93"/>
-      <c r="I20" s="40">
+      <c r="H20" s="92"/>
+      <c r="I20" s="39">
         <f>H20*G20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="70" t="s">
-        <v>312</v>
-      </c>
-      <c r="K20" s="103" t="s">
+      <c r="J20" s="69" t="s">
+        <v>308</v>
+      </c>
+      <c r="K20" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="70"/>
+      <c r="L20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="91" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -7664,93 +7657,93 @@
         <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="93">
-        <v>1</v>
-      </c>
-      <c r="G21" s="94">
+      <c r="F21" s="92">
+        <v>1</v>
+      </c>
+      <c r="G21" s="93">
         <v>577</v>
       </c>
-      <c r="H21" s="93"/>
-      <c r="I21" s="40">
+      <c r="H21" s="92"/>
+      <c r="I21" s="39">
         <f t="shared" ref="I21:I23" si="1">H21*G21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="70" t="s">
-        <v>313</v>
-      </c>
-      <c r="K21" s="103" t="s">
+      <c r="J21" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="K21" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="70"/>
+      <c r="L21" s="69"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="96" t="s">
-        <v>311</v>
-      </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97">
-        <v>1</v>
-      </c>
-      <c r="G22" s="98">
+      <c r="D22" s="95" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96">
+        <v>1</v>
+      </c>
+      <c r="G22" s="97">
         <v>175</v>
       </c>
-      <c r="H22" s="97"/>
-      <c r="I22" s="39">
+      <c r="H22" s="96"/>
+      <c r="I22" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J22" s="69" t="s">
-        <v>314</v>
-      </c>
-      <c r="K22" s="106" t="s">
-        <v>309</v>
-      </c>
-      <c r="L22" s="70"/>
+      <c r="J22" s="68" t="s">
+        <v>310</v>
+      </c>
+      <c r="K22" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="L22" s="69"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="C23" s="100" t="s">
+      <c r="C23" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="100" t="s">
-        <v>310</v>
-      </c>
-      <c r="E23" s="100"/>
-      <c r="F23" s="101">
-        <v>1</v>
-      </c>
-      <c r="G23" s="102">
+      <c r="D23" s="99" t="s">
+        <v>306</v>
+      </c>
+      <c r="E23" s="99"/>
+      <c r="F23" s="100">
+        <v>1</v>
+      </c>
+      <c r="G23" s="101">
         <v>199</v>
       </c>
-      <c r="H23" s="101"/>
-      <c r="I23" s="105">
+      <c r="H23" s="100"/>
+      <c r="I23" s="104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J23" s="114" t="s">
-        <v>315</v>
-      </c>
-      <c r="K23" s="104" t="s">
-        <v>309</v>
-      </c>
-      <c r="L23" s="70"/>
+      <c r="J23" s="113" t="s">
+        <v>311</v>
+      </c>
+      <c r="K23" s="103" t="s">
+        <v>305</v>
+      </c>
+      <c r="L23" s="69"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
@@ -7777,17 +7770,17 @@
       <c r="H24" s="9">
         <v>1</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="39">
         <f>H24*G24</f>
         <v>20</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="75"/>
+      <c r="L24" s="74"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="7" t="s">
@@ -7814,7 +7807,7 @@
       <c r="H25" s="9">
         <v>1225</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="39">
         <v>104</v>
       </c>
       <c r="J25" s="14" t="s">
@@ -7823,7 +7816,7 @@
       <c r="K25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="75"/>
+      <c r="L25" s="74"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="7" t="s">
@@ -7836,7 +7829,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E26">
         <v>330</v>
@@ -7850,18 +7843,18 @@
       <c r="H26" s="9">
         <v>1</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="39">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="73" t="s">
-        <v>225</v>
+      <c r="L26" s="72" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -7886,7 +7879,7 @@
       <c r="H27" s="9">
         <v>2</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -7896,7 +7889,7 @@
       <c r="K27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L27" s="75"/>
+      <c r="L27" s="74"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="7" t="s">
@@ -7920,7 +7913,7 @@
       <c r="H28" s="9">
         <v>1</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -7930,7 +7923,7 @@
       <c r="K28" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="75"/>
+      <c r="L28" s="74"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
@@ -7943,7 +7936,7 @@
         <v>110</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
@@ -7954,18 +7947,18 @@
       <c r="H29" s="9">
         <v>1</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="39">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="L29" s="73" t="s">
-        <v>211</v>
+      <c r="L29" s="72" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -7990,7 +7983,7 @@
       <c r="H30" s="9">
         <v>1</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="39">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -8000,7 +7993,7 @@
       <c r="K30" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="L30" s="75"/>
+      <c r="L30" s="74"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="7" t="s">
@@ -8024,7 +8017,7 @@
       <c r="H31" s="9">
         <v>1</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="39">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -8034,7 +8027,7 @@
       <c r="K31" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L31" s="75"/>
+      <c r="L31" s="74"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="7" t="s">
@@ -8047,7 +8040,7 @@
         <v>120</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E32">
         <v>300</v>
@@ -8061,18 +8054,18 @@
       <c r="H32" s="9">
         <v>1</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="39">
         <f t="shared" si="0"/>
         <v>78.39</v>
       </c>
-      <c r="J32" s="49" t="s">
-        <v>236</v>
+      <c r="J32" s="48" t="s">
+        <v>232</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="L32" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="L32" s="72" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -8097,17 +8090,17 @@
       <c r="H33" s="9">
         <v>1</v>
       </c>
-      <c r="I33" s="40">
+      <c r="I33" s="39">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="J33" s="50" t="s">
-        <v>237</v>
+      <c r="J33" s="49" t="s">
+        <v>233</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L33" s="73" t="s">
+      <c r="L33" s="72" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8122,7 +8115,7 @@
         <v>124</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -8133,17 +8126,17 @@
       <c r="H34" s="9">
         <v>1</v>
       </c>
-      <c r="I34" s="40">
+      <c r="I34" s="39">
         <f>H34*G34</f>
         <v>3</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="L34" s="75"/>
+      <c r="L34" s="74"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
@@ -8153,10 +8146,10 @@
         <v>109</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
@@ -8167,18 +8160,18 @@
       <c r="H35" s="9">
         <v>1</v>
       </c>
-      <c r="I35" s="40">
+      <c r="I35" s="39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="K35" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="L35" s="73" t="s">
-        <v>210</v>
+        <v>191</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="L35" s="72" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -8192,7 +8185,7 @@
         <v>127</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -8203,17 +8196,17 @@
       <c r="H36" s="9">
         <v>1</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="39">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J36" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="K36" s="42" t="s">
+      <c r="J36" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="L36" s="75"/>
+      <c r="L36" s="74"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="7" t="s">
@@ -8223,10 +8216,10 @@
         <v>126</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D37" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
@@ -8237,17 +8230,17 @@
       <c r="H37" s="9">
         <v>1</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="39">
         <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="K37" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="K37" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="L37" s="75"/>
+      <c r="L37" s="74"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="7" t="s">
@@ -8260,7 +8253,7 @@
         <v>126</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F38" s="9">
         <v>1</v>
@@ -8271,18 +8264,18 @@
       <c r="H38" s="9">
         <v>1</v>
       </c>
-      <c r="I38" s="40">
+      <c r="I38" s="39">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="J38" s="48" t="s">
-        <v>325</v>
+      <c r="J38" s="47" t="s">
+        <v>321</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="L38" s="75"/>
-      <c r="M38" s="90"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="89"/>
     </row>
     <row r="39" spans="1:13" ht="14.45" customHeight="1">
       <c r="A39" s="7" t="s">
@@ -8295,7 +8288,7 @@
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
@@ -8306,17 +8299,17 @@
       <c r="H39" s="9">
         <v>1</v>
       </c>
-      <c r="I39" s="40">
+      <c r="I39" s="39">
         <f>H39*G39</f>
         <v>3.75</v>
       </c>
-      <c r="J39" s="48" t="s">
-        <v>285</v>
+      <c r="J39" s="47" t="s">
+        <v>281</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L39" s="76"/>
+      <c r="L39" s="75"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="7" t="s">
@@ -8340,7 +8333,7 @@
       <c r="H40" s="9">
         <v>1</v>
       </c>
-      <c r="I40" s="40">
+      <c r="I40" s="39">
         <f>H40*G40</f>
         <v>1.2</v>
       </c>
@@ -8350,7 +8343,7 @@
       <c r="K40" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L40" s="75"/>
+      <c r="L40" s="74"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="7" t="s">
@@ -8374,7 +8367,7 @@
       <c r="H41" s="9">
         <v>3</v>
       </c>
-      <c r="I41" s="40">
+      <c r="I41" s="39">
         <f>H41*G41</f>
         <v>9</v>
       </c>
@@ -8384,7 +8377,7 @@
       <c r="K41" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L41" s="75"/>
+      <c r="L41" s="74"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="7" t="s">
@@ -8408,7 +8401,7 @@
       <c r="H42" s="9">
         <v>1</v>
       </c>
-      <c r="I42" s="40">
+      <c r="I42" s="39">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
@@ -8418,7 +8411,7 @@
       <c r="K42" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L42" s="75"/>
+      <c r="L42" s="74"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="7" t="s">
@@ -8442,7 +8435,7 @@
       <c r="H43" s="9">
         <v>10</v>
       </c>
-      <c r="I43" s="40">
+      <c r="I43" s="39">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -8452,7 +8445,7 @@
       <c r="K43" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L43" s="75"/>
+      <c r="L43" s="74"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="7" t="s">
@@ -8476,7 +8469,7 @@
       <c r="H44" s="9">
         <v>5</v>
       </c>
-      <c r="I44" s="40">
+      <c r="I44" s="39">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -8486,7 +8479,7 @@
       <c r="K44" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L44" s="75"/>
+      <c r="L44" s="74"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="7" t="s">
@@ -8510,7 +8503,7 @@
       <c r="H45" s="9">
         <v>5</v>
       </c>
-      <c r="I45" s="40">
+      <c r="I45" s="39">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -8520,7 +8513,7 @@
       <c r="K45" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L45" s="75"/>
+      <c r="L45" s="74"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="7" t="s">
@@ -8547,7 +8540,7 @@
       <c r="H46" s="9">
         <v>3</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I46" s="39">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -8557,7 +8550,7 @@
       <c r="K46" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="L46" s="75"/>
+      <c r="L46" s="74"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="7" t="s">
@@ -8581,7 +8574,7 @@
       <c r="H47" s="9">
         <v>5</v>
       </c>
-      <c r="I47" s="40">
+      <c r="I47" s="39">
         <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
@@ -8591,55 +8584,55 @@
       <c r="K47" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="L47" s="76"/>
+      <c r="L47" s="75"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A48" s="80"/>
-      <c r="B48" s="61" t="s">
+      <c r="A48" s="79"/>
+      <c r="B48" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>265</v>
-      </c>
-      <c r="E48" s="63"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="64">
-        <v>1</v>
-      </c>
-      <c r="I48" s="66">
+      <c r="C48" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="E48" s="62"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="63">
+        <v>1</v>
+      </c>
+      <c r="I48" s="65">
         <f>'Hardware List'!F46</f>
         <v>226.46999999999997</v>
       </c>
-      <c r="J48" s="67"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="79"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="78"/>
     </row>
     <row r="49" spans="1:12" s="6" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="44" t="s">
+      <c r="A49" s="42"/>
+      <c r="B49" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="D49" s="44" t="s">
+      <c r="C49" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="D49" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="46">
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="45">
         <f>SUM(I24:I48)+I18</f>
         <v>1462.31</v>
       </c>
-      <c r="J49" s="44"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="41"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8683,15 +8676,15 @@
     <hyperlink ref="J11" r:id="rId35" xr:uid="{3ED6FC78-17EA-44FD-B607-926496CA6227}"/>
     <hyperlink ref="J12" r:id="rId36" xr:uid="{34AFF23F-EEEB-46E8-9558-765383CF7C14}"/>
     <hyperlink ref="J13" r:id="rId37" display="Color: 10pcs 2028" xr:uid="{BED46395-E185-4988-9D32-2CBED9A54CB5}"/>
-    <hyperlink ref="J15" r:id="rId38" display="3x GL: 350 - Color: MGN12 H" xr:uid="{C356FB3E-7AA9-44A7-AD42-F901E08A1E8E}"/>
-    <hyperlink ref="J16" r:id="rId39" display="2x GL: 400 - Color: MGN12 H" xr:uid="{B96D0DAE-EBA7-4655-9D2F-33B86426C95B}"/>
-    <hyperlink ref="J14" r:id="rId40" xr:uid="{8B46BDD2-E98B-4C9A-A160-CDE182501C27}"/>
-    <hyperlink ref="J20" r:id="rId41" display="Makersupplies Complete Kit" xr:uid="{99CD1EB2-A71D-4BEA-A810-8742818402F2}"/>
-    <hyperlink ref="J21" r:id="rId42" xr:uid="{3B3B38BE-12A4-4908-A7D0-77B2122C84CB}"/>
-    <hyperlink ref="J23" r:id="rId43" xr:uid="{71BEE32E-F3AD-4223-B448-5A57A36C1B0A}"/>
-    <hyperlink ref="J22" r:id="rId44" xr:uid="{450A89A3-621C-40C6-9BB5-9E2B5DED92E2}"/>
-    <hyperlink ref="J38" r:id="rId45" xr:uid="{D50E2F4E-5674-4F27-AE38-26EAD033D64F}"/>
-    <hyperlink ref="J17" r:id="rId46" xr:uid="{301731E6-2D64-47F2-A2EA-4A89B59A1F83}"/>
+    <hyperlink ref="J14" r:id="rId38" xr:uid="{8B46BDD2-E98B-4C9A-A160-CDE182501C27}"/>
+    <hyperlink ref="J20" r:id="rId39" display="Makersupplies Complete Kit" xr:uid="{99CD1EB2-A71D-4BEA-A810-8742818402F2}"/>
+    <hyperlink ref="J21" r:id="rId40" xr:uid="{3B3B38BE-12A4-4908-A7D0-77B2122C84CB}"/>
+    <hyperlink ref="J23" r:id="rId41" xr:uid="{71BEE32E-F3AD-4223-B448-5A57A36C1B0A}"/>
+    <hyperlink ref="J22" r:id="rId42" xr:uid="{450A89A3-621C-40C6-9BB5-9E2B5DED92E2}"/>
+    <hyperlink ref="J38" r:id="rId43" xr:uid="{D50E2F4E-5674-4F27-AE38-26EAD033D64F}"/>
+    <hyperlink ref="J15" r:id="rId44" display="3xGL: 350 - C: MGN12 H" xr:uid="{9DF24142-1128-4DA9-82BF-881DB0AE2B75}"/>
+    <hyperlink ref="J16" r:id="rId45" display="3xGL: 350 - C: MGN12 H" xr:uid="{3CC379EE-1A30-4A47-ADAE-0C1CC69A0BB9}"/>
+    <hyperlink ref="J17" r:id="rId46" display="3xGL: 350 - C: MGN12 H" xr:uid="{85E708C4-24F3-4615-975D-E526035BAA0A}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId47"/>

--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.1.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="604" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BF153A3-80A5-4976-B88D-EB2BD62778F6}"/>
+  <xr:revisionPtr revIDLastSave="628" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF2E1F17-4123-4526-B544-A3259973B9AA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="332">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -898,9 +898,6 @@
   </si>
   <si>
     <t>Hotend</t>
-  </si>
-  <si>
-    <t>Bondtech</t>
   </si>
   <si>
     <t>Motionparts</t>
@@ -1382,9 +1379,6 @@
     <t>1x Size: 2M ID 4MM OD 6MM</t>
   </si>
   <si>
-    <t>Color: 369 mm</t>
-  </si>
-  <si>
     <t>Antfox Store</t>
   </si>
   <si>
@@ -1451,9 +1445,6 @@
     <t>FABREEKO</t>
   </si>
   <si>
-    <t>HoneyBadger Stainless Steel Rails</t>
-  </si>
-  <si>
     <t>HoneyBadger Frame &amp; Bracket Parts</t>
   </si>
   <si>
@@ -1511,13 +1502,67 @@
     <t>2xMGN12H/400mm Medium PL</t>
   </si>
   <si>
-    <t>MGN 12h - Z Axis Medium PL</t>
-  </si>
-  <si>
-    <t>MGN 12h - Y Axis Medium PL</t>
-  </si>
-  <si>
-    <t>MGN 9h - X Axis Medium PL</t>
+    <r>
+      <t xml:space="preserve">MGN 12h-Z Axis. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NB! See note</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MGN 12h-Y Axis. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NB! See note</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MGN 9h-Z Axis. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NB! See note</t>
+    </r>
+  </si>
+  <si>
+    <t>HoneyBadger High Temp Rails</t>
+  </si>
+  <si>
+    <t>3xMGN 12H/350mm. NB! See note</t>
+  </si>
+  <si>
+    <t>2xMGN12H/400mm. NB! See note</t>
+  </si>
+  <si>
+    <t>1xMGN9H/400mm. NB! Seee note</t>
+  </si>
+  <si>
+    <t>BTT</t>
+  </si>
+  <si>
+    <t>Color: 339 mm</t>
   </si>
 </sst>
 </file>
@@ -2915,6 +2960,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:L59" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <tableColumns count="12">
@@ -3179,9 +3228,9 @@
   </sheetPr>
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:K13"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3202,7 +3251,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" hidden="1" thickBot="1">
       <c r="A1" s="115" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -3221,7 +3270,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>5</v>
@@ -3233,7 +3282,7 @@
       <c r="H2" s="44"/>
       <c r="I2" s="45">
         <f>I60</f>
-        <v>1862.6400000000003</v>
+        <v>2028.6400000000003</v>
       </c>
       <c r="J2" s="43"/>
       <c r="K2" s="50"/>
@@ -3294,7 +3343,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="21">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="F4" s="22">
         <v>1</v>
@@ -3308,8 +3357,8 @@
       <c r="I4" s="38">
         <v>8</v>
       </c>
-      <c r="J4" s="57" t="s">
-        <v>283</v>
+      <c r="J4" s="26" t="s">
+        <v>331</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>24</v>
@@ -3509,14 +3558,14 @@
         <v>20</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="69"/>
       <c r="M9" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N9" s="86"/>
     </row>
@@ -3531,7 +3580,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F10" s="9">
         <v>4</v>
@@ -3547,14 +3596,14 @@
         <v>40</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="71"/>
       <c r="M10" s="87" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N10" s="86"/>
     </row>
@@ -3563,13 +3612,13 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" t="s">
-        <v>326</v>
+        <v>149</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="E11">
         <v>350</v>
@@ -3588,14 +3637,14 @@
         <v>55.5</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L11" s="72"/>
       <c r="M11" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N11" s="86"/>
     </row>
@@ -3604,13 +3653,13 @@
         <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" t="s">
-        <v>327</v>
+        <v>149</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="E12">
         <v>400</v>
@@ -3629,14 +3678,14 @@
         <v>39</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L12" s="72"/>
       <c r="M12" s="87" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N12" s="86"/>
     </row>
@@ -3645,13 +3694,13 @@
         <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" t="s">
-        <v>328</v>
+        <v>149</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="E13">
         <v>400</v>
@@ -3670,10 +3719,10 @@
         <v>17.5</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L13" s="72"/>
       <c r="M13" s="2"/>
@@ -3690,14 +3739,14 @@
         <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
       <c r="I14" s="80">
         <f>G18+G19</f>
-        <v>374</v>
+        <v>535</v>
       </c>
       <c r="J14" s="55"/>
       <c r="K14" s="27"/>
@@ -3716,7 +3765,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="107" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E15" s="107"/>
       <c r="F15" s="108"/>
@@ -3725,11 +3774,11 @@
       <c r="I15" s="110"/>
       <c r="J15" s="111"/>
       <c r="K15" s="112" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L15" s="73"/>
       <c r="M15" s="116" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N15" s="117"/>
     </row>
@@ -3744,7 +3793,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="92">
@@ -3759,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K16" s="102" t="s">
         <v>43</v>
@@ -3779,7 +3828,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="92">
@@ -3794,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="69" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K17" s="102" t="s">
         <v>43</v>
@@ -3814,7 +3863,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="95" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E18" s="95"/>
       <c r="F18" s="96">
@@ -3829,10 +3878,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="68" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K18" s="105" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L18" s="69"/>
       <c r="M18" s="116"/>
@@ -3843,20 +3892,20 @@
         <v>46</v>
       </c>
       <c r="B19" s="99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="99" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="E19" s="99"/>
       <c r="F19" s="100">
         <v>1</v>
       </c>
       <c r="G19" s="101">
-        <v>199</v>
+        <v>360</v>
       </c>
       <c r="H19" s="100"/>
       <c r="I19" s="104">
@@ -3864,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="113" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K19" s="103" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L19" s="69"/>
       <c r="M19" s="116"/>
@@ -3884,7 +3933,7 @@
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E20">
         <v>410</v>
@@ -3903,7 +3952,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>38</v>
@@ -3923,7 +3972,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E21">
         <v>230</v>
@@ -3942,7 +3991,7 @@
         <v>35</v>
       </c>
       <c r="J21" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K21" s="41" t="s">
         <v>38</v>
@@ -3987,7 +4036,7 @@
       </c>
       <c r="L22" s="74"/>
       <c r="M22" s="116" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N22" s="117"/>
     </row>
@@ -4002,7 +4051,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E23">
         <v>330</v>
@@ -4021,13 +4070,13 @@
         <v>46</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="L23" s="72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M23" s="116"/>
       <c r="N23" s="117"/>
@@ -4102,7 +4151,7 @@
       </c>
       <c r="L25" s="74"/>
       <c r="M25" s="116" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N25" s="117"/>
     </row>
@@ -4117,7 +4166,7 @@
         <v>110</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F26" s="9">
         <v>1</v>
@@ -4133,13 +4182,13 @@
         <v>145</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>111</v>
       </c>
       <c r="L26" s="72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M26" s="116"/>
       <c r="N26" s="117"/>
@@ -4227,7 +4276,7 @@
         <v>120</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E29">
         <v>300</v>
@@ -4246,13 +4295,13 @@
         <v>78.39</v>
       </c>
       <c r="J29" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L29" s="72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M29" s="89"/>
       <c r="N29" s="86"/>
@@ -4284,10 +4333,10 @@
         <v>52</v>
       </c>
       <c r="J30" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L30" s="72" t="s">
         <v>122</v>
@@ -4306,7 +4355,7 @@
         <v>124</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
@@ -4322,7 +4371,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>125</v>
@@ -4339,10 +4388,10 @@
         <v>109</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" t="s">
         <v>189</v>
-      </c>
-      <c r="D32" t="s">
-        <v>190</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
@@ -4358,13 +4407,13 @@
         <v>2</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K32" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L32" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M32" s="89"/>
       <c r="N32" s="86"/>
@@ -4380,7 +4429,7 @@
         <v>127</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
@@ -4396,10 +4445,10 @@
         <v>40</v>
       </c>
       <c r="J33" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K33" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L33" s="74"/>
       <c r="M33" s="89"/>
@@ -4413,10 +4462,10 @@
         <v>126</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" t="s">
         <v>218</v>
-      </c>
-      <c r="D34" t="s">
-        <v>219</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -4432,7 +4481,7 @@
         <v>13.5</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K34" s="41" t="s">
         <v>119</v>
@@ -4452,26 +4501,26 @@
         <v>126</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
       </c>
       <c r="G35" s="10">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H35" s="9">
         <v>1</v>
       </c>
       <c r="I35" s="39">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J35" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>128</v>
+        <v>318</v>
+      </c>
+      <c r="K35" s="81" t="s">
+        <v>330</v>
       </c>
       <c r="L35" s="74"/>
       <c r="M35" s="89"/>
@@ -4488,7 +4537,7 @@
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -4504,10 +4553,10 @@
         <v>3.75</v>
       </c>
       <c r="J36" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L36" s="75"/>
       <c r="M36" s="89"/>
@@ -4524,7 +4573,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F37" s="9">
         <v>2</v>
@@ -4540,10 +4589,10 @@
         <v>10</v>
       </c>
       <c r="J37" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L37" s="75"/>
       <c r="M37" s="89"/>
@@ -4626,13 +4675,13 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" t="s">
         <v>130</v>
-      </c>
-      <c r="D40" t="s">
-        <v>131</v>
       </c>
       <c r="F40" s="9">
         <v>8</v>
@@ -4648,7 +4697,7 @@
         <v>59</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>119</v>
@@ -4662,13 +4711,13 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" t="s">
         <v>133</v>
-      </c>
-      <c r="D41" t="s">
-        <v>134</v>
       </c>
       <c r="F41" s="9">
         <v>10</v>
@@ -4684,10 +4733,10 @@
         <v>41</v>
       </c>
       <c r="J41" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="L41" s="74"/>
       <c r="M41" s="89"/>
@@ -4698,13 +4747,13 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F42" s="9">
         <v>5</v>
@@ -4720,10 +4769,10 @@
         <v>30</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L42" s="74"/>
       <c r="M42" s="89"/>
@@ -4734,13 +4783,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" t="s">
         <v>139</v>
-      </c>
-      <c r="D43" t="s">
-        <v>140</v>
       </c>
       <c r="F43" s="9">
         <v>5</v>
@@ -4756,10 +4805,10 @@
         <v>20</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L43" s="74"/>
       <c r="M43" s="89"/>
@@ -4770,13 +4819,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" t="s">
         <v>142</v>
-      </c>
-      <c r="D44" t="s">
-        <v>143</v>
       </c>
       <c r="E44">
         <v>200</v>
@@ -4795,10 +4844,10 @@
         <v>48</v>
       </c>
       <c r="J44" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="L44" s="74"/>
       <c r="M44" s="89"/>
@@ -4809,13 +4858,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" t="s">
         <v>146</v>
-      </c>
-      <c r="D45" t="s">
-        <v>147</v>
       </c>
       <c r="F45" s="9">
         <v>5</v>
@@ -4831,10 +4880,10 @@
         <v>72.5</v>
       </c>
       <c r="J45" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="L45" s="75"/>
       <c r="M45" s="89"/>
@@ -4842,16 +4891,16 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" t="s">
         <v>153</v>
       </c>
-      <c r="B46" t="s">
-        <v>154</v>
-      </c>
       <c r="C46" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F46" s="9">
         <v>5</v>
@@ -4867,10 +4916,10 @@
         <v>60</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K46" s="82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L46" s="76"/>
       <c r="M46" s="89"/>
@@ -4878,16 +4927,16 @@
     </row>
     <row r="47" spans="1:14" ht="14.45" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="D47" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F47" s="9">
         <v>5</v>
@@ -4903,10 +4952,10 @@
         <v>125</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K47" s="82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L47" s="76"/>
       <c r="M47" s="89"/>
@@ -4914,16 +4963,16 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C48" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>210</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>211</v>
       </c>
       <c r="E48">
         <v>300</v>
@@ -4942,10 +4991,10 @@
         <v>50</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L48" s="75"/>
       <c r="M48" s="89"/>
@@ -4953,16 +5002,16 @@
     </row>
     <row r="49" spans="1:14" ht="14.45" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" t="s">
         <v>277</v>
-      </c>
-      <c r="D49" t="s">
-        <v>278</v>
       </c>
       <c r="F49" s="9">
         <v>5</v>
@@ -4978,10 +5027,10 @@
         <v>16.149999999999999</v>
       </c>
       <c r="J49" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L49" s="75"/>
       <c r="M49" s="89"/>
@@ -4989,16 +5038,16 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
         <v>109</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" t="s">
         <v>166</v>
-      </c>
-      <c r="D50" t="s">
-        <v>167</v>
       </c>
       <c r="F50" s="9">
         <v>1</v>
@@ -5014,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="J50" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="K50" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="L50" s="75"/>
       <c r="M50" s="89"/>
@@ -5025,16 +5074,16 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s">
         <v>109</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F51" s="9">
         <v>2</v>
@@ -5050,10 +5099,10 @@
         <v>24</v>
       </c>
       <c r="J51" s="114" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L51" s="75"/>
       <c r="M51" s="89"/>
@@ -5061,7 +5110,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
         <v>109</v>
@@ -5070,7 +5119,7 @@
         <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F52" s="9">
         <v>1</v>
@@ -5086,10 +5135,10 @@
         <v>12</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L52" s="75"/>
       <c r="M52" s="89"/>
@@ -5097,7 +5146,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
         <v>109</v>
@@ -5106,7 +5155,7 @@
         <v>124</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F53" s="9">
         <v>1</v>
@@ -5123,10 +5172,10 @@
         <v>3.96</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L53" s="75"/>
       <c r="M53" s="89"/>
@@ -5134,16 +5183,16 @@
     </row>
     <row r="54" spans="1:14" ht="14.45" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="D54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F54" s="9">
         <v>1</v>
@@ -5159,10 +5208,10 @@
         <v>3.72</v>
       </c>
       <c r="J54" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K54" s="81" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L54" s="75"/>
       <c r="M54" s="89"/>
@@ -5170,16 +5219,16 @@
     </row>
     <row r="55" spans="1:14" ht="14.45" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F55" s="9">
         <v>1</v>
@@ -5195,10 +5244,10 @@
         <v>4</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L55" s="75"/>
       <c r="M55" s="89"/>
@@ -5206,16 +5255,16 @@
     </row>
     <row r="56" spans="1:14" ht="14.45" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>110</v>
       </c>
       <c r="D56" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F56" s="9">
         <v>1</v>
@@ -5231,10 +5280,10 @@
         <v>3</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L56" s="75"/>
       <c r="M56" s="89"/>
@@ -5242,16 +5291,16 @@
     </row>
     <row r="57" spans="1:14" ht="14.45" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F57" s="9">
         <v>1</v>
@@ -5267,10 +5316,10 @@
         <v>3</v>
       </c>
       <c r="J57" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L57" s="75"/>
       <c r="M57" s="89"/>
@@ -5278,16 +5327,16 @@
     </row>
     <row r="58" spans="1:14" ht="14.45" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="D58" t="s">
         <v>195</v>
-      </c>
-      <c r="D58" t="s">
-        <v>196</v>
       </c>
       <c r="F58" s="9">
         <v>1</v>
@@ -5303,10 +5352,10 @@
         <v>21.5</v>
       </c>
       <c r="J58" s="47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L58" s="77"/>
       <c r="M58" s="89"/>
@@ -5318,10 +5367,10 @@
         <v>65</v>
       </c>
       <c r="C59" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D59" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E59" s="62"/>
       <c r="F59" s="63"/>
@@ -5345,7 +5394,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D60" s="43" t="s">
         <v>5</v>
@@ -5356,7 +5405,7 @@
       <c r="H60" s="44"/>
       <c r="I60" s="45">
         <f>SUM(I20:I59)+I14</f>
-        <v>1862.6400000000003</v>
+        <v>2028.6400000000003</v>
       </c>
       <c r="J60" s="43"/>
       <c r="K60" s="50"/>
@@ -5417,7 +5466,7 @@
     <hyperlink ref="J36" r:id="rId42" xr:uid="{6B0C3554-C92C-477C-968B-C3A56DEE5BB2}"/>
     <hyperlink ref="J37" r:id="rId43" xr:uid="{230B31B2-E3E9-4D33-8792-EA389633978B}"/>
     <hyperlink ref="J21" r:id="rId44" xr:uid="{AE44EAD7-69DD-4806-9E2F-C1401214B95A}"/>
-    <hyperlink ref="J4" r:id="rId45" xr:uid="{DEB61E4F-1486-491A-838D-61337A0DB5B3}"/>
+    <hyperlink ref="J4" r:id="rId45" display="Color: 369 mm" xr:uid="{DEB61E4F-1486-491A-838D-61337A0DB5B3}"/>
     <hyperlink ref="J5" r:id="rId46" xr:uid="{B0B2353F-D76B-49D2-92E2-924AA7C3940B}"/>
     <hyperlink ref="J6" r:id="rId47" xr:uid="{A49E22B6-E552-4BE6-8729-184F520A838F}"/>
     <hyperlink ref="J7" r:id="rId48" xr:uid="{47004657-0518-4245-B471-B34B5125E399}"/>
@@ -5476,7 +5525,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickBot="1">
       <c r="A1" s="115" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -5562,10 +5611,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
         <v>170</v>
-      </c>
-      <c r="B4" t="s">
-        <v>171</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -5582,10 +5631,10 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="52"/>
@@ -5652,7 +5701,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>50</v>
@@ -5669,7 +5718,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -5686,7 +5735,7 @@
         <v>0.49</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>50</v>
@@ -5705,7 +5754,7 @@
         <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="9">
         <v>31</v>
@@ -5721,23 +5770,23 @@
         <v>0.74</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J8" s="51"/>
       <c r="L8" s="86"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
@@ -5752,7 +5801,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>50</v>
@@ -5762,7 +5811,7 @@
       </c>
       <c r="J9" s="51"/>
       <c r="K9" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L9" s="86"/>
     </row>
@@ -5797,7 +5846,7 @@
         <v>7380</v>
       </c>
       <c r="K10" s="87" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L10" s="86"/>
     </row>
@@ -5806,7 +5855,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -5821,7 +5870,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>50</v>
@@ -5833,7 +5882,7 @@
         <v>10642</v>
       </c>
       <c r="K11" s="87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L11" s="86"/>
     </row>
@@ -5868,7 +5917,7 @@
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="87" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L12" s="86"/>
     </row>
@@ -5910,7 +5959,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C14">
         <v>29</v>
@@ -5925,7 +5974,7 @@
         <v>1.07</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H14" s="41" t="s">
         <v>50</v>
@@ -5970,7 +6019,7 @@
         <v>7380</v>
       </c>
       <c r="K15" s="116" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L15" s="117"/>
     </row>
@@ -5979,7 +6028,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -5995,7 +6044,7 @@
         <v>1.5</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>50</v>
@@ -6009,10 +6058,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
         <v>175</v>
-      </c>
-      <c r="B17" t="s">
-        <v>176</v>
       </c>
       <c r="C17" s="9">
         <v>4</v>
@@ -6029,7 +6078,7 @@
         <v>3.27</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>50</v>
@@ -6041,10 +6090,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="9">
         <v>4</v>
@@ -6061,7 +6110,7 @@
         <v>2.57</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>50</v>
@@ -6069,7 +6118,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="51"/>
       <c r="K18" s="116" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L18" s="117"/>
     </row>
@@ -6094,7 +6143,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>79</v>
@@ -6109,7 +6158,7 @@
         <v>70</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6125,7 +6174,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>79</v>
@@ -6168,7 +6217,7 @@
         <v>4032</v>
       </c>
       <c r="K21" s="116" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L21" s="117"/>
     </row>
@@ -6177,7 +6226,7 @@
         <v>66</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -6317,7 +6366,7 @@
         <v>70</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -6333,7 +6382,7 @@
         <v>3.28</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>50</v>
@@ -6451,7 +6500,7 @@
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C30">
         <v>72</v>
@@ -6479,10 +6528,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -6499,10 +6548,10 @@
         <v>3.62</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="51"/>
@@ -6615,7 +6664,7 @@
         <v>70</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -6630,7 +6679,7 @@
         <v>1.64</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>79</v>
@@ -6680,7 +6729,7 @@
         <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -6696,7 +6745,7 @@
         <v>6.08</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>50</v>
@@ -6729,10 +6778,10 @@
         <v>16</v>
       </c>
       <c r="G38" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="51"/>
@@ -6744,7 +6793,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -6759,10 +6808,10 @@
         <v>9.5</v>
       </c>
       <c r="G39" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="H39" s="41" t="s">
         <v>253</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>254</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="51"/>
@@ -6774,7 +6823,7 @@
         <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -6790,7 +6839,7 @@
         <v>4.5</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>60</v>
@@ -6805,7 +6854,7 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C41" s="9">
         <v>6</v>
@@ -6814,16 +6863,16 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F41" s="39">
         <v>9.1999999999999993</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="51"/>
@@ -6866,7 +6915,7 @@
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -6882,10 +6931,10 @@
         <v>24</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="52"/>
@@ -6897,7 +6946,7 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -6914,10 +6963,10 @@
         <v>5.01</v>
       </c>
       <c r="G44" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="H44" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>163</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="52"/>
@@ -6926,10 +6975,10 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" t="s">
         <v>173</v>
-      </c>
-      <c r="B45" t="s">
-        <v>174</v>
       </c>
       <c r="C45" s="9">
         <v>1</v>
@@ -6946,10 +6995,10 @@
         <v>1.72</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="51"/>
@@ -7058,7 +7107,7 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -7081,7 +7130,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27">
       <c r="A1" s="115" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -7102,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7114,7 +7163,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -7125,7 +7174,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -7135,7 +7184,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -7145,7 +7194,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>5</v>
@@ -7156,7 +7205,7 @@
       <c r="H6" s="44"/>
       <c r="I6" s="45">
         <f>I49</f>
-        <v>1462.31</v>
+        <v>1628.31</v>
       </c>
       <c r="J6" s="43"/>
       <c r="K6" s="50"/>
@@ -7214,7 +7263,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="21">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="F8" s="22">
         <v>1</v>
@@ -7229,7 +7278,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>24</v>
@@ -7412,7 +7461,7 @@
         <v>25</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>24</v>
@@ -7430,7 +7479,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F14" s="9">
         <v>4</v>
@@ -7446,7 +7495,7 @@
         <v>40</v>
       </c>
       <c r="J14" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>24</v>
@@ -7458,13 +7507,13 @@
         <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" t="s">
-        <v>326</v>
+        <v>149</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>323</v>
       </c>
       <c r="E15">
         <v>350</v>
@@ -7483,10 +7532,10 @@
         <v>55.5</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L15" s="72"/>
     </row>
@@ -7495,13 +7544,13 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" t="s">
-        <v>327</v>
+        <v>149</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="E16">
         <v>400</v>
@@ -7520,10 +7569,10 @@
         <v>39</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L16" s="72"/>
     </row>
@@ -7532,13 +7581,13 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" t="s">
-        <v>328</v>
+        <v>149</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="E17">
         <v>400</v>
@@ -7557,10 +7606,10 @@
         <v>17.5</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L17" s="72"/>
       <c r="M17" s="2"/>
@@ -7576,14 +7625,14 @@
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="9"/>
       <c r="I18" s="80">
         <f>G22+G23</f>
-        <v>374</v>
+        <v>535</v>
       </c>
       <c r="J18" s="55"/>
       <c r="K18" s="27"/>
@@ -7600,7 +7649,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="107" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E19" s="107"/>
       <c r="F19" s="108"/>
@@ -7609,7 +7658,7 @@
       <c r="I19" s="110"/>
       <c r="J19" s="111"/>
       <c r="K19" s="112" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L19" s="73"/>
     </row>
@@ -7624,7 +7673,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="92">
@@ -7639,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="69" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K20" s="102" t="s">
         <v>43</v>
@@ -7657,7 +7706,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="92">
@@ -7672,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K21" s="102" t="s">
         <v>43</v>
@@ -7690,7 +7739,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="95" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E22" s="95"/>
       <c r="F22" s="96">
@@ -7705,10 +7754,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K22" s="105" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L22" s="69"/>
     </row>
@@ -7717,20 +7766,20 @@
         <v>46</v>
       </c>
       <c r="B23" s="99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="99" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="E23" s="99"/>
       <c r="F23" s="100">
         <v>1</v>
       </c>
       <c r="G23" s="101">
-        <v>199</v>
+        <v>360</v>
       </c>
       <c r="H23" s="100"/>
       <c r="I23" s="104">
@@ -7738,10 +7787,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="113" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K23" s="103" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L23" s="69"/>
     </row>
@@ -7775,7 +7824,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>38</v>
@@ -7829,7 +7878,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E26">
         <v>330</v>
@@ -7848,13 +7897,13 @@
         <v>46</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -7936,7 +7985,7 @@
         <v>110</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
@@ -7952,13 +8001,13 @@
         <v>145</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>111</v>
       </c>
       <c r="L29" s="72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -8040,7 +8089,7 @@
         <v>120</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E32">
         <v>300</v>
@@ -8059,13 +8108,13 @@
         <v>78.39</v>
       </c>
       <c r="J32" s="48" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L32" s="72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -8095,10 +8144,10 @@
         <v>26</v>
       </c>
       <c r="J33" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L33" s="72" t="s">
         <v>122</v>
@@ -8115,7 +8164,7 @@
         <v>124</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -8131,7 +8180,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>125</v>
@@ -8146,10 +8195,10 @@
         <v>109</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" t="s">
         <v>189</v>
-      </c>
-      <c r="D35" t="s">
-        <v>190</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
@@ -8165,13 +8214,13 @@
         <v>2</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K35" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L35" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -8185,7 +8234,7 @@
         <v>127</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -8201,10 +8250,10 @@
         <v>40</v>
       </c>
       <c r="J36" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K36" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L36" s="74"/>
     </row>
@@ -8216,10 +8265,10 @@
         <v>126</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" t="s">
         <v>218</v>
-      </c>
-      <c r="D37" t="s">
-        <v>219</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
@@ -8235,7 +8284,7 @@
         <v>13.5</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K37" s="41" t="s">
         <v>119</v>
@@ -8253,26 +8302,26 @@
         <v>126</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F38" s="9">
         <v>1</v>
       </c>
       <c r="G38" s="10">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H38" s="9">
         <v>1</v>
       </c>
       <c r="I38" s="39">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J38" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>128</v>
+        <v>318</v>
+      </c>
+      <c r="K38" s="81" t="s">
+        <v>330</v>
       </c>
       <c r="L38" s="74"/>
       <c r="M38" s="89"/>
@@ -8288,7 +8337,7 @@
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
@@ -8304,10 +8353,10 @@
         <v>3.75</v>
       </c>
       <c r="J39" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L39" s="75"/>
     </row>
@@ -8384,13 +8433,13 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" t="s">
         <v>130</v>
-      </c>
-      <c r="D42" t="s">
-        <v>131</v>
       </c>
       <c r="F42" s="9">
         <v>8</v>
@@ -8406,7 +8455,7 @@
         <v>59</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>119</v>
@@ -8418,13 +8467,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
         <v>133</v>
-      </c>
-      <c r="D43" t="s">
-        <v>134</v>
       </c>
       <c r="F43" s="9">
         <v>10</v>
@@ -8440,10 +8489,10 @@
         <v>41</v>
       </c>
       <c r="J43" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="L43" s="74"/>
     </row>
@@ -8452,13 +8501,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F44" s="9">
         <v>5</v>
@@ -8474,10 +8523,10 @@
         <v>30</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L44" s="74"/>
     </row>
@@ -8486,13 +8535,13 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" t="s">
         <v>139</v>
-      </c>
-      <c r="D45" t="s">
-        <v>140</v>
       </c>
       <c r="F45" s="9">
         <v>5</v>
@@ -8508,10 +8557,10 @@
         <v>20</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L45" s="74"/>
     </row>
@@ -8520,13 +8569,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" t="s">
         <v>142</v>
-      </c>
-      <c r="D46" t="s">
-        <v>143</v>
       </c>
       <c r="E46">
         <v>200</v>
@@ -8545,10 +8594,10 @@
         <v>48</v>
       </c>
       <c r="J46" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="L46" s="74"/>
     </row>
@@ -8557,13 +8606,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
         <v>146</v>
-      </c>
-      <c r="D47" t="s">
-        <v>147</v>
       </c>
       <c r="F47" s="9">
         <v>5</v>
@@ -8579,10 +8628,10 @@
         <v>72.5</v>
       </c>
       <c r="J47" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="L47" s="75"/>
     </row>
@@ -8592,10 +8641,10 @@
         <v>65</v>
       </c>
       <c r="C48" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D48" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E48" s="62"/>
       <c r="F48" s="63"/>
@@ -8617,7 +8666,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D49" s="43" t="s">
         <v>5</v>
@@ -8628,7 +8677,7 @@
       <c r="H49" s="44"/>
       <c r="I49" s="45">
         <f>SUM(I24:I48)+I18</f>
-        <v>1462.31</v>
+        <v>1628.31</v>
       </c>
       <c r="J49" s="43"/>
       <c r="K49" s="50"/>
@@ -8670,7 +8719,7 @@
     <hyperlink ref="E3" r:id="rId29" xr:uid="{8D7BE965-D64F-4EF6-AB85-6D60325E0F14}"/>
     <hyperlink ref="E4" r:id="rId30" xr:uid="{1AB1BA1F-E652-4A59-AFD9-CF100F7A0675}"/>
     <hyperlink ref="E5" r:id="rId31" xr:uid="{E1E6DD43-4F3E-40D4-869F-6509B89AF289}"/>
-    <hyperlink ref="J8" r:id="rId32" xr:uid="{EC02321E-B7C3-4FC1-B874-04DFA25238EB}"/>
+    <hyperlink ref="J8" r:id="rId32" display="Color: 369 mm" xr:uid="{EC02321E-B7C3-4FC1-B874-04DFA25238EB}"/>
     <hyperlink ref="J9" r:id="rId33" xr:uid="{75B54B15-A33C-4E87-8110-F508CB5C1277}"/>
     <hyperlink ref="J10" r:id="rId34" xr:uid="{83361321-C27C-4029-97C6-080CDFE55588}"/>
     <hyperlink ref="J11" r:id="rId35" xr:uid="{3ED6FC78-17EA-44FD-B607-926496CA6227}"/>
@@ -8687,7 +8736,7 @@
     <hyperlink ref="J17" r:id="rId46" display="3xGL: 350 - C: MGN12 H" xr:uid="{85E708C4-24F3-4615-975D-E526035BAA0A}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId47"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId47"/>
   <drawing r:id="rId48"/>
   <legacyDrawing r:id="rId49"/>
   <tableParts count="1">

--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.1.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="628" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF2E1F17-4123-4526-B544-A3259973B9AA}"/>
+  <xr:revisionPtr revIDLastSave="644" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A6C1CA3-2BB1-461F-8D55-6326C5318E65}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hardware List'!$A$3:$J$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Valkyrie Stage-0'!$A$7:$K$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$3:$K$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$3:$K$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="J21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="L24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{C0C1BBC7-2BC8-49F9-9DF3-A86897191E49}">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{C0C1BBC7-2BC8-49F9-9DF3-A86897191E49}">
       <text>
         <r>
           <rPr>
@@ -219,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J44" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="J42" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="332">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -1062,26 +1062,6 @@
     <t>Thermal Fuse 95C</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="serif"/>
-      </rPr>
-      <t>1x 15A - 95C</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="serif"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>1x 200PCS Size: 6.5x5x1mm</t>
   </si>
   <si>
@@ -1118,12 +1098,6 @@
     <t>Desiccant</t>
   </si>
   <si>
-    <t>Silica Gel</t>
-  </si>
-  <si>
-    <t>1x 500g Orange Desiicant</t>
-  </si>
-  <si>
     <t>M3 WASHER</t>
   </si>
   <si>
@@ -1181,9 +1155,6 @@
     <t xml:space="preserve">YEKMLCO </t>
   </si>
   <si>
-    <t>BGS</t>
-  </si>
-  <si>
     <t>Thermistor</t>
   </si>
   <si>
@@ -1340,13 +1311,7 @@
     <t>1xESP32-V1 SHIELD 30P</t>
   </si>
   <si>
-    <t>1xAHT25+AHT21 Sensor</t>
-  </si>
-  <si>
     <t>HX711 + 5kg Load cell</t>
-  </si>
-  <si>
-    <t>AHT25 Humididty + Temp Sensor</t>
   </si>
   <si>
     <t>ESP32 WiFi Board</t>
@@ -1563,6 +1528,32 @@
   </si>
   <si>
     <t>Color: 339 mm</t>
+  </si>
+  <si>
+    <t>DHT22 Humididty + Temp Sensor</t>
+  </si>
+  <si>
+    <t>1xDHT22 Sensor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="serif"/>
+      </rPr>
+      <t xml:space="preserve">1x 15A - 95C </t>
+    </r>
+  </si>
+  <si>
+    <t>YX EC</t>
+  </si>
+  <si>
+    <t>Calsium Chloride</t>
+  </si>
+  <si>
+    <t>Locally</t>
   </si>
 </sst>
 </file>
@@ -1621,18 +1612,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="serif"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="serif"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1730,6 +1709,18 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="serif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1965,16 +1956,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1997,16 +1988,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2021,10 +2012,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2033,65 +2024,65 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2106,7 +2097,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2127,18 +2118,18 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2167,7 +2158,7 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2176,17 +2167,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2822,7 +2825,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>35718</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1883835" cy="1059656"/>
@@ -2965,7 +2968,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:L59" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:L57" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="System" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="40"/>
@@ -3226,7 +3229,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -3250,27 +3253,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" hidden="1" thickBot="1">
-      <c r="A1" s="115" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
+      <c r="A1" s="114" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>5</v>
@@ -3280,9 +3283,9 @@
       <c r="F2" s="43"/>
       <c r="G2" s="43"/>
       <c r="H2" s="44"/>
-      <c r="I2" s="45">
-        <f>I60</f>
-        <v>2028.6400000000003</v>
+      <c r="I2" s="45" t="e">
+        <f>I58</f>
+        <v>#REF!</v>
       </c>
       <c r="J2" s="43"/>
       <c r="K2" s="50"/>
@@ -3358,7 +3361,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>24</v>
@@ -3396,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="39">
-        <f t="shared" ref="I5:I25" si="0">H5*G5</f>
+        <f t="shared" ref="I5:I23" si="0">H5*G5</f>
         <v>9.5</v>
       </c>
       <c r="J5" s="25" t="s">
@@ -3558,14 +3561,14 @@
         <v>20</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="69"/>
       <c r="M9" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="N9" s="86"/>
     </row>
@@ -3580,7 +3583,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F10" s="9">
         <v>4</v>
@@ -3596,14 +3599,14 @@
         <v>40</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="71"/>
       <c r="M10" s="87" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="N10" s="86"/>
     </row>
@@ -3618,7 +3621,7 @@
         <v>149</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E11">
         <v>350</v>
@@ -3637,14 +3640,14 @@
         <v>55.5</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L11" s="72"/>
       <c r="M11" s="87" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N11" s="86"/>
     </row>
@@ -3659,7 +3662,7 @@
         <v>149</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E12">
         <v>400</v>
@@ -3678,14 +3681,14 @@
         <v>39</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L12" s="72"/>
       <c r="M12" s="87" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="N12" s="86"/>
     </row>
@@ -3700,7 +3703,7 @@
         <v>149</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E13">
         <v>400</v>
@@ -3719,10 +3722,10 @@
         <v>17.5</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L13" s="72"/>
       <c r="M13" s="2"/>
@@ -3739,14 +3742,14 @@
         <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="80">
-        <f>G18+G19</f>
-        <v>535</v>
+      <c r="I14" s="80" t="e">
+        <f>#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J14" s="55"/>
       <c r="K14" s="27"/>
@@ -3765,7 +3768,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="107" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E15" s="107"/>
       <c r="F15" s="108"/>
@@ -3774,233 +3777,244 @@
       <c r="I15" s="110"/>
       <c r="J15" s="111"/>
       <c r="K15" s="112" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L15" s="73"/>
-      <c r="M15" s="116" t="s">
-        <v>295</v>
-      </c>
-      <c r="N15" s="117"/>
+      <c r="M15" s="115" t="s">
+        <v>289</v>
+      </c>
+      <c r="N15" s="116"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="92">
-        <v>1</v>
-      </c>
-      <c r="G16" s="93">
+      <c r="D16" s="119" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120">
+        <v>1</v>
+      </c>
+      <c r="G16" s="121">
         <v>720</v>
       </c>
-      <c r="H16" s="92"/>
+      <c r="H16" s="120"/>
       <c r="I16" s="39">
         <f>H16*G16</f>
         <v>0</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K16" s="102" t="s">
         <v>43</v>
       </c>
       <c r="L16" s="69"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="117"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="116"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="92">
-        <v>1</v>
-      </c>
-      <c r="G17" s="93">
+      <c r="D17" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100">
+        <v>1</v>
+      </c>
+      <c r="G17" s="101">
         <v>577</v>
       </c>
-      <c r="H17" s="92"/>
-      <c r="I17" s="39">
-        <f t="shared" ref="I17:I19" si="1">H17*G17</f>
+      <c r="H17" s="100"/>
+      <c r="I17" s="104">
+        <f t="shared" ref="I17" si="1">H17*G17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="69" t="s">
-        <v>306</v>
-      </c>
-      <c r="K17" s="102" t="s">
+      <c r="J17" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="K17" s="103" t="s">
         <v>43</v>
       </c>
       <c r="L17" s="69"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="117"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="94" t="s">
+      <c r="M17" s="115"/>
+      <c r="N17" s="116"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="95" t="s">
+      <c r="C18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18">
+        <v>410</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>20</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+      <c r="I18" s="39">
+        <f>H18*G18</f>
+        <v>20</v>
+      </c>
+      <c r="J18" s="117" t="s">
+        <v>223</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="74"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="116"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19">
+        <v>230</v>
+      </c>
+      <c r="F19" s="9">
+        <v>4</v>
+      </c>
+      <c r="G19" s="10">
+        <v>17.5</v>
+      </c>
+      <c r="H19" s="9">
+        <v>2</v>
+      </c>
+      <c r="I19" s="39">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D18" s="95" t="s">
-        <v>304</v>
-      </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96">
-        <v>1</v>
-      </c>
-      <c r="G18" s="97">
-        <v>175</v>
-      </c>
-      <c r="H18" s="96"/>
-      <c r="I18" s="38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="68" t="s">
-        <v>307</v>
-      </c>
-      <c r="K18" s="105" t="s">
-        <v>303</v>
-      </c>
-      <c r="L18" s="69"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="117"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="99" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="99" t="s">
-        <v>326</v>
-      </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="100">
-        <v>1</v>
-      </c>
-      <c r="G19" s="101">
-        <v>360</v>
-      </c>
-      <c r="H19" s="100"/>
-      <c r="I19" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="113" t="s">
-        <v>308</v>
-      </c>
-      <c r="K19" s="103" t="s">
-        <v>303</v>
-      </c>
-      <c r="L19" s="69"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="117"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="J19" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="74"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="86"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="E20">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="F20" s="9">
-        <v>1</v>
+        <v>1225</v>
       </c>
       <c r="G20" s="10">
-        <v>20</v>
+        <v>0.08</v>
       </c>
       <c r="H20" s="9">
-        <v>1</v>
+        <v>1225</v>
       </c>
       <c r="I20" s="39">
-        <f>H20*G20</f>
-        <v>20</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>227</v>
+        <v>104</v>
+      </c>
+      <c r="J20" s="117" t="s">
+        <v>42</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L20" s="74"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="117"/>
+      <c r="M20" s="115" t="s">
+        <v>290</v>
+      </c>
+      <c r="N20" s="116"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>36</v>
+      <c r="C21" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="E21">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="F21" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21" s="10">
-        <v>17.5</v>
+        <v>46</v>
       </c>
       <c r="H21" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="39">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="J21" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="K21" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" s="74"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="86"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1">
+        <v>46</v>
+      </c>
+      <c r="J21" s="117" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" s="115"/>
+      <c r="N21" s="116"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -4008,39 +4022,35 @@
         <v>21</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22">
-        <v>350</v>
+        <v>53</v>
       </c>
       <c r="F22" s="9">
-        <v>1225</v>
+        <v>6</v>
       </c>
       <c r="G22" s="10">
-        <v>0.08</v>
+        <v>3</v>
       </c>
       <c r="H22" s="9">
-        <v>1225</v>
+        <v>2</v>
       </c>
       <c r="I22" s="39">
-        <v>104</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>42</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J22" s="117" t="s">
+        <v>54</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L22" s="74"/>
-      <c r="M22" s="116" t="s">
-        <v>296</v>
-      </c>
-      <c r="N22" s="117"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="M22" s="89"/>
+      <c r="N22" s="86"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
@@ -4048,112 +4058,109 @@
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="E23">
-        <v>330</v>
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
       </c>
       <c r="F23" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="10">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="H23" s="9">
         <v>1</v>
       </c>
       <c r="I23" s="39">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>221</v>
+        <v>3</v>
+      </c>
+      <c r="J23" s="117" t="s">
+        <v>57</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="72" t="s">
-        <v>220</v>
-      </c>
-      <c r="M23" s="116"/>
-      <c r="N23" s="117"/>
+        <v>58</v>
+      </c>
+      <c r="L23" s="74"/>
+      <c r="M23" s="115" t="s">
+        <v>291</v>
+      </c>
+      <c r="N23" s="116"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
+        <v>110</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>226</v>
       </c>
       <c r="F24" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G24" s="10">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="H24" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="39">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>54</v>
+        <f t="shared" ref="I24:I50" si="2">H24*G24</f>
+        <v>145</v>
+      </c>
+      <c r="J24" s="117" t="s">
+        <v>225</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" s="74"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="86"/>
-    </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1">
+        <v>111</v>
+      </c>
+      <c r="L24" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" s="115"/>
+      <c r="N24" s="116"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F25" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25" s="10">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H25" s="9">
         <v>1</v>
       </c>
       <c r="I25" s="39">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="J25" s="117" t="s">
+        <v>114</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="L25" s="74"/>
-      <c r="M25" s="116" t="s">
-        <v>297</v>
-      </c>
-      <c r="N25" s="117"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
@@ -4163,35 +4170,33 @@
         <v>109</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>230</v>
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
       </c>
       <c r="F26" s="9">
         <v>1</v>
       </c>
       <c r="G26" s="10">
-        <v>145</v>
+        <v>7.5</v>
       </c>
       <c r="H26" s="9">
         <v>1</v>
       </c>
       <c r="I26" s="39">
-        <f t="shared" ref="I26:I52" si="2">H26*G26</f>
-        <v>145</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>229</v>
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="J26" s="117" t="s">
+        <v>118</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="L26" s="72" t="s">
-        <v>208</v>
-      </c>
-      <c r="M26" s="116"/>
-      <c r="N26" s="117"/>
+        <v>119</v>
+      </c>
+      <c r="L26" s="74"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
@@ -4201,31 +4206,36 @@
         <v>109</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
       </c>
       <c r="F27" s="9">
         <v>1</v>
       </c>
       <c r="G27" s="10">
-        <v>23</v>
+        <v>78.39</v>
       </c>
       <c r="H27" s="9">
         <v>1</v>
       </c>
       <c r="I27" s="39">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>114</v>
+        <v>78.39</v>
+      </c>
+      <c r="J27" s="117" t="s">
+        <v>227</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="L27" s="74"/>
+        <v>202</v>
+      </c>
+      <c r="L27" s="72" t="s">
+        <v>201</v>
+      </c>
       <c r="M27" s="89"/>
       <c r="N27" s="86"/>
     </row>
@@ -4240,28 +4250,30 @@
         <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F28" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="10">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="H28" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="39">
         <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>118</v>
+        <v>52</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="L28" s="74"/>
+        <v>135</v>
+      </c>
+      <c r="L28" s="72" t="s">
+        <v>122</v>
+      </c>
       <c r="M28" s="89"/>
       <c r="N28" s="86"/>
     </row>
@@ -4273,108 +4285,103 @@
         <v>109</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="E29">
-        <v>300</v>
+        <v>221</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
       </c>
       <c r="G29" s="10">
-        <v>78.39</v>
+        <v>3</v>
       </c>
       <c r="H29" s="9">
         <v>1</v>
       </c>
       <c r="I29" s="39">
-        <f t="shared" si="2"/>
-        <v>78.39</v>
-      </c>
-      <c r="J29" s="48" t="s">
-        <v>231</v>
+        <f>H29*G29</f>
+        <v>3</v>
+      </c>
+      <c r="J29" s="117" t="s">
+        <v>218</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="L29" s="72" t="s">
-        <v>204</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="L29" s="74"/>
       <c r="M29" s="89"/>
       <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
         <v>109</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10">
         <v>2</v>
       </c>
-      <c r="G30" s="10">
-        <v>26</v>
-      </c>
       <c r="H30" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="39">
         <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
-      <c r="J30" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="J30" s="117" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>229</v>
       </c>
       <c r="L30" s="72" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="M30" s="89"/>
       <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
       </c>
       <c r="G31" s="10">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H31" s="9">
         <v>1</v>
       </c>
       <c r="I31" s="39">
-        <f>H31*G31</f>
-        <v>3</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>125</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>135</v>
       </c>
       <c r="L31" s="74"/>
       <c r="M31" s="89"/>
@@ -4385,36 +4392,34 @@
         <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
       </c>
       <c r="G32" s="10">
-        <v>2</v>
+        <v>13.5</v>
       </c>
       <c r="H32" s="9">
         <v>1</v>
       </c>
       <c r="I32" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>190</v>
+        <v>13.5</v>
+      </c>
+      <c r="J32" s="117" t="s">
+        <v>215</v>
       </c>
       <c r="K32" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="L32" s="72" t="s">
-        <v>207</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="L32" s="74"/>
       <c r="M32" s="89"/>
       <c r="N32" s="86"/>
     </row>
@@ -4426,35 +4431,35 @@
         <v>126</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>234</v>
+        <v>126</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
       </c>
       <c r="G33" s="10">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H33" s="9">
         <v>1</v>
       </c>
       <c r="I33" s="39">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="J33" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="K33" s="41" t="s">
-        <v>135</v>
+        <v>65</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="K33" s="81" t="s">
+        <v>324</v>
       </c>
       <c r="L33" s="74"/>
       <c r="M33" s="89"/>
       <c r="N33" s="86"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" ht="14.45" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>123</v>
       </c>
@@ -4462,35 +4467,35 @@
         <v>126</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
       </c>
       <c r="G34" s="10">
-        <v>13.5</v>
+        <v>3.75</v>
       </c>
       <c r="H34" s="9">
         <v>1</v>
       </c>
       <c r="I34" s="39">
-        <f t="shared" si="2"/>
-        <v>13.5</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="K34" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="L34" s="74"/>
+        <f>H34*G34</f>
+        <v>3.75</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L34" s="75"/>
       <c r="M34" s="89"/>
       <c r="N34" s="86"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" ht="14.45" customHeight="1">
       <c r="A35" s="7" t="s">
         <v>123</v>
       </c>
@@ -4498,103 +4503,103 @@
         <v>126</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>317</v>
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>273</v>
       </c>
       <c r="F35" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="10">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="H35" s="9">
         <v>1</v>
       </c>
       <c r="I35" s="39">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="J35" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="K35" s="81" t="s">
-        <v>330</v>
-      </c>
-      <c r="L35" s="74"/>
+        <f>H35*G35</f>
+        <v>10</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L35" s="75"/>
       <c r="M35" s="89"/>
       <c r="N35" s="86"/>
     </row>
-    <row r="36" spans="1:14" ht="14.45" customHeight="1">
+    <row r="36" spans="1:14">
       <c r="A36" s="7" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="F36" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G36" s="10">
-        <v>3.75</v>
+        <v>1.2</v>
       </c>
       <c r="H36" s="9">
         <v>1</v>
       </c>
       <c r="I36" s="39">
         <f>H36*G36</f>
-        <v>3.75</v>
-      </c>
-      <c r="J36" s="47" t="s">
-        <v>280</v>
+        <v>1.2</v>
+      </c>
+      <c r="J36" s="117" t="s">
+        <v>49</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L36" s="75"/>
+        <v>50</v>
+      </c>
+      <c r="L36" s="74"/>
       <c r="M36" s="89"/>
       <c r="N36" s="86"/>
     </row>
-    <row r="37" spans="1:14" ht="14.45" customHeight="1">
+    <row r="37" spans="1:14">
       <c r="A37" s="7" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>279</v>
+        <v>51</v>
       </c>
       <c r="F37" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G37" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H37" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37" s="39">
         <f>H37*G37</f>
-        <v>10</v>
-      </c>
-      <c r="J37" s="47" t="s">
-        <v>281</v>
+        <v>9</v>
+      </c>
+      <c r="J37" s="117" t="s">
+        <v>52</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L37" s="75"/>
+        <v>50</v>
+      </c>
+      <c r="L37" s="74"/>
       <c r="M37" s="89"/>
       <c r="N37" s="86"/>
     </row>
@@ -4603,32 +4608,32 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="F38" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G38" s="10">
-        <v>1.2</v>
+        <v>59</v>
       </c>
       <c r="H38" s="9">
         <v>1</v>
       </c>
       <c r="I38" s="39">
-        <f>H38*G38</f>
-        <v>1.2</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>49</v>
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="J38" s="117" t="s">
+        <v>131</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="L38" s="74"/>
       <c r="M38" s="89"/>
@@ -4639,32 +4644,32 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="F39" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G39" s="10">
-        <v>3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H39" s="9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I39" s="39">
-        <f>H39*G39</f>
-        <v>9</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>52</v>
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="J39" s="117" t="s">
+        <v>134</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="L39" s="74"/>
       <c r="M39" s="89"/>
@@ -4678,29 +4683,29 @@
         <v>128</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F40" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G40" s="10">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="H40" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I40" s="39">
         <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>131</v>
+        <v>30</v>
+      </c>
+      <c r="J40" s="117" t="s">
+        <v>137</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="L40" s="74"/>
       <c r="M40" s="89"/>
@@ -4714,26 +4719,26 @@
         <v>128</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F41" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G41" s="10">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="H41" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I41" s="39">
         <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>134</v>
+        <v>20</v>
+      </c>
+      <c r="J41" s="117" t="s">
+        <v>140</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>135</v>
@@ -4750,29 +4755,32 @@
         <v>128</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>142</v>
+      </c>
+      <c r="E42">
+        <v>200</v>
       </c>
       <c r="F42" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G42" s="10">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H42" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I42" s="39">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="J42" s="14" t="s">
-        <v>137</v>
+        <v>48</v>
+      </c>
+      <c r="J42" s="117" t="s">
+        <v>143</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L42" s="74"/>
       <c r="M42" s="89"/>
@@ -4786,106 +4794,103 @@
         <v>128</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F43" s="9">
         <v>5</v>
       </c>
       <c r="G43" s="10">
-        <v>4</v>
+        <v>14.5</v>
       </c>
       <c r="H43" s="9">
         <v>5</v>
       </c>
       <c r="I43" s="39">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>140</v>
+        <v>72.5</v>
+      </c>
+      <c r="J43" s="117" t="s">
+        <v>147</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L43" s="74"/>
+        <v>148</v>
+      </c>
+      <c r="L43" s="75"/>
       <c r="M43" s="89"/>
       <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="7" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F44" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G44" s="10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H44" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I44" s="39">
         <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="L44" s="74"/>
+        <v>60</v>
+      </c>
+      <c r="J44" s="117" t="s">
+        <v>150</v>
+      </c>
+      <c r="K44" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="L44" s="76"/>
       <c r="M44" s="89"/>
       <c r="N44" s="86"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" ht="14.45" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" t="s">
-        <v>146</v>
+        <v>155</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="F45" s="9">
         <v>5</v>
       </c>
       <c r="G45" s="10">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="H45" s="9">
         <v>5</v>
       </c>
       <c r="I45" s="39">
         <f t="shared" si="2"/>
-        <v>72.5</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="L45" s="75"/>
+        <v>125</v>
+      </c>
+      <c r="J45" s="117" t="s">
+        <v>150</v>
+      </c>
+      <c r="K45" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="L45" s="76"/>
       <c r="M45" s="89"/>
       <c r="N45" s="86"/>
     </row>
@@ -4894,34 +4899,37 @@
         <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D46" t="s">
-        <v>200</v>
+        <v>154</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46">
+        <v>300</v>
       </c>
       <c r="F46" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G46" s="10">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H46" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I46" s="39">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="K46" s="82" t="s">
-        <v>274</v>
-      </c>
-      <c r="L46" s="76"/>
+        <v>50</v>
+      </c>
+      <c r="J46" s="117" t="s">
+        <v>208</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="L46" s="75"/>
       <c r="M46" s="89"/>
       <c r="N46" s="86"/>
     </row>
@@ -4930,77 +4938,74 @@
         <v>152</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>184</v>
+        <v>270</v>
+      </c>
+      <c r="D47" t="s">
+        <v>271</v>
       </c>
       <c r="F47" s="9">
         <v>5</v>
       </c>
       <c r="G47" s="10">
-        <v>25</v>
+        <v>3.23</v>
       </c>
       <c r="H47" s="9">
         <v>5</v>
       </c>
       <c r="I47" s="39">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="K47" s="82" t="s">
-        <v>274</v>
-      </c>
-      <c r="L47" s="76"/>
+        <f>H47*G47</f>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="J47" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="L47" s="75"/>
       <c r="M47" s="89"/>
       <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="E48">
-        <v>300</v>
+        <v>109</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" t="s">
+        <v>166</v>
       </c>
       <c r="F48" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="10">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H48" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="39">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>211</v>
+        <v>3</v>
+      </c>
+      <c r="J48" s="117" t="s">
+        <v>167</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>275</v>
+        <v>168</v>
       </c>
       <c r="L48" s="75"/>
       <c r="M48" s="89"/>
       <c r="N48" s="86"/>
     </row>
-    <row r="49" spans="1:14" ht="14.45" customHeight="1">
+    <row r="49" spans="1:14">
       <c r="A49" s="7" t="s">
         <v>152</v>
       </c>
@@ -5008,29 +5013,29 @@
         <v>109</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>276</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F49" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G49" s="10">
-        <v>3.23</v>
+        <v>12</v>
       </c>
       <c r="H49" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I49" s="39">
-        <f>H49*G49</f>
-        <v>16.149999999999999</v>
-      </c>
-      <c r="J49" s="47" t="s">
-        <v>278</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="J49" s="118" t="s">
+        <v>310</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>282</v>
+        <v>178</v>
       </c>
       <c r="L49" s="75"/>
       <c r="M49" s="89"/>
@@ -5044,29 +5049,29 @@
         <v>109</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="F50" s="9">
         <v>1</v>
       </c>
       <c r="G50" s="10">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H50" s="9">
         <v>1</v>
       </c>
       <c r="I50" s="39">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>167</v>
+        <v>12</v>
+      </c>
+      <c r="J50" s="117" t="s">
+        <v>180</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="L50" s="75"/>
       <c r="M50" s="89"/>
@@ -5074,108 +5079,108 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
         <v>109</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D51" t="s">
-        <v>315</v>
+        <v>181</v>
       </c>
       <c r="F51" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="10">
-        <v>12</v>
+        <f>(3+0.96)</f>
+        <v>3.96</v>
       </c>
       <c r="H51" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" s="39">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="J51" s="114" t="s">
-        <v>316</v>
+        <f t="shared" ref="I51" si="3">H51*G51</f>
+        <v>3.96</v>
+      </c>
+      <c r="J51" s="117" t="s">
+        <v>328</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="L51" s="75"/>
       <c r="M51" s="89"/>
       <c r="N51" s="86"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" ht="14.45" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="D52" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="F52" s="9">
         <v>1</v>
       </c>
       <c r="G52" s="10">
-        <v>12</v>
+        <v>3.72</v>
       </c>
       <c r="H52" s="9">
         <v>1</v>
       </c>
       <c r="I52" s="39">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="J52" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>215</v>
+        <f t="shared" ref="I52:I55" si="4">H52*G52</f>
+        <v>3.72</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="K52" s="81" t="s">
+        <v>288</v>
       </c>
       <c r="L52" s="75"/>
       <c r="M52" s="89"/>
       <c r="N52" s="86"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" ht="14.45" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="F53" s="9">
         <v>1</v>
       </c>
       <c r="G53" s="10">
-        <f>(3+0.96)</f>
-        <v>3.96</v>
+        <v>4</v>
       </c>
       <c r="H53" s="9">
         <v>1</v>
       </c>
       <c r="I53" s="39">
-        <f t="shared" ref="I53" si="3">H53*G53</f>
-        <v>3.96</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>182</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J53" s="117" t="s">
+        <v>262</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>214</v>
+        <v>288</v>
       </c>
       <c r="L53" s="75"/>
       <c r="M53" s="89"/>
@@ -5186,32 +5191,32 @@
         <v>156</v>
       </c>
       <c r="B54" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" t="s">
         <v>263</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="F54" s="9">
+        <v>1</v>
+      </c>
+      <c r="G54" s="10">
+        <v>3</v>
+      </c>
+      <c r="H54" s="9">
+        <v>1</v>
+      </c>
+      <c r="I54" s="39">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J54" s="117" t="s">
         <v>264</v>
       </c>
-      <c r="D54" t="s">
-        <v>270</v>
-      </c>
-      <c r="F54" s="9">
-        <v>1</v>
-      </c>
-      <c r="G54" s="10">
-        <v>3.72</v>
-      </c>
-      <c r="H54" s="9">
-        <v>1</v>
-      </c>
-      <c r="I54" s="39">
-        <f t="shared" ref="I54:I57" si="4">H54*G54</f>
-        <v>3.72</v>
-      </c>
-      <c r="J54" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="K54" s="81" t="s">
-        <v>294</v>
+      <c r="K54" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="L54" s="75"/>
       <c r="M54" s="89"/>
@@ -5222,32 +5227,32 @@
         <v>156</v>
       </c>
       <c r="B55" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="F55" s="9">
         <v>1</v>
       </c>
       <c r="G55" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H55" s="9">
         <v>1</v>
       </c>
       <c r="I55" s="39">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>294</v>
+        <v>3</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="K55" s="81" t="s">
+        <v>329</v>
       </c>
       <c r="L55" s="75"/>
       <c r="M55" s="89"/>
@@ -5258,239 +5263,164 @@
         <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" t="s">
-        <v>267</v>
+        <v>193</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="F56" s="9">
         <v>1</v>
       </c>
       <c r="G56" s="10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H56" s="9">
         <v>1</v>
       </c>
       <c r="I56" s="39">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J56" s="14" t="s">
+        <f>G56*H56</f>
+        <v>15</v>
+      </c>
+      <c r="J56" s="123" t="s">
         <v>268</v>
       </c>
-      <c r="K56" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="L56" s="75"/>
+      <c r="K56" s="81" t="s">
+        <v>331</v>
+      </c>
+      <c r="L56" s="77"/>
       <c r="M56" s="89"/>
       <c r="N56" s="86"/>
     </row>
-    <row r="57" spans="1:14" ht="14.45" customHeight="1">
-      <c r="A57" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" t="s">
-        <v>263</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D57" t="s">
-        <v>271</v>
-      </c>
-      <c r="F57" s="9">
-        <v>1</v>
-      </c>
-      <c r="G57" s="10">
-        <v>3</v>
-      </c>
-      <c r="H57" s="9">
-        <v>1</v>
-      </c>
-      <c r="I57" s="39">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J57" s="47" t="s">
-        <v>269</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="L57" s="75"/>
+    <row r="57" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A57" s="79"/>
+      <c r="B57" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57" s="62"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="63">
+        <v>1</v>
+      </c>
+      <c r="I57" s="65">
+        <f>'Hardware List'!F46</f>
+        <v>226.46999999999997</v>
+      </c>
+      <c r="J57" s="66"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="78"/>
       <c r="M57" s="89"/>
       <c r="N57" s="86"/>
     </row>
-    <row r="58" spans="1:14" ht="14.45" customHeight="1">
-      <c r="A58" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" t="s">
-        <v>193</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58" t="s">
-        <v>195</v>
-      </c>
-      <c r="F58" s="9">
-        <v>1</v>
-      </c>
-      <c r="G58" s="10">
-        <v>21.5</v>
-      </c>
-      <c r="H58" s="9">
-        <v>1</v>
-      </c>
-      <c r="I58" s="39">
-        <f>G58*H58</f>
-        <v>21.5</v>
-      </c>
-      <c r="J58" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="L58" s="77"/>
-      <c r="M58" s="89"/>
-      <c r="N58" s="86"/>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A59" s="79"/>
-      <c r="B59" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="D59" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="E59" s="62"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="63">
-        <v>1</v>
-      </c>
-      <c r="I59" s="65">
-        <f>'Hardware List'!F46</f>
-        <v>226.46999999999997</v>
-      </c>
-      <c r="J59" s="66"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="89"/>
-      <c r="N59" s="86"/>
-    </row>
-    <row r="60" spans="1:14" s="6" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A60" s="42"/>
-      <c r="B60" s="43" t="s">
+    <row r="58" spans="1:14" s="6" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A58" s="42"/>
+      <c r="B58" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="D60" s="43" t="s">
+      <c r="C58" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="45">
-        <f>SUM(I20:I59)+I14</f>
-        <v>2028.6400000000003</v>
-      </c>
-      <c r="J60" s="43"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="90"/>
-      <c r="N60" s="88"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="45" t="e">
+        <f>SUM(I18:I57)+I14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J58" s="43"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M15:N20"/>
-    <mergeCell ref="M22:N23"/>
-    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="M15:N18"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="M23:N24"/>
   </mergeCells>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J20" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J23" r:id="rId3" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J38" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J24" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J25" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J26" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="J27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="J28" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J29" r:id="rId11" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L30" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J31" r:id="rId13" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="J33" r:id="rId14" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J40" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J41" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J42" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J43" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J44" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J45" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="J50" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="J51" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J52" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="J53" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J32" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J30" r:id="rId27" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L29" r:id="rId28" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L26" r:id="rId29" display="1x TMC2209 x8" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L32" r:id="rId30" display="1x ADXL345 Accelerometer" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J46" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J47" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J48" r:id="rId33" display="TBD" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L23" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J58" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J55" r:id="rId37" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J56" r:id="rId38" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J57" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J54" r:id="rId40" xr:uid="{AA63318B-CE23-4460-98F0-9BED57088735}"/>
-    <hyperlink ref="J49" r:id="rId41" xr:uid="{C73F053A-AB99-4F9A-AB96-34675FD56AAD}"/>
-    <hyperlink ref="J36" r:id="rId42" xr:uid="{6B0C3554-C92C-477C-968B-C3A56DEE5BB2}"/>
-    <hyperlink ref="J37" r:id="rId43" xr:uid="{230B31B2-E3E9-4D33-8792-EA389633978B}"/>
-    <hyperlink ref="J21" r:id="rId44" xr:uid="{AE44EAD7-69DD-4806-9E2F-C1401214B95A}"/>
-    <hyperlink ref="J4" r:id="rId45" display="Color: 369 mm" xr:uid="{DEB61E4F-1486-491A-838D-61337A0DB5B3}"/>
-    <hyperlink ref="J5" r:id="rId46" xr:uid="{B0B2353F-D76B-49D2-92E2-924AA7C3940B}"/>
-    <hyperlink ref="J6" r:id="rId47" xr:uid="{A49E22B6-E552-4BE6-8729-184F520A838F}"/>
-    <hyperlink ref="J7" r:id="rId48" xr:uid="{47004657-0518-4245-B471-B34B5125E399}"/>
-    <hyperlink ref="J8" r:id="rId49" xr:uid="{6BAD6695-28C3-4B6D-8A72-B08E82F940DF}"/>
-    <hyperlink ref="J9" r:id="rId50" display="Color: 10pcs 2028" xr:uid="{C4B95C3B-16B9-4394-9F39-5B9FF78AC176}"/>
-    <hyperlink ref="J11" r:id="rId51" display="3xGL: 350 - C: MGN12 H" xr:uid="{9DCC9853-4D9E-4093-9D52-2A218587FDA4}"/>
-    <hyperlink ref="J10" r:id="rId52" xr:uid="{3FB75D13-E1B1-4B85-B99D-0379606A4DAC}"/>
-    <hyperlink ref="M10" r:id="rId53" xr:uid="{03D23144-4452-41B9-B4B9-F51023FDC698}"/>
-    <hyperlink ref="M11" r:id="rId54" xr:uid="{410E10AD-6201-406C-BD2E-0E2A08BBF18C}"/>
-    <hyperlink ref="M12" r:id="rId55" xr:uid="{D0E8BE37-F76A-4921-AA1C-3F7A7D64A7BC}"/>
-    <hyperlink ref="J16" r:id="rId56" display="Makersupplies Complete Kit" xr:uid="{036B3E6D-568B-4079-9529-92EC099AA1B7}"/>
-    <hyperlink ref="J17" r:id="rId57" xr:uid="{3707A5E6-020E-4B23-B131-7499054C07E0}"/>
-    <hyperlink ref="J19" r:id="rId58" xr:uid="{A9A16167-FCF8-4CCB-AF52-C298BD6D8154}"/>
-    <hyperlink ref="J18" r:id="rId59" xr:uid="{2EF5411B-8136-4A92-8C0B-6EDC3731093C}"/>
-    <hyperlink ref="J12" r:id="rId60" display="3xGL: 350 - C: MGN12 H" xr:uid="{9D6B9AF6-62B4-480D-97FD-B7DE0674CAF2}"/>
-    <hyperlink ref="J13" r:id="rId61" display="3xGL: 350 - C: MGN12 H" xr:uid="{C50F9241-9201-4BCF-B05D-EA96CC2121C9}"/>
+    <hyperlink ref="J18" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J21" r:id="rId3" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J37" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J27" r:id="rId11" display="1x Select Color: 220V/110V" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J29" r:id="rId13" display="1x 10Pcs Temperature: 160 degree" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J31" r:id="rId14" display="Color: Dragon-Standard flow" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J33" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J38" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J39" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J40" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J41" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J42" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J43" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J48" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J49" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J50" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J51" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J28" r:id="rId27" display="Genuine Omron Solid State Relay" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L27" r:id="rId28" display="1x 310mm 220V 750W" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L24" r:id="rId29" display="1x TMC2209 x8" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L30" r:id="rId30" display="1x ADXL345 Accelerometer" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J44" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J46" r:id="rId33" display="TBD" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J32" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L21" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J53" r:id="rId36" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J54" r:id="rId37" display="https://www.aliexpress.com/item/4000071762309.html?spm=a2g0o.store_pc_allProduct.8148356.15.1894c53dn19kw8&amp;pdp_npi=2%40dis%21USD%21US%20%241.48%21US%20%241.26%21%21%21%21%21%402100bde116564933129322644e26f5%2112000029019588359%21sh" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J55" r:id="rId38" display="1xAHT25+AHT21 Sensor" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J52" r:id="rId39" xr:uid="{AA63318B-CE23-4460-98F0-9BED57088735}"/>
+    <hyperlink ref="J47" r:id="rId40" xr:uid="{C73F053A-AB99-4F9A-AB96-34675FD56AAD}"/>
+    <hyperlink ref="J34" r:id="rId41" xr:uid="{6B0C3554-C92C-477C-968B-C3A56DEE5BB2}"/>
+    <hyperlink ref="J35" r:id="rId42" xr:uid="{230B31B2-E3E9-4D33-8792-EA389633978B}"/>
+    <hyperlink ref="J19" r:id="rId43" xr:uid="{AE44EAD7-69DD-4806-9E2F-C1401214B95A}"/>
+    <hyperlink ref="J4" r:id="rId44" display="Color: 369 mm" xr:uid="{DEB61E4F-1486-491A-838D-61337A0DB5B3}"/>
+    <hyperlink ref="J5" r:id="rId45" xr:uid="{B0B2353F-D76B-49D2-92E2-924AA7C3940B}"/>
+    <hyperlink ref="J6" r:id="rId46" xr:uid="{A49E22B6-E552-4BE6-8729-184F520A838F}"/>
+    <hyperlink ref="J7" r:id="rId47" xr:uid="{47004657-0518-4245-B471-B34B5125E399}"/>
+    <hyperlink ref="J8" r:id="rId48" xr:uid="{6BAD6695-28C3-4B6D-8A72-B08E82F940DF}"/>
+    <hyperlink ref="J9" r:id="rId49" display="Color: 10pcs 2028" xr:uid="{C4B95C3B-16B9-4394-9F39-5B9FF78AC176}"/>
+    <hyperlink ref="J11" r:id="rId50" display="3xGL: 350 - C: MGN12 H" xr:uid="{9DCC9853-4D9E-4093-9D52-2A218587FDA4}"/>
+    <hyperlink ref="J10" r:id="rId51" xr:uid="{3FB75D13-E1B1-4B85-B99D-0379606A4DAC}"/>
+    <hyperlink ref="M10" r:id="rId52" xr:uid="{03D23144-4452-41B9-B4B9-F51023FDC698}"/>
+    <hyperlink ref="M11" r:id="rId53" xr:uid="{410E10AD-6201-406C-BD2E-0E2A08BBF18C}"/>
+    <hyperlink ref="M12" r:id="rId54" xr:uid="{D0E8BE37-F76A-4921-AA1C-3F7A7D64A7BC}"/>
+    <hyperlink ref="J16" r:id="rId55" display="Makersupplies Complete Kit" xr:uid="{036B3E6D-568B-4079-9529-92EC099AA1B7}"/>
+    <hyperlink ref="J17" r:id="rId56" xr:uid="{3707A5E6-020E-4B23-B131-7499054C07E0}"/>
+    <hyperlink ref="J12" r:id="rId57" display="3xGL: 350 - C: MGN12 H" xr:uid="{9D6B9AF6-62B4-480D-97FD-B7DE0674CAF2}"/>
+    <hyperlink ref="J13" r:id="rId58" display="3xGL: 350 - C: MGN12 H" xr:uid="{C50F9241-9201-4BCF-B05D-EA96CC2121C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="64" fitToWidth="0" orientation="landscape" r:id="rId62"/>
-  <drawing r:id="rId63"/>
-  <legacyDrawing r:id="rId64"/>
+  <pageSetup paperSize="9" scale="67" fitToWidth="0" orientation="landscape" r:id="rId59"/>
+  <drawing r:id="rId60"/>
+  <legacyDrawing r:id="rId61"/>
   <tableParts count="1">
-    <tablePart r:id="rId65"/>
+    <tablePart r:id="rId62"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5524,19 +5454,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickBot="1">
-      <c r="A1" s="115" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
+      <c r="A1" s="114" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="42" t="s">
@@ -5631,7 +5561,7 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>171</v>
@@ -5701,7 +5631,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>50</v>
@@ -5718,7 +5648,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -5754,7 +5684,7 @@
         <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C8" s="9">
         <v>31</v>
@@ -5770,23 +5700,23 @@
         <v>0.74</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J8" s="51"/>
       <c r="L8" s="86"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
@@ -5801,7 +5731,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>50</v>
@@ -5811,7 +5741,7 @@
       </c>
       <c r="J9" s="51"/>
       <c r="K9" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L9" s="86"/>
     </row>
@@ -5846,7 +5776,7 @@
         <v>7380</v>
       </c>
       <c r="K10" s="87" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L10" s="86"/>
     </row>
@@ -5855,7 +5785,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -5870,7 +5800,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H11" s="41" t="s">
         <v>50</v>
@@ -5882,7 +5812,7 @@
         <v>10642</v>
       </c>
       <c r="K11" s="87" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L11" s="86"/>
     </row>
@@ -5917,7 +5847,7 @@
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="87" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L12" s="86"/>
     </row>
@@ -5959,7 +5889,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C14">
         <v>29</v>
@@ -5974,7 +5904,7 @@
         <v>1.07</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H14" s="41" t="s">
         <v>50</v>
@@ -6018,17 +5948,17 @@
       <c r="J15" s="52">
         <v>7380</v>
       </c>
-      <c r="K15" s="116" t="s">
-        <v>295</v>
-      </c>
-      <c r="L15" s="117"/>
+      <c r="K15" s="115" t="s">
+        <v>289</v>
+      </c>
+      <c r="L15" s="116"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -6044,7 +5974,7 @@
         <v>1.5</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>50</v>
@@ -6053,8 +5983,8 @@
         <v>912</v>
       </c>
       <c r="J16" s="52"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="116"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
@@ -6110,17 +6040,17 @@
         <v>2.57</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>50</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="51"/>
-      <c r="K18" s="116" t="s">
-        <v>298</v>
-      </c>
-      <c r="L18" s="117"/>
+      <c r="K18" s="115" t="s">
+        <v>292</v>
+      </c>
+      <c r="L18" s="116"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
@@ -6143,22 +6073,22 @@
         <v>12</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>79</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="51"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="116"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="17" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6174,7 +6104,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>79</v>
@@ -6216,17 +6146,17 @@
       <c r="J21" s="52">
         <v>4032</v>
       </c>
-      <c r="K21" s="116" t="s">
-        <v>297</v>
-      </c>
-      <c r="L21" s="117"/>
+      <c r="K21" s="115" t="s">
+        <v>291</v>
+      </c>
+      <c r="L21" s="116"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -6253,8 +6183,8 @@
       <c r="J22" s="51">
         <v>10511</v>
       </c>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="116"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="7" t="s">
@@ -6366,7 +6296,7 @@
         <v>70</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -6382,7 +6312,7 @@
         <v>3.28</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>50</v>
@@ -6500,7 +6430,7 @@
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30">
         <v>72</v>
@@ -6531,7 +6461,7 @@
         <v>163</v>
       </c>
       <c r="B31" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -6551,7 +6481,7 @@
         <v>164</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="51"/>
@@ -6664,7 +6594,7 @@
         <v>70</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -6679,7 +6609,7 @@
         <v>1.64</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>79</v>
@@ -6729,7 +6659,7 @@
         <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -6745,7 +6675,7 @@
         <v>6.08</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>50</v>
@@ -6778,10 +6708,10 @@
         <v>16</v>
       </c>
       <c r="G38" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="51"/>
@@ -6793,7 +6723,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -6808,10 +6738,10 @@
         <v>9.5</v>
       </c>
       <c r="G39" s="47" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H39" s="41" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="51"/>
@@ -6823,7 +6753,7 @@
         <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -6839,7 +6769,7 @@
         <v>4.5</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>60</v>
@@ -6854,7 +6784,7 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C41" s="9">
         <v>6</v>
@@ -6863,16 +6793,16 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F41" s="39">
         <v>9.1999999999999993</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="51"/>
@@ -6931,7 +6861,7 @@
         <v>24</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>158</v>
@@ -6995,10 +6925,10 @@
         <v>1.72</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="51"/>
@@ -7108,7 +7038,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -7129,20 +7059,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="115" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
+      <c r="A1" s="114" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -7151,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7163,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -7174,7 +7104,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -7184,7 +7114,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -7194,7 +7124,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>5</v>
@@ -7278,7 +7208,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>24</v>
@@ -7461,7 +7391,7 @@
         <v>25</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>24</v>
@@ -7479,7 +7409,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F14" s="9">
         <v>4</v>
@@ -7495,7 +7425,7 @@
         <v>40</v>
       </c>
       <c r="J14" s="55" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>24</v>
@@ -7513,7 +7443,7 @@
         <v>149</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E15">
         <v>350</v>
@@ -7532,10 +7462,10 @@
         <v>55.5</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L15" s="72"/>
     </row>
@@ -7550,7 +7480,7 @@
         <v>149</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E16">
         <v>400</v>
@@ -7569,10 +7499,10 @@
         <v>39</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L16" s="72"/>
     </row>
@@ -7587,7 +7517,7 @@
         <v>149</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E17">
         <v>400</v>
@@ -7606,10 +7536,10 @@
         <v>17.5</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L17" s="72"/>
       <c r="M17" s="2"/>
@@ -7625,7 +7555,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
@@ -7649,7 +7579,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="107" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E19" s="107"/>
       <c r="F19" s="108"/>
@@ -7658,7 +7588,7 @@
       <c r="I19" s="110"/>
       <c r="J19" s="111"/>
       <c r="K19" s="112" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L19" s="73"/>
     </row>
@@ -7673,7 +7603,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="92">
@@ -7688,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="69" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K20" s="102" t="s">
         <v>43</v>
@@ -7706,7 +7636,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="92">
@@ -7721,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K21" s="102" t="s">
         <v>43</v>
@@ -7739,7 +7669,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="95" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E22" s="95"/>
       <c r="F22" s="96">
@@ -7754,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="68" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K22" s="105" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L22" s="69"/>
     </row>
@@ -7772,7 +7702,7 @@
         <v>149</v>
       </c>
       <c r="D23" s="99" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E23" s="99"/>
       <c r="F23" s="100">
@@ -7787,10 +7717,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="113" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K23" s="103" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L23" s="69"/>
     </row>
@@ -7824,7 +7754,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>38</v>
@@ -7878,7 +7808,7 @@
         <v>44</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E26">
         <v>330</v>
@@ -7897,13 +7827,13 @@
         <v>46</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="72" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -7985,7 +7915,7 @@
         <v>110</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
@@ -8001,13 +7931,13 @@
         <v>145</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>111</v>
       </c>
       <c r="L29" s="72" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -8089,7 +8019,7 @@
         <v>120</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E32">
         <v>300</v>
@@ -8108,13 +8038,13 @@
         <v>78.39</v>
       </c>
       <c r="J32" s="48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L32" s="72" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -8144,7 +8074,7 @@
         <v>26</v>
       </c>
       <c r="J33" s="49" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>135</v>
@@ -8164,7 +8094,7 @@
         <v>124</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -8180,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>125</v>
@@ -8195,10 +8125,10 @@
         <v>109</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D35" t="s">
         <v>188</v>
-      </c>
-      <c r="D35" t="s">
-        <v>189</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
@@ -8214,13 +8144,13 @@
         <v>2</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K35" s="41" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L35" s="72" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -8234,7 +8164,7 @@
         <v>127</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
@@ -8250,7 +8180,7 @@
         <v>40</v>
       </c>
       <c r="J36" s="49" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K36" s="41" t="s">
         <v>135</v>
@@ -8265,10 +8195,10 @@
         <v>126</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D37" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
@@ -8284,7 +8214,7 @@
         <v>13.5</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K37" s="41" t="s">
         <v>119</v>
@@ -8302,7 +8232,7 @@
         <v>126</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F38" s="9">
         <v>1</v>
@@ -8318,10 +8248,10 @@
         <v>65</v>
       </c>
       <c r="J38" s="47" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K38" s="81" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L38" s="74"/>
       <c r="M38" s="89"/>
@@ -8337,7 +8267,7 @@
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F39" s="9">
         <v>1</v>
@@ -8353,7 +8283,7 @@
         <v>3.75</v>
       </c>
       <c r="J39" s="47" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>135</v>
@@ -8641,10 +8571,10 @@
         <v>65</v>
       </c>
       <c r="C48" s="61" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D48" s="60" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E48" s="62"/>
       <c r="F48" s="63"/>
@@ -8666,7 +8596,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D49" s="43" t="s">
         <v>5</v>

--- a/Document Library/Bill Of Materials/Valkyrie BOM v1.1.0.xlsx
+++ b/Document Library/Bill Of Materials/Valkyrie BOM v1.1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="644" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A6C1CA3-2BB1-461F-8D55-6326C5318E65}"/>
+  <xr:revisionPtr revIDLastSave="664" documentId="11_BB46956AE7341EA83D7747123DA4EA88538076BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64CC9BBF-2470-4091-A1E4-1739F5DB595B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valkyrie Stage-I" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hardware List'!$A$3:$J$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Valkyrie Stage-0'!$A$7:$K$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Valkyrie Stage-0'!$A$7:$K$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Valkyrie Stage-I'!$A$3:$K$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{88BDDEA2-6754-412E-B5C3-715137909F5D}">
+    <comment ref="J24" authorId="0" shapeId="0" xr:uid="{88BDDEA2-6754-412E-B5C3-715137909F5D}">
       <text>
         <r>
           <rPr>
@@ -444,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L29" authorId="0" shapeId="0" xr:uid="{80F1B203-43C9-40C4-BB71-4DD76C7498D0}">
+    <comment ref="L27" authorId="0" shapeId="0" xr:uid="{80F1B203-43C9-40C4-BB71-4DD76C7498D0}">
       <text>
         <r>
           <rPr>
@@ -468,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J34" authorId="0" shapeId="0" xr:uid="{B0B0D56F-E56D-4A7B-BA01-FCE3646F4AAA}">
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{B0B0D56F-E56D-4A7B-BA01-FCE3646F4AAA}">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J46" authorId="1" shapeId="0" xr:uid="{DDC152E7-30B4-4916-B884-6E1BCD6E7DE6}">
+    <comment ref="J44" authorId="1" shapeId="0" xr:uid="{DDC152E7-30B4-4916-B884-6E1BCD6E7DE6}">
       <text>
         <r>
           <rPr>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="326">
   <si>
     <t>Develompment Team Members</t>
   </si>
@@ -627,12 +627,6 @@
     <t>Tube</t>
   </si>
   <si>
-    <t>20x20x18 Carbon Tube</t>
-  </si>
-  <si>
-    <t>YTWS</t>
-  </si>
-  <si>
     <t>Bed</t>
   </si>
   <si>
@@ -1173,21 +1167,12 @@
     <t>1x Temperature: 150/180 degree</t>
   </si>
   <si>
-    <t>15x15x13 Carbon Tube</t>
-  </si>
-  <si>
     <t>Keenovo 750W Silicone Heater</t>
   </si>
   <si>
     <t>Thermal Fuse for AC Heater</t>
   </si>
   <si>
-    <t>2x15X15X13MM 500MM</t>
-  </si>
-  <si>
-    <t>1x 20X20X18MM 500MM</t>
-  </si>
-  <si>
     <t>Various</t>
   </si>
   <si>
@@ -1395,9 +1380,6 @@
     <t>fasteners</t>
   </si>
   <si>
-    <t>20x20x18 Carbon X-Axis Tube</t>
-  </si>
-  <si>
     <t>4x Color: 10pcs 2028</t>
   </si>
   <si>
@@ -1407,22 +1389,10 @@
     <t>V-Slot Frame &amp; Rails &amp; Hardware</t>
   </si>
   <si>
-    <t>FABREEKO</t>
-  </si>
-  <si>
-    <t>HoneyBadger Frame &amp; Bracket Parts</t>
-  </si>
-  <si>
     <t>Complete Premium Kit</t>
   </si>
   <si>
     <t>Complete V-Slot Kit</t>
-  </si>
-  <si>
-    <t>Honeybadger Frame &amp; Brackets</t>
-  </si>
-  <si>
-    <t>Honeybadger Linear Guide Rails</t>
   </si>
   <si>
     <t>Pick one of the kits below or order from above</t>
@@ -1512,9 +1482,6 @@
     </r>
   </si>
   <si>
-    <t>HoneyBadger High Temp Rails</t>
-  </si>
-  <si>
     <t>3xMGN 12H/350mm. NB! See note</t>
   </si>
   <si>
@@ -1554,6 +1521,21 @@
   </si>
   <si>
     <t>Locally</t>
+  </si>
+  <si>
+    <t>20x20x18 Aluminum X-Axis Tube</t>
+  </si>
+  <si>
+    <t>15x15x13 Aluminum Tube</t>
+  </si>
+  <si>
+    <t>2x15X15X1mm 500mm</t>
+  </si>
+  <si>
+    <t>1x 20X20X1.5mm 500mm</t>
+  </si>
+  <si>
+    <t>TRPZNZ</t>
   </si>
 </sst>
 </file>
@@ -1956,7 +1938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2135,10 +2117,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2150,9 +2128,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2164,7 +2139,16 @@
     <xf numFmtId="166" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2176,21 +2160,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3009,7 +2981,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB8E62E6-79EF-4C10-B241-5331D8D58F9B}" name="Table14" displayName="Table14" ref="A7:L48" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB8E62E6-79EF-4C10-B241-5331D8D58F9B}" name="Table14" displayName="Table14" ref="A7:L46" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{CA0C5979-6B6C-4045-AC28-5E6CB8072C41}" name="System" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{6938B938-1ABB-4F7F-B7D0-55543997EB8C}" name="Category" dataDxfId="10"/>
@@ -3231,9 +3203,9 @@
   </sheetPr>
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -3253,27 +3225,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27.75" hidden="1" thickBot="1">
-      <c r="A1" s="114" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
+      <c r="A1" s="112" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>5</v>
@@ -3361,7 +3333,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>24</v>
@@ -3561,14 +3533,14 @@
         <v>20</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="69"/>
       <c r="M9" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N9" s="86"/>
     </row>
@@ -3583,7 +3555,7 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F10" s="9">
         <v>4</v>
@@ -3599,29 +3571,29 @@
         <v>40</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K10" s="27" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="71"/>
       <c r="M10" s="87" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E11">
         <v>350</v>
@@ -3640,29 +3612,29 @@
         <v>55.5</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L11" s="72"/>
       <c r="M11" s="87" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E12">
         <v>400</v>
@@ -3681,29 +3653,29 @@
         <v>39</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L12" s="72"/>
       <c r="M12" s="87" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E13">
         <v>400</v>
@@ -3722,10 +3694,10 @@
         <v>17.5</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L13" s="72"/>
       <c r="M13" s="2"/>
@@ -3742,7 +3714,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
@@ -3758,102 +3730,102 @@
       <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="E15" s="107"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="112" t="s">
-        <v>304</v>
+      <c r="D15" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="107" t="s">
+        <v>294</v>
       </c>
       <c r="L15" s="73"/>
-      <c r="M15" s="115" t="s">
-        <v>289</v>
-      </c>
-      <c r="N15" s="116"/>
+      <c r="M15" s="113" t="s">
+        <v>284</v>
+      </c>
+      <c r="N15" s="114"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="119" t="s">
-        <v>295</v>
-      </c>
-      <c r="E16" s="119"/>
-      <c r="F16" s="120">
-        <v>1</v>
-      </c>
-      <c r="G16" s="121">
+      <c r="D16" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="92">
+        <v>1</v>
+      </c>
+      <c r="G16" s="93">
         <v>720</v>
       </c>
-      <c r="H16" s="120"/>
+      <c r="H16" s="92"/>
       <c r="I16" s="39">
         <f>H16*G16</f>
         <v>0</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>299</v>
-      </c>
-      <c r="K16" s="102" t="s">
-        <v>43</v>
+        <v>291</v>
+      </c>
+      <c r="K16" s="98" t="s">
+        <v>41</v>
       </c>
       <c r="L16" s="69"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="116"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="114"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="99" t="s">
-        <v>296</v>
-      </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100">
-        <v>1</v>
-      </c>
-      <c r="G17" s="101">
+      <c r="D17" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96">
+        <v>1</v>
+      </c>
+      <c r="G17" s="97">
         <v>577</v>
       </c>
-      <c r="H17" s="100"/>
-      <c r="I17" s="104">
+      <c r="H17" s="96"/>
+      <c r="I17" s="100">
         <f t="shared" ref="I17" si="1">H17*G17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="122" t="s">
-        <v>300</v>
-      </c>
-      <c r="K17" s="103" t="s">
-        <v>43</v>
+      <c r="J17" s="110" t="s">
+        <v>292</v>
+      </c>
+      <c r="K17" s="99" t="s">
+        <v>41</v>
       </c>
       <c r="L17" s="69"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="116"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="114"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
@@ -3866,7 +3838,7 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="E18">
         <v>410</v>
@@ -3875,24 +3847,24 @@
         <v>1</v>
       </c>
       <c r="G18" s="10">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H18" s="9">
         <v>1</v>
       </c>
       <c r="I18" s="39">
         <f>H18*G18</f>
-        <v>20</v>
-      </c>
-      <c r="J18" s="117" t="s">
-        <v>223</v>
+        <v>8</v>
+      </c>
+      <c r="J18" s="108" t="s">
+        <v>324</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>38</v>
+        <v>325</v>
       </c>
       <c r="L18" s="74"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="116"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="114"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="17" t="s">
@@ -3904,30 +3876,30 @@
       <c r="C19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>219</v>
+      <c r="D19" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="E19">
         <v>230</v>
       </c>
       <c r="F19" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19" s="10">
-        <v>17.5</v>
+        <v>7</v>
       </c>
       <c r="H19" s="9">
         <v>2</v>
       </c>
       <c r="I19" s="39">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="K19" s="41" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="J19" s="108" t="s">
+        <v>323</v>
+      </c>
+      <c r="K19" s="81" t="s">
+        <v>325</v>
       </c>
       <c r="L19" s="74"/>
       <c r="M19" s="89"/>
@@ -3935,16 +3907,16 @@
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>350</v>
@@ -3961,30 +3933,30 @@
       <c r="I20" s="39">
         <v>104</v>
       </c>
-      <c r="J20" s="117" t="s">
-        <v>42</v>
+      <c r="J20" s="108" t="s">
+        <v>40</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L20" s="74"/>
-      <c r="M20" s="115" t="s">
-        <v>290</v>
-      </c>
-      <c r="N20" s="116"/>
+      <c r="M20" s="113" t="s">
+        <v>285</v>
+      </c>
+      <c r="N20" s="114"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E21">
         <v>330</v>
@@ -4002,30 +3974,30 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="J21" s="117" t="s">
-        <v>217</v>
+      <c r="J21" s="108" t="s">
+        <v>215</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L21" s="72" t="s">
-        <v>216</v>
-      </c>
-      <c r="M21" s="115"/>
-      <c r="N21" s="116"/>
+        <v>214</v>
+      </c>
+      <c r="M21" s="113"/>
+      <c r="N21" s="114"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="9">
         <v>6</v>
@@ -4040,11 +4012,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J22" s="117" t="s">
-        <v>54</v>
+      <c r="J22" s="108" t="s">
+        <v>52</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L22" s="74"/>
       <c r="M22" s="89"/>
@@ -4052,16 +4024,16 @@
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" s="9">
         <v>3</v>
@@ -4076,30 +4048,30 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J23" s="117" t="s">
-        <v>57</v>
+      <c r="J23" s="108" t="s">
+        <v>55</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L23" s="74"/>
-      <c r="M23" s="115" t="s">
-        <v>291</v>
-      </c>
-      <c r="N23" s="116"/>
+      <c r="M23" s="113" t="s">
+        <v>286</v>
+      </c>
+      <c r="N23" s="114"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="D24" s="18" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F24" s="9">
         <v>1</v>
@@ -4114,30 +4086,30 @@
         <f t="shared" ref="I24:I50" si="2">H24*G24</f>
         <v>145</v>
       </c>
-      <c r="J24" s="117" t="s">
-        <v>225</v>
+      <c r="J24" s="108" t="s">
+        <v>220</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L24" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="M24" s="115"/>
-      <c r="N24" s="116"/>
+        <v>203</v>
+      </c>
+      <c r="M24" s="113"/>
+      <c r="N24" s="114"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F25" s="9">
         <v>1</v>
@@ -4152,11 +4124,11 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="J25" s="117" t="s">
-        <v>114</v>
+      <c r="J25" s="108" t="s">
+        <v>112</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L25" s="74"/>
       <c r="M25" s="89"/>
@@ -4164,16 +4136,16 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F26" s="9">
         <v>1</v>
@@ -4188,11 +4160,11 @@
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="J26" s="117" t="s">
-        <v>118</v>
+      <c r="J26" s="108" t="s">
+        <v>116</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L26" s="74"/>
       <c r="M26" s="89"/>
@@ -4200,16 +4172,16 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E27">
         <v>300</v>
@@ -4227,30 +4199,30 @@
         <f t="shared" si="2"/>
         <v>78.39</v>
       </c>
-      <c r="J27" s="117" t="s">
-        <v>227</v>
+      <c r="J27" s="108" t="s">
+        <v>222</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L27" s="72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M27" s="89"/>
       <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F28" s="9">
         <v>2</v>
@@ -4266,29 +4238,29 @@
         <v>52</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L28" s="72" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M28" s="89"/>
       <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
@@ -4303,11 +4275,11 @@
         <f>H29*G29</f>
         <v>3</v>
       </c>
-      <c r="J29" s="117" t="s">
-        <v>218</v>
+      <c r="J29" s="108" t="s">
+        <v>216</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L29" s="74"/>
       <c r="M29" s="89"/>
@@ -4315,16 +4287,16 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F30" s="9">
         <v>1</v>
@@ -4339,30 +4311,30 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J30" s="117" t="s">
-        <v>189</v>
+      <c r="J30" s="108" t="s">
+        <v>187</v>
       </c>
       <c r="K30" s="41" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L30" s="72" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M30" s="89"/>
       <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
@@ -4378,10 +4350,10 @@
         <v>40</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K31" s="41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L31" s="74"/>
       <c r="M31" s="89"/>
@@ -4389,16 +4361,16 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
@@ -4413,11 +4385,11 @@
         <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
-      <c r="J32" s="117" t="s">
-        <v>215</v>
+      <c r="J32" s="108" t="s">
+        <v>213</v>
       </c>
       <c r="K32" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L32" s="74"/>
       <c r="M32" s="89"/>
@@ -4425,16 +4397,16 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
@@ -4450,10 +4422,10 @@
         <v>65</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="K33" s="81" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="L33" s="74"/>
       <c r="M33" s="89"/>
@@ -4461,16 +4433,16 @@
     </row>
     <row r="34" spans="1:14" ht="14.45" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
@@ -4486,10 +4458,10 @@
         <v>3.75</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L34" s="75"/>
       <c r="M34" s="89"/>
@@ -4497,16 +4469,16 @@
     </row>
     <row r="35" spans="1:14" ht="14.45" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F35" s="9">
         <v>2</v>
@@ -4522,10 +4494,10 @@
         <v>10</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L35" s="75"/>
       <c r="M35" s="89"/>
@@ -4533,16 +4505,16 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F36" s="9">
         <v>5</v>
@@ -4557,11 +4529,11 @@
         <f>H36*G36</f>
         <v>1.2</v>
       </c>
-      <c r="J36" s="117" t="s">
-        <v>49</v>
+      <c r="J36" s="108" t="s">
+        <v>47</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L36" s="74"/>
       <c r="M36" s="89"/>
@@ -4569,16 +4541,16 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F37" s="9">
         <v>12</v>
@@ -4593,11 +4565,11 @@
         <f>H37*G37</f>
         <v>9</v>
       </c>
-      <c r="J37" s="117" t="s">
-        <v>52</v>
+      <c r="J37" s="108" t="s">
+        <v>50</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L37" s="74"/>
       <c r="M37" s="89"/>
@@ -4605,16 +4577,16 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" t="s">
         <v>128</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" t="s">
-        <v>130</v>
       </c>
       <c r="F38" s="9">
         <v>8</v>
@@ -4629,11 +4601,11 @@
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="J38" s="117" t="s">
-        <v>131</v>
+      <c r="J38" s="108" t="s">
+        <v>129</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L38" s="74"/>
       <c r="M38" s="89"/>
@@ -4641,16 +4613,16 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F39" s="9">
         <v>10</v>
@@ -4665,11 +4637,11 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="J39" s="117" t="s">
-        <v>134</v>
+      <c r="J39" s="108" t="s">
+        <v>132</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L39" s="74"/>
       <c r="M39" s="89"/>
@@ -4677,16 +4649,16 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F40" s="9">
         <v>5</v>
@@ -4701,11 +4673,11 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="J40" s="117" t="s">
-        <v>137</v>
+      <c r="J40" s="108" t="s">
+        <v>135</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L40" s="74"/>
       <c r="M40" s="89"/>
@@ -4713,16 +4685,16 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F41" s="9">
         <v>5</v>
@@ -4737,11 +4709,11 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="J41" s="117" t="s">
-        <v>140</v>
+      <c r="J41" s="108" t="s">
+        <v>138</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L41" s="74"/>
       <c r="M41" s="89"/>
@@ -4749,16 +4721,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E42">
         <v>200</v>
@@ -4776,11 +4748,11 @@
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="J42" s="117" t="s">
-        <v>143</v>
+      <c r="J42" s="108" t="s">
+        <v>141</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L42" s="74"/>
       <c r="M42" s="89"/>
@@ -4788,16 +4760,16 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F43" s="9">
         <v>5</v>
@@ -4812,11 +4784,11 @@
         <f t="shared" si="2"/>
         <v>72.5</v>
       </c>
-      <c r="J43" s="117" t="s">
-        <v>147</v>
+      <c r="J43" s="108" t="s">
+        <v>145</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L43" s="75"/>
       <c r="M43" s="89"/>
@@ -4824,16 +4796,16 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F44" s="9">
         <v>5</v>
@@ -4848,11 +4820,11 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="J44" s="117" t="s">
-        <v>150</v>
+      <c r="J44" s="108" t="s">
+        <v>148</v>
       </c>
       <c r="K44" s="82" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L44" s="76"/>
       <c r="M44" s="89"/>
@@ -4860,16 +4832,16 @@
     </row>
     <row r="45" spans="1:14" ht="14.45" customHeight="1">
       <c r="A45" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" t="s">
         <v>152</v>
       </c>
-      <c r="B45" t="s">
-        <v>154</v>
-      </c>
       <c r="C45" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F45" s="9">
         <v>5</v>
@@ -4884,11 +4856,11 @@
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="J45" s="117" t="s">
-        <v>150</v>
+      <c r="J45" s="108" t="s">
+        <v>148</v>
       </c>
       <c r="K45" s="82" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L45" s="76"/>
       <c r="M45" s="89"/>
@@ -4896,16 +4868,16 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" t="s">
         <v>152</v>
       </c>
-      <c r="B46" t="s">
-        <v>154</v>
-      </c>
       <c r="C46" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E46">
         <v>300</v>
@@ -4923,11 +4895,11 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="J46" s="117" t="s">
-        <v>208</v>
+      <c r="J46" s="108" t="s">
+        <v>206</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L46" s="75"/>
       <c r="M46" s="89"/>
@@ -4935,16 +4907,16 @@
     </row>
     <row r="47" spans="1:14" ht="14.45" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D47" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F47" s="9">
         <v>5</v>
@@ -4960,10 +4932,10 @@
         <v>16.149999999999999</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L47" s="75"/>
       <c r="M47" s="89"/>
@@ -4971,16 +4943,16 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F48" s="9">
         <v>1</v>
@@ -4995,11 +4967,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J48" s="117" t="s">
-        <v>167</v>
+      <c r="J48" s="108" t="s">
+        <v>165</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L48" s="75"/>
       <c r="M48" s="89"/>
@@ -5007,16 +4979,16 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F49" s="9">
         <v>2</v>
@@ -5031,11 +5003,11 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="J49" s="118" t="s">
-        <v>310</v>
+      <c r="J49" s="109" t="s">
+        <v>300</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L49" s="75"/>
       <c r="M49" s="89"/>
@@ -5043,16 +5015,16 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F50" s="9">
         <v>1</v>
@@ -5067,11 +5039,11 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J50" s="117" t="s">
-        <v>180</v>
+      <c r="J50" s="108" t="s">
+        <v>178</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L50" s="75"/>
       <c r="M50" s="89"/>
@@ -5079,16 +5051,16 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F51" s="9">
         <v>1</v>
@@ -5104,11 +5076,11 @@
         <f t="shared" ref="I51" si="3">H51*G51</f>
         <v>3.96</v>
       </c>
-      <c r="J51" s="117" t="s">
-        <v>328</v>
+      <c r="J51" s="108" t="s">
+        <v>317</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L51" s="75"/>
       <c r="M51" s="89"/>
@@ -5116,16 +5088,16 @@
     </row>
     <row r="52" spans="1:14" ht="14.45" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D52" t="s">
         <v>260</v>
-      </c>
-      <c r="D52" t="s">
-        <v>265</v>
       </c>
       <c r="F52" s="9">
         <v>1</v>
@@ -5141,10 +5113,10 @@
         <v>3.72</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K52" s="81" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L52" s="75"/>
       <c r="M52" s="89"/>
@@ -5152,16 +5124,16 @@
     </row>
     <row r="53" spans="1:14" ht="14.45" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F53" s="9">
         <v>1</v>
@@ -5176,11 +5148,11 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J53" s="117" t="s">
-        <v>262</v>
+      <c r="J53" s="108" t="s">
+        <v>257</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L53" s="75"/>
       <c r="M53" s="89"/>
@@ -5188,16 +5160,16 @@
     </row>
     <row r="54" spans="1:14" ht="14.45" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F54" s="9">
         <v>1</v>
@@ -5212,11 +5184,11 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J54" s="117" t="s">
-        <v>264</v>
+      <c r="J54" s="108" t="s">
+        <v>259</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L54" s="75"/>
       <c r="M54" s="89"/>
@@ -5224,16 +5196,16 @@
     </row>
     <row r="55" spans="1:14" ht="14.45" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="F55" s="9">
         <v>1</v>
@@ -5249,10 +5221,10 @@
         <v>3</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="K55" s="81" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="L55" s="75"/>
       <c r="M55" s="89"/>
@@ -5260,16 +5232,16 @@
     </row>
     <row r="56" spans="1:14" ht="14.45" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F56" s="9">
         <v>1</v>
@@ -5284,11 +5256,11 @@
         <f>G56*H56</f>
         <v>15</v>
       </c>
-      <c r="J56" s="123" t="s">
-        <v>268</v>
+      <c r="J56" s="111" t="s">
+        <v>263</v>
       </c>
       <c r="K56" s="81" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="L56" s="77"/>
       <c r="M56" s="89"/>
@@ -5297,13 +5269,13 @@
     <row r="57" spans="1:14" ht="15.75" thickBot="1">
       <c r="A57" s="79"/>
       <c r="B57" s="60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="61" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D57" s="60" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E57" s="62"/>
       <c r="F57" s="63"/>
@@ -5327,7 +5299,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D58" s="43" t="s">
         <v>5</v>
@@ -5355,7 +5327,7 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="J20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="J21" r:id="rId3" display="Size: 310x310mm" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="J36" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
@@ -5454,19 +5426,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="27.75" thickBot="1">
-      <c r="A1" s="114" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
+      <c r="A1" s="112" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="42" t="s">
@@ -5541,10 +5513,10 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
@@ -5561,10 +5533,10 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="52"/>
@@ -5575,10 +5547,10 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>44</v>
@@ -5594,10 +5566,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I5" s="15">
         <v>934</v>
@@ -5612,10 +5584,10 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>68</v>
@@ -5631,10 +5603,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="52"/>
@@ -5645,10 +5617,10 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -5665,10 +5637,10 @@
         <v>0.49</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="51">
@@ -5681,10 +5653,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C8" s="9">
         <v>31</v>
@@ -5700,23 +5672,23 @@
         <v>0.74</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J8" s="51"/>
       <c r="L8" s="86"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="17" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
@@ -5731,26 +5703,26 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I9" s="53">
         <v>916</v>
       </c>
       <c r="J9" s="51"/>
       <c r="K9" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L9" s="86"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>36</v>
@@ -5766,26 +5738,26 @@
         <v>1</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="51">
         <v>7380</v>
       </c>
       <c r="K10" s="87" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L10" s="86"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -5800,10 +5772,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" s="15">
         <v>7991</v>
@@ -5812,16 +5784,16 @@
         <v>10642</v>
       </c>
       <c r="K11" s="87" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L11" s="86"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <v>38</v>
@@ -5837,26 +5809,26 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I12" s="13">
         <v>912</v>
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="87" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L12" s="86"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13">
         <v>31</v>
@@ -5872,10 +5844,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="51">
@@ -5886,10 +5858,10 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C14">
         <v>29</v>
@@ -5904,10 +5876,10 @@
         <v>1.07</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I14" s="15">
         <v>912</v>
@@ -5920,10 +5892,10 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -5939,26 +5911,26 @@
         <v>2</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="52">
         <v>7380</v>
       </c>
-      <c r="K15" s="115" t="s">
-        <v>289</v>
-      </c>
-      <c r="L15" s="116"/>
+      <c r="K15" s="113" t="s">
+        <v>284</v>
+      </c>
+      <c r="L15" s="114"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -5974,24 +5946,24 @@
         <v>1.5</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I16" s="13">
         <v>912</v>
       </c>
       <c r="J16" s="52"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="116"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="114"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" s="9">
         <v>4</v>
@@ -6008,10 +5980,10 @@
         <v>3.27</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="52"/>
@@ -6020,10 +5992,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C18" s="9">
         <v>4</v>
@@ -6040,24 +6012,24 @@
         <v>2.57</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="51"/>
-      <c r="K18" s="115" t="s">
-        <v>292</v>
-      </c>
-      <c r="L18" s="116"/>
+      <c r="K18" s="113" t="s">
+        <v>287</v>
+      </c>
+      <c r="L18" s="114"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -6073,22 +6045,22 @@
         <v>12</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="51"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="116"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="114"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -6104,10 +6076,10 @@
         <v>4</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="51"/>
@@ -6116,10 +6088,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -6135,10 +6107,10 @@
         <v>1.5</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I21" s="13">
         <v>934</v>
@@ -6146,17 +6118,17 @@
       <c r="J21" s="52">
         <v>4032</v>
       </c>
-      <c r="K21" s="115" t="s">
-        <v>291</v>
-      </c>
-      <c r="L21" s="116"/>
+      <c r="K21" s="113" t="s">
+        <v>286</v>
+      </c>
+      <c r="L21" s="114"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -6172,10 +6144,10 @@
         <v>1.5</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I22" s="15">
         <v>985</v>
@@ -6183,15 +6155,15 @@
       <c r="J22" s="51">
         <v>10511</v>
       </c>
-      <c r="K22" s="115"/>
-      <c r="L22" s="116"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="114"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -6207,10 +6179,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I23" s="13">
         <v>125</v>
@@ -6223,10 +6195,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -6242,10 +6214,10 @@
         <v>2</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I24" s="15">
         <v>7991</v>
@@ -6258,10 +6230,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -6277,10 +6249,10 @@
         <v>2</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I25" s="13">
         <v>7991</v>
@@ -6293,10 +6265,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -6312,10 +6284,10 @@
         <v>3.28</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I26" s="13">
         <v>7991</v>
@@ -6326,10 +6298,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27">
         <v>22</v>
@@ -6345,10 +6317,10 @@
         <v>2</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I27" s="15">
         <v>934</v>
@@ -6361,10 +6333,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28">
         <v>64</v>
@@ -6380,10 +6352,10 @@
         <v>11</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="52"/>
@@ -6392,10 +6364,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29">
         <v>15</v>
@@ -6411,10 +6383,10 @@
         <v>2.81</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I29" s="15">
         <v>985</v>
@@ -6427,10 +6399,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C30">
         <v>72</v>
@@ -6446,10 +6418,10 @@
         <v>13.5</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="52"/>
@@ -6458,10 +6430,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C31" s="9">
         <v>1</v>
@@ -6478,10 +6450,10 @@
         <v>3.62</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="51"/>
@@ -6490,10 +6462,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C32">
         <v>141</v>
@@ -6509,10 +6481,10 @@
         <v>2.56</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I32" s="15">
         <v>125</v>
@@ -6525,10 +6497,10 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33">
         <v>141</v>
@@ -6544,10 +6516,10 @@
         <v>40.35</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="52">
@@ -6558,10 +6530,10 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34">
         <v>9</v>
@@ -6577,10 +6549,10 @@
         <v>8</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="51">
@@ -6591,10 +6563,10 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -6609,10 +6581,10 @@
         <v>1.64</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="51">
@@ -6623,10 +6595,10 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -6642,10 +6614,10 @@
         <v>2.57</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I36" s="13">
         <v>933</v>
@@ -6656,10 +6628,10 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -6675,10 +6647,10 @@
         <v>6.08</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I37" s="13">
         <v>933</v>
@@ -6689,10 +6661,10 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C38" s="9">
         <v>33</v>
@@ -6708,10 +6680,10 @@
         <v>16</v>
       </c>
       <c r="G38" s="47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="51"/>
@@ -6720,10 +6692,10 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -6738,10 +6710,10 @@
         <v>9.5</v>
       </c>
       <c r="G39" s="47" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H39" s="41" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="51"/>
@@ -6750,10 +6722,10 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -6769,10 +6741,10 @@
         <v>4.5</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="52"/>
@@ -6781,10 +6753,10 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C41" s="9">
         <v>6</v>
@@ -6793,16 +6765,16 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F41" s="39">
         <v>9.1999999999999993</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="51"/>
@@ -6811,10 +6783,10 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" s="9">
         <v>6</v>
@@ -6830,10 +6802,10 @@
         <v>7.5</v>
       </c>
       <c r="G42" s="49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H42" s="41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="51"/>
@@ -6842,10 +6814,10 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -6861,10 +6833,10 @@
         <v>24</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="52"/>
@@ -6873,10 +6845,10 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -6893,10 +6865,10 @@
         <v>5.01</v>
       </c>
       <c r="G44" s="47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="52"/>
@@ -6905,10 +6877,10 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C45" s="9">
         <v>1</v>
@@ -6925,10 +6897,10 @@
         <v>1.72</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="51"/>
@@ -6937,7 +6909,7 @@
     </row>
     <row r="46" spans="1:20" s="6" customFormat="1" ht="16.5" thickBot="1">
       <c r="A46" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>5</v>
@@ -7035,10 +7007,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -7059,20 +7031,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27">
-      <c r="A1" s="114" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
+      <c r="A1" s="112" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -7081,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -7093,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="J3" s="2"/>
     </row>
@@ -7104,7 +7076,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -7114,7 +7086,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="J5" s="2"/>
     </row>
@@ -7124,7 +7096,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D6" s="43" t="s">
         <v>5</v>
@@ -7133,9 +7105,9 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="44"/>
-      <c r="I6" s="45">
-        <f>I49</f>
-        <v>1628.31</v>
+      <c r="I6" s="45" t="e">
+        <f>I47</f>
+        <v>#REF!</v>
       </c>
       <c r="J6" s="43"/>
       <c r="K6" s="50"/>
@@ -7208,7 +7180,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="K8" s="28" t="s">
         <v>24</v>
@@ -7242,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="39">
-        <f t="shared" ref="I9:I47" si="0">H9*G9</f>
+        <f t="shared" ref="I9:I45" si="0">H9*G9</f>
         <v>9.5</v>
       </c>
       <c r="J9" s="25" t="s">
@@ -7391,7 +7363,7 @@
         <v>25</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>24</v>
@@ -7409,7 +7381,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F14" s="9">
         <v>4</v>
@@ -7425,7 +7397,7 @@
         <v>40</v>
       </c>
       <c r="J14" s="55" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>24</v>
@@ -7434,16 +7406,16 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E15">
         <v>350</v>
@@ -7462,25 +7434,25 @@
         <v>55.5</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L15" s="72"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E16">
         <v>400</v>
@@ -7499,25 +7471,25 @@
         <v>39</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L16" s="72"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E17">
         <v>400</v>
@@ -7536,10 +7508,10 @@
         <v>17.5</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L17" s="72"/>
       <c r="M17" s="2"/>
@@ -7555,40 +7527,40 @@
         <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="80">
-        <f>G22+G23</f>
-        <v>535</v>
+      <c r="I18" s="80" t="e">
+        <f>#REF!+#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="J18" s="55"/>
       <c r="K18" s="27"/>
       <c r="L18" s="72"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="E19" s="107"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="112" t="s">
-        <v>304</v>
+      <c r="D19" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="107" t="s">
+        <v>294</v>
       </c>
       <c r="L19" s="73"/>
     </row>
@@ -7596,1081 +7568,1013 @@
       <c r="A20" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="92">
-        <v>1</v>
-      </c>
-      <c r="G20" s="93">
+      <c r="D20" s="115" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116">
+        <v>1</v>
+      </c>
+      <c r="G20" s="117">
         <v>720</v>
       </c>
-      <c r="H20" s="92"/>
+      <c r="H20" s="116"/>
       <c r="I20" s="39">
         <f>H20*G20</f>
         <v>0</v>
       </c>
       <c r="J20" s="69" t="s">
-        <v>299</v>
-      </c>
-      <c r="K20" s="102" t="s">
-        <v>43</v>
+        <v>291</v>
+      </c>
+      <c r="K20" s="98" t="s">
+        <v>41</v>
       </c>
       <c r="L20" s="69"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="92">
-        <v>1</v>
-      </c>
-      <c r="G21" s="93">
+      <c r="D21" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96">
+        <v>1</v>
+      </c>
+      <c r="G21" s="97">
         <v>577</v>
       </c>
-      <c r="H21" s="92"/>
-      <c r="I21" s="39">
-        <f t="shared" ref="I21:I23" si="1">H21*G21</f>
+      <c r="H21" s="96"/>
+      <c r="I21" s="100">
+        <f t="shared" ref="I21" si="1">H21*G21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="69" t="s">
-        <v>300</v>
-      </c>
-      <c r="K21" s="102" t="s">
-        <v>43</v>
+      <c r="J21" s="110" t="s">
+        <v>292</v>
+      </c>
+      <c r="K21" s="99" t="s">
+        <v>41</v>
       </c>
       <c r="L21" s="69"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="95" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="95" t="s">
-        <v>298</v>
-      </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96">
-        <v>1</v>
-      </c>
-      <c r="G22" s="97">
-        <v>175</v>
-      </c>
-      <c r="H22" s="96"/>
-      <c r="I22" s="38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="68" t="s">
-        <v>301</v>
-      </c>
-      <c r="K22" s="105" t="s">
-        <v>297</v>
-      </c>
-      <c r="L22" s="69"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A23" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="99" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="99" t="s">
-        <v>320</v>
-      </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="100">
-        <v>1</v>
-      </c>
-      <c r="G23" s="101">
-        <v>360</v>
-      </c>
-      <c r="H23" s="100"/>
-      <c r="I23" s="104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="113" t="s">
-        <v>302</v>
-      </c>
-      <c r="K23" s="103" t="s">
-        <v>297</v>
-      </c>
-      <c r="L23" s="69"/>
+      <c r="C22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22">
+        <v>410</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10">
+        <v>8</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1</v>
+      </c>
+      <c r="I22" s="39">
+        <f>H22*G22</f>
+        <v>8</v>
+      </c>
+      <c r="J22" s="108" t="s">
+        <v>324</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="L22" s="74"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>350</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1225</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1225</v>
+      </c>
+      <c r="I23" s="39">
+        <v>104</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="74"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="E24">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="F24" s="9">
         <v>1</v>
       </c>
       <c r="G24" s="10">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H24" s="9">
         <v>1</v>
       </c>
       <c r="I24" s="39">
-        <f>H24*G24</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24" s="74"/>
+        <v>43</v>
+      </c>
+      <c r="L24" s="72" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="F25" s="9">
-        <v>1225</v>
+        <v>6</v>
       </c>
       <c r="G25" s="10">
-        <v>0.08</v>
+        <v>3</v>
       </c>
       <c r="H25" s="9">
-        <v>1225</v>
+        <v>2</v>
       </c>
       <c r="I25" s="39">
-        <v>104</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L25" s="74"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="E26">
-        <v>330</v>
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
       </c>
       <c r="F26" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="10">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="H26" s="9">
         <v>1</v>
       </c>
       <c r="I26" s="39">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>217</v>
+        <v>3</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L26" s="72" t="s">
-        <v>216</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="L26" s="74"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="7" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" t="s">
-        <v>53</v>
+        <v>108</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>221</v>
       </c>
       <c r="F27" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G27" s="10">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="H27" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="39">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L27" s="74"/>
+        <v>109</v>
+      </c>
+      <c r="L27" s="72" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="7" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F28" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H28" s="9">
         <v>1</v>
       </c>
       <c r="I28" s="39">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="L28" s="74"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>226</v>
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
       </c>
       <c r="G29" s="10">
-        <v>145</v>
+        <v>7.5</v>
       </c>
       <c r="H29" s="9">
         <v>1</v>
       </c>
       <c r="I29" s="39">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>7.5</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="L29" s="72" t="s">
-        <v>205</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L29" s="74"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30">
+        <v>300</v>
       </c>
       <c r="F30" s="9">
         <v>1</v>
       </c>
       <c r="G30" s="10">
-        <v>23</v>
+        <v>78.39</v>
       </c>
       <c r="H30" s="9">
         <v>1</v>
       </c>
       <c r="I30" s="39">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>114</v>
+        <v>78.39</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>222</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="L30" s="74"/>
+        <v>200</v>
+      </c>
+      <c r="L30" s="72" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F31" s="9">
         <v>1</v>
       </c>
       <c r="G31" s="10">
-        <v>7.5</v>
+        <v>26</v>
       </c>
       <c r="H31" s="9">
         <v>1</v>
       </c>
       <c r="I31" s="39">
         <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>118</v>
+        <v>26</v>
+      </c>
+      <c r="J31" s="49" t="s">
+        <v>223</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="L31" s="74"/>
+        <v>133</v>
+      </c>
+      <c r="L31" s="72" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="E32">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="F32" s="9">
         <v>1</v>
       </c>
       <c r="G32" s="10">
-        <v>78.39</v>
+        <v>3</v>
       </c>
       <c r="H32" s="9">
         <v>1</v>
       </c>
       <c r="I32" s="39">
-        <f t="shared" si="0"/>
-        <v>78.39</v>
-      </c>
-      <c r="J32" s="48" t="s">
-        <v>227</v>
+        <f>H32*G32</f>
+        <v>3</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="L32" s="72" t="s">
-        <v>201</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="L32" s="74"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="F33" s="9">
         <v>1</v>
       </c>
       <c r="G33" s="10">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H33" s="9">
         <v>1</v>
       </c>
       <c r="I33" s="39">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="J33" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>224</v>
       </c>
       <c r="L33" s="72" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
       </c>
       <c r="G34" s="10">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H34" s="9">
         <v>1</v>
       </c>
       <c r="I34" s="39">
-        <f>H34*G34</f>
-        <v>3</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J34" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>133</v>
       </c>
       <c r="L34" s="74"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="D35" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
       </c>
       <c r="G35" s="10">
-        <v>2</v>
+        <v>13.5</v>
       </c>
       <c r="H35" s="9">
         <v>1</v>
       </c>
       <c r="I35" s="39">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>189</v>
+        <v>13.5</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>213</v>
       </c>
       <c r="K35" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="L35" s="72" t="s">
-        <v>204</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="L35" s="74"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>230</v>
+        <v>124</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
       </c>
       <c r="G36" s="10">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H36" s="9">
         <v>1</v>
       </c>
       <c r="I36" s="39">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="J36" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="K36" s="41" t="s">
-        <v>135</v>
+        <v>65</v>
+      </c>
+      <c r="J36" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" s="81" t="s">
+        <v>313</v>
       </c>
       <c r="L36" s="74"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="M36" s="89"/>
+    </row>
+    <row r="37" spans="1:13" ht="14.45" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>213</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
       </c>
       <c r="G37" s="10">
-        <v>13.5</v>
+        <v>3.75</v>
       </c>
       <c r="H37" s="9">
         <v>1</v>
       </c>
       <c r="I37" s="39">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="K37" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="L37" s="74"/>
+        <f>H37*G37</f>
+        <v>3.75</v>
+      </c>
+      <c r="J37" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L37" s="75"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="7" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>311</v>
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
       </c>
       <c r="F38" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G38" s="10">
-        <v>65</v>
+        <v>1.2</v>
       </c>
       <c r="H38" s="9">
         <v>1</v>
       </c>
       <c r="I38" s="39">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="J38" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="K38" s="81" t="s">
-        <v>324</v>
+        <f>H38*G38</f>
+        <v>1.2</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="L38" s="74"/>
-      <c r="M38" s="89"/>
-    </row>
-    <row r="39" spans="1:13" ht="14.45" customHeight="1">
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="7" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>273</v>
+        <v>49</v>
       </c>
       <c r="F39" s="9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G39" s="10">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="H39" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39" s="39">
         <f>H39*G39</f>
-        <v>3.75</v>
-      </c>
-      <c r="J39" s="47" t="s">
-        <v>274</v>
+        <v>9</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L39" s="75"/>
+        <v>48</v>
+      </c>
+      <c r="L39" s="74"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="F40" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G40" s="10">
-        <v>1.2</v>
+        <v>59</v>
       </c>
       <c r="H40" s="9">
         <v>1</v>
       </c>
       <c r="I40" s="39">
-        <f>H40*G40</f>
-        <v>1.2</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>49</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="L40" s="74"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="F41" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G41" s="10">
-        <v>3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H41" s="9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I41" s="39">
-        <f>H41*G41</f>
-        <v>9</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="L41" s="74"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F42" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G42" s="10">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="H42" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42" s="39">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>131</v>
+        <v>30</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="L42" s="74"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F43" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G43" s="10">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="H43" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I43" s="39">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L43" s="74"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="E44">
+        <v>200</v>
       </c>
       <c r="F44" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G44" s="10">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H44" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I44" s="39">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>137</v>
+        <v>48</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="L44" s="74"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F45" s="9">
         <v>5</v>
       </c>
       <c r="G45" s="10">
-        <v>4</v>
+        <v>14.5</v>
       </c>
       <c r="H45" s="9">
         <v>5</v>
       </c>
       <c r="I45" s="39">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>72.5</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L45" s="74"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46">
-        <v>200</v>
-      </c>
-      <c r="F46" s="9">
-        <v>3</v>
-      </c>
-      <c r="G46" s="10">
-        <v>16</v>
-      </c>
-      <c r="H46" s="9">
-        <v>3</v>
-      </c>
-      <c r="I46" s="39">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="L46" s="74"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="9">
-        <v>5</v>
-      </c>
-      <c r="G47" s="10">
-        <v>14.5</v>
-      </c>
-      <c r="H47" s="9">
-        <v>5</v>
-      </c>
-      <c r="I47" s="39">
-        <f t="shared" si="0"/>
-        <v>72.5</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="L47" s="75"/>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A48" s="79"/>
-      <c r="B48" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="D48" s="60" t="s">
-        <v>256</v>
-      </c>
-      <c r="E48" s="62"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="63">
-        <v>1</v>
-      </c>
-      <c r="I48" s="65">
+      <c r="L45" s="75"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A46" s="79"/>
+      <c r="B46" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46" s="62"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="63">
+        <v>1</v>
+      </c>
+      <c r="I46" s="65">
         <f>'Hardware List'!F46</f>
         <v>226.46999999999997</v>
       </c>
-      <c r="J48" s="66"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="78"/>
-    </row>
-    <row r="49" spans="1:12" s="6" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43" t="s">
+      <c r="J46" s="66"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="78"/>
+    </row>
+    <row r="47" spans="1:13" s="6" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A47" s="42"/>
+      <c r="B47" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="D49" s="43" t="s">
+      <c r="C47" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="D47" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="45">
-        <f>SUM(I24:I48)+I18</f>
-        <v>1628.31</v>
-      </c>
-      <c r="J49" s="43"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="40"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45" t="e">
+        <f>SUM(I22:I46)+I18</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J47" s="43"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J24" r:id="rId1" display="20X20X18MM 500MM" xr:uid="{59EDCAA0-A518-420A-83A5-77685C875FBD}"/>
-    <hyperlink ref="J25" r:id="rId2" xr:uid="{FCD34B63-DF2E-4872-BFD5-5CEE289B6217}"/>
-    <hyperlink ref="J26" r:id="rId3" display="Size: 310x310mm" xr:uid="{15829967-E459-43E7-BDF6-191C533F37E4}"/>
-    <hyperlink ref="J40" r:id="rId4" xr:uid="{56473608-B496-4EF3-9E81-DBAF975636DE}"/>
-    <hyperlink ref="J41" r:id="rId5" xr:uid="{73E21739-6AB4-4657-8CD6-92EB8D2DE8E3}"/>
-    <hyperlink ref="J27" r:id="rId6" xr:uid="{6582320E-6867-41C5-B332-883C6F5E54E8}"/>
-    <hyperlink ref="J28" r:id="rId7" xr:uid="{12F9D47A-4B05-40F9-AE7A-B9FF03AB15C1}"/>
-    <hyperlink ref="J29" r:id="rId8" xr:uid="{7B583AAB-2680-42EB-9366-ABF40064EC0A}"/>
-    <hyperlink ref="J30" r:id="rId9" xr:uid="{1BF69C45-27DC-4EBD-8948-D8C8ADAF353B}"/>
-    <hyperlink ref="J31" r:id="rId10" xr:uid="{9EFD0543-3ECC-406C-95F8-C50FD24EAE9F}"/>
-    <hyperlink ref="J32" r:id="rId11" display="1x Select Color: 220V/110V" xr:uid="{9FDFF617-EA44-4AEF-94B3-7A6DFD7ABC2B}"/>
-    <hyperlink ref="L33" r:id="rId12" xr:uid="{71DEEDB0-7B61-48B4-BC76-A61F8C23F5B9}"/>
-    <hyperlink ref="J34" r:id="rId13" display="1x 10Pcs Temperature: 160 degree" xr:uid="{461B8D06-59FB-41C4-928C-E9227731CF33}"/>
-    <hyperlink ref="J36" r:id="rId14" display="Color: Dragon-Standard flow" xr:uid="{539783F9-23A6-4CCC-B7BB-C7ADEFC949C0}"/>
-    <hyperlink ref="J42" r:id="rId15" xr:uid="{A7214C33-6F25-4CDB-9911-EEF1726351C4}"/>
-    <hyperlink ref="J43" r:id="rId16" xr:uid="{E08B44CE-7743-429C-9F00-B49F9DD380B4}"/>
-    <hyperlink ref="J44" r:id="rId17" xr:uid="{EB4CB8F1-4307-4941-9AA9-E58D1445C7BA}"/>
-    <hyperlink ref="J45" r:id="rId18" xr:uid="{33176838-55A5-442D-8597-7714779D23E5}"/>
-    <hyperlink ref="J46" r:id="rId19" xr:uid="{D16F093E-C063-4095-B981-70EB7556273F}"/>
-    <hyperlink ref="J47" r:id="rId20" xr:uid="{DFD3B466-58C0-4BB0-A240-40DE084EB6EB}"/>
-    <hyperlink ref="J35" r:id="rId21" xr:uid="{B23C80B2-ADFE-48FF-8206-624B1C458D35}"/>
-    <hyperlink ref="J33" r:id="rId22" display="Genuine Omron Solid State Relay" xr:uid="{E09F19DF-B73C-4B79-A825-B8B9B38DA427}"/>
-    <hyperlink ref="L32" r:id="rId23" display="1x 310mm 220V 750W" xr:uid="{E00DD198-4D39-468C-A7C5-6517124B60C1}"/>
-    <hyperlink ref="L29" r:id="rId24" display="1x TMC2209 x8" xr:uid="{07910DC6-ADF8-4CD3-B110-882C7B40E38D}"/>
-    <hyperlink ref="L35" r:id="rId25" display="1x ADXL345 Accelerometer" xr:uid="{EE8C9D4C-8156-46D9-8266-752CAEDB4527}"/>
-    <hyperlink ref="J37" r:id="rId26" xr:uid="{574B19B8-679E-4BB1-95E3-481B7E6B7CC3}"/>
-    <hyperlink ref="L26" r:id="rId27" xr:uid="{7CCAA504-70EE-480A-B0F9-05946499668E}"/>
-    <hyperlink ref="J39" r:id="rId28" xr:uid="{435830FE-9D28-4F8A-A580-BF2BE5EA2233}"/>
-    <hyperlink ref="E3" r:id="rId29" xr:uid="{8D7BE965-D64F-4EF6-AB85-6D60325E0F14}"/>
-    <hyperlink ref="E4" r:id="rId30" xr:uid="{1AB1BA1F-E652-4A59-AFD9-CF100F7A0675}"/>
-    <hyperlink ref="E5" r:id="rId31" xr:uid="{E1E6DD43-4F3E-40D4-869F-6509B89AF289}"/>
-    <hyperlink ref="J8" r:id="rId32" display="Color: 369 mm" xr:uid="{EC02321E-B7C3-4FC1-B874-04DFA25238EB}"/>
-    <hyperlink ref="J9" r:id="rId33" xr:uid="{75B54B15-A33C-4E87-8110-F508CB5C1277}"/>
-    <hyperlink ref="J10" r:id="rId34" xr:uid="{83361321-C27C-4029-97C6-080CDFE55588}"/>
-    <hyperlink ref="J11" r:id="rId35" xr:uid="{3ED6FC78-17EA-44FD-B607-926496CA6227}"/>
-    <hyperlink ref="J12" r:id="rId36" xr:uid="{34AFF23F-EEEB-46E8-9558-765383CF7C14}"/>
-    <hyperlink ref="J13" r:id="rId37" display="Color: 10pcs 2028" xr:uid="{BED46395-E185-4988-9D32-2CBED9A54CB5}"/>
-    <hyperlink ref="J14" r:id="rId38" xr:uid="{8B46BDD2-E98B-4C9A-A160-CDE182501C27}"/>
-    <hyperlink ref="J20" r:id="rId39" display="Makersupplies Complete Kit" xr:uid="{99CD1EB2-A71D-4BEA-A810-8742818402F2}"/>
-    <hyperlink ref="J21" r:id="rId40" xr:uid="{3B3B38BE-12A4-4908-A7D0-77B2122C84CB}"/>
-    <hyperlink ref="J23" r:id="rId41" xr:uid="{71BEE32E-F3AD-4223-B448-5A57A36C1B0A}"/>
-    <hyperlink ref="J22" r:id="rId42" xr:uid="{450A89A3-621C-40C6-9BB5-9E2B5DED92E2}"/>
-    <hyperlink ref="J38" r:id="rId43" xr:uid="{D50E2F4E-5674-4F27-AE38-26EAD033D64F}"/>
-    <hyperlink ref="J15" r:id="rId44" display="3xGL: 350 - C: MGN12 H" xr:uid="{9DF24142-1128-4DA9-82BF-881DB0AE2B75}"/>
-    <hyperlink ref="J16" r:id="rId45" display="3xGL: 350 - C: MGN12 H" xr:uid="{3CC379EE-1A30-4A47-ADAE-0C1CC69A0BB9}"/>
-    <hyperlink ref="J17" r:id="rId46" display="3xGL: 350 - C: MGN12 H" xr:uid="{85E708C4-24F3-4615-975D-E526035BAA0A}"/>
+    <hyperlink ref="J23" r:id="rId1" xr:uid="{FCD34B63-DF2E-4872-BFD5-5CEE289B6217}"/>
+    <hyperlink ref="J24" r:id="rId2" display="Size: 310x310mm" xr:uid="{15829967-E459-43E7-BDF6-191C533F37E4}"/>
+    <hyperlink ref="J38" r:id="rId3" xr:uid="{56473608-B496-4EF3-9E81-DBAF975636DE}"/>
+    <hyperlink ref="J39" r:id="rId4" xr:uid="{73E21739-6AB4-4657-8CD6-92EB8D2DE8E3}"/>
+    <hyperlink ref="J25" r:id="rId5" xr:uid="{6582320E-6867-41C5-B332-883C6F5E54E8}"/>
+    <hyperlink ref="J26" r:id="rId6" xr:uid="{12F9D47A-4B05-40F9-AE7A-B9FF03AB15C1}"/>
+    <hyperlink ref="J27" r:id="rId7" xr:uid="{7B583AAB-2680-42EB-9366-ABF40064EC0A}"/>
+    <hyperlink ref="J28" r:id="rId8" xr:uid="{1BF69C45-27DC-4EBD-8948-D8C8ADAF353B}"/>
+    <hyperlink ref="J29" r:id="rId9" xr:uid="{9EFD0543-3ECC-406C-95F8-C50FD24EAE9F}"/>
+    <hyperlink ref="J30" r:id="rId10" display="1x Select Color: 220V/110V" xr:uid="{9FDFF617-EA44-4AEF-94B3-7A6DFD7ABC2B}"/>
+    <hyperlink ref="L31" r:id="rId11" xr:uid="{71DEEDB0-7B61-48B4-BC76-A61F8C23F5B9}"/>
+    <hyperlink ref="J32" r:id="rId12" display="1x 10Pcs Temperature: 160 degree" xr:uid="{461B8D06-59FB-41C4-928C-E9227731CF33}"/>
+    <hyperlink ref="J34" r:id="rId13" display="Color: Dragon-Standard flow" xr:uid="{539783F9-23A6-4CCC-B7BB-C7ADEFC949C0}"/>
+    <hyperlink ref="J40" r:id="rId14" xr:uid="{A7214C33-6F25-4CDB-9911-EEF1726351C4}"/>
+    <hyperlink ref="J41" r:id="rId15" xr:uid="{E08B44CE-7743-429C-9F00-B49F9DD380B4}"/>
+    <hyperlink ref="J42" r:id="rId16" xr:uid="{EB4CB8F1-4307-4941-9AA9-E58D1445C7BA}"/>
+    <hyperlink ref="J43" r:id="rId17" xr:uid="{33176838-55A5-442D-8597-7714779D23E5}"/>
+    <hyperlink ref="J44" r:id="rId18" xr:uid="{D16F093E-C063-4095-B981-70EB7556273F}"/>
+    <hyperlink ref="J45" r:id="rId19" xr:uid="{DFD3B466-58C0-4BB0-A240-40DE084EB6EB}"/>
+    <hyperlink ref="J33" r:id="rId20" xr:uid="{B23C80B2-ADFE-48FF-8206-624B1C458D35}"/>
+    <hyperlink ref="J31" r:id="rId21" display="Genuine Omron Solid State Relay" xr:uid="{E09F19DF-B73C-4B79-A825-B8B9B38DA427}"/>
+    <hyperlink ref="L30" r:id="rId22" display="1x 310mm 220V 750W" xr:uid="{E00DD198-4D39-468C-A7C5-6517124B60C1}"/>
+    <hyperlink ref="L27" r:id="rId23" display="1x TMC2209 x8" xr:uid="{07910DC6-ADF8-4CD3-B110-882C7B40E38D}"/>
+    <hyperlink ref="L33" r:id="rId24" display="1x ADXL345 Accelerometer" xr:uid="{EE8C9D4C-8156-46D9-8266-752CAEDB4527}"/>
+    <hyperlink ref="J35" r:id="rId25" xr:uid="{574B19B8-679E-4BB1-95E3-481B7E6B7CC3}"/>
+    <hyperlink ref="L24" r:id="rId26" xr:uid="{7CCAA504-70EE-480A-B0F9-05946499668E}"/>
+    <hyperlink ref="J37" r:id="rId27" xr:uid="{435830FE-9D28-4F8A-A580-BF2BE5EA2233}"/>
+    <hyperlink ref="E3" r:id="rId28" xr:uid="{8D7BE965-D64F-4EF6-AB85-6D60325E0F14}"/>
+    <hyperlink ref="E4" r:id="rId29" xr:uid="{1AB1BA1F-E652-4A59-AFD9-CF100F7A0675}"/>
+    <hyperlink ref="E5" r:id="rId30" xr:uid="{E1E6DD43-4F3E-40D4-869F-6509B89AF289}"/>
+    <hyperlink ref="J8" r:id="rId31" display="Color: 369 mm" xr:uid="{EC02321E-B7C3-4FC1-B874-04DFA25238EB}"/>
+    <hyperlink ref="J9" r:id="rId32" xr:uid="{75B54B15-A33C-4E87-8110-F508CB5C1277}"/>
+    <hyperlink ref="J10" r:id="rId33" xr:uid="{83361321-C27C-4029-97C6-080CDFE55588}"/>
+    <hyperlink ref="J11" r:id="rId34" xr:uid="{3ED6FC78-17EA-44FD-B607-926496CA6227}"/>
+    <hyperlink ref="J12" r:id="rId35" xr:uid="{34AFF23F-EEEB-46E8-9558-765383CF7C14}"/>
+    <hyperlink ref="J13" r:id="rId36" display="Color: 10pcs 2028" xr:uid="{BED46395-E185-4988-9D32-2CBED9A54CB5}"/>
+    <hyperlink ref="J14" r:id="rId37" xr:uid="{8B46BDD2-E98B-4C9A-A160-CDE182501C27}"/>
+    <hyperlink ref="J20" r:id="rId38" display="Makersupplies Complete Kit" xr:uid="{99CD1EB2-A71D-4BEA-A810-8742818402F2}"/>
+    <hyperlink ref="J21" r:id="rId39" xr:uid="{3B3B38BE-12A4-4908-A7D0-77B2122C84CB}"/>
+    <hyperlink ref="J36" r:id="rId40" xr:uid="{D50E2F4E-5674-4F27-AE38-26EAD033D64F}"/>
+    <hyperlink ref="J15" r:id="rId41" display="3xGL: 350 - C: MGN12 H" xr:uid="{9DF24142-1128-4DA9-82BF-881DB0AE2B75}"/>
+    <hyperlink ref="J16" r:id="rId42" display="3xGL: 350 - C: MGN12 H" xr:uid="{3CC379EE-1A30-4A47-ADAE-0C1CC69A0BB9}"/>
+    <hyperlink ref="J17" r:id="rId43" display="3xGL: 350 - C: MGN12 H" xr:uid="{85E708C4-24F3-4615-975D-E526035BAA0A}"/>
+    <hyperlink ref="J22" r:id="rId44" xr:uid="{E876E442-67AF-4B42-95D0-7C4518ABA9B9}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId47"/>
-  <drawing r:id="rId48"/>
-  <legacyDrawing r:id="rId49"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId45"/>
+  <drawing r:id="rId46"/>
+  <legacyDrawing r:id="rId47"/>
   <tableParts count="1">
-    <tablePart r:id="rId50"/>
+    <tablePart r:id="rId48"/>
   </tableParts>
 </worksheet>
 </file>